--- a/Saved model/Saved Results.xlsx
+++ b/Saved model/Saved Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albi2\Documents\GitHub\Variational-Autoencoder-for-EEG-analysis\Saved model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C0E822-3E20-42EE-8847-A7405287386D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5A229A-4D3E-402E-A131-D8112B5B484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,818 +361,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="164">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="84">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2338,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R58"/>
+  <dimension ref="A2:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2352,74 +1559,79 @@
     <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="35"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="36"/>
+    </row>
+    <row r="5" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-    </row>
-    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+    </row>
+    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ref="B6:B14" si="0">AVERAGE(D6:S6)</f>
-        <v>0.82592573333333363</v>
+        <f>AVERAGE(D6:Z6)</f>
+        <v>0.82552062500000034</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6:C14" si="1">MAX(D6:S6)</f>
+        <f>MAX(D6:Z6)</f>
         <v>0.85416700000000001</v>
       </c>
       <c r="D6" s="3">
@@ -2467,17 +1679,21 @@
       <c r="R6" s="27">
         <v>0.82291700000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="31">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" si="0"/>
-        <v>0.70046286666666679</v>
+        <f>AVERAGE(D7:Z7)</f>
+        <v>0.70225687500000011</v>
       </c>
       <c r="C7" s="9">
-        <f t="shared" si="1"/>
+        <f>MAX(D7:Z7)</f>
         <v>0.75</v>
       </c>
       <c r="D7" s="8">
@@ -2525,17 +1741,21 @@
       <c r="R7" s="27">
         <v>0.72569399999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="31">
+        <v>0.72916700000000001</v>
+      </c>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.87847226666666656</v>
+        <f t="shared" ref="B8:B14" si="0">AVERAGE(D8:Z8)</f>
+        <v>0.87782124999999989</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C8:C14" si="1">MAX(D8:Z8)</f>
         <v>0.91666700000000001</v>
       </c>
       <c r="D8" s="8">
@@ -2583,14 +1803,18 @@
       <c r="R8" s="27">
         <v>0.86111099999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="31">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>4</v>
       </c>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
-        <v>0.7114583333333333</v>
+        <v>0.71321612499999998</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="1"/>
@@ -2641,14 +1865,18 @@
       <c r="R9" s="27">
         <v>0.78645799999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="31">
+        <v>0.73958299999999999</v>
+      </c>
+      <c r="T9" s="31"/>
+    </row>
+    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
-        <v>0.76828713333333343</v>
+        <v>0.77322056250000015</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="1"/>
@@ -2699,14 +1927,18 @@
       <c r="R10" s="27">
         <v>0.85416700000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="31">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>6</v>
       </c>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
-        <v>0.81712960000000001</v>
+        <v>0.81814231250000002</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="1"/>
@@ -2757,14 +1989,18 @@
       <c r="R11" s="27">
         <v>0.85069399999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="31">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>7</v>
       </c>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
-        <v>0.83958340000000009</v>
+        <v>0.84136293750000002</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="1"/>
@@ -2815,14 +2051,18 @@
       <c r="R12" s="27">
         <v>0.87847200000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S12" s="31">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="T12" s="31"/>
+    </row>
+    <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>8</v>
       </c>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
-        <v>0.85486106666666672</v>
+        <v>0.85677081250000009</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="1"/>
@@ -2873,14 +2113,18 @@
       <c r="R13" s="27">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S13" s="31">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="T13" s="31"/>
+    </row>
+    <row r="14" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>9</v>
       </c>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
-        <v>0.89189813333333334</v>
+        <v>0.89301212500000005</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" si="1"/>
@@ -2931,12 +2175,16 @@
       <c r="R14" s="27">
         <v>0.91666700000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S14" s="31">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="T14" s="31"/>
+    </row>
+    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="13">
         <f t="shared" ref="B15:C15" si="2">AVERAGE(B6:B14)</f>
-        <v>0.80978650370370386</v>
+        <v>0.81125818055555543</v>
       </c>
       <c r="C15" s="15">
         <f t="shared" si="2"/>
@@ -2947,7 +2195,7 @@
         <v>0.77372688888888896</v>
       </c>
       <c r="E15" s="14">
-        <f t="shared" ref="E15:R15" si="3">AVERAGE(E6:E14)</f>
+        <f t="shared" ref="E15:S15" si="3">AVERAGE(E6:E14)</f>
         <v>0.7754631111111111</v>
       </c>
       <c r="F15" s="14">
@@ -3002,33 +2250,41 @@
         <f t="shared" si="3"/>
         <v>0.84124222222222234</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" s="8">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333348</v>
+      </c>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" t="s">
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R17" s="35"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="36"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>2</v>
@@ -3036,37 +2292,39 @@
       <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32" t="s">
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" ref="B19:B27" si="4">AVERAGE(D19:S19)</f>
-        <v>0.82222228148148147</v>
+        <f>AVERAGE(D19:Z19)</f>
+        <v>0.8224827013888889</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" ref="C19:C27" si="5">MAX(D19:S19)</f>
+        <f>MAX(D19:Z19)</f>
         <v>0.85416700000000001</v>
       </c>
       <c r="D19" s="8">
@@ -3114,17 +2372,20 @@
       <c r="R19">
         <v>0.85416700000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19">
+        <v>0.82638900000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>2</v>
       </c>
       <c r="B20" s="7">
-        <f t="shared" si="4"/>
-        <v>0.70671296296296293</v>
+        <f>AVERAGE(D20:Z20)</f>
+        <v>0.71028646527777783</v>
       </c>
       <c r="C20" s="9">
-        <f t="shared" si="5"/>
+        <f>MAX(D20:Z20)</f>
         <v>0.79166666666666596</v>
       </c>
       <c r="D20" s="8">
@@ -3172,17 +2433,20 @@
       <c r="R20">
         <v>0.71180600000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20">
+        <v>0.76388900000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>3</v>
       </c>
       <c r="B21" s="7">
-        <f t="shared" si="4"/>
-        <v>0.87523141481481459</v>
+        <f t="shared" ref="B21:B27" si="4">AVERAGE(D21:Z21)</f>
+        <v>0.87521695138888866</v>
       </c>
       <c r="C21" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C21:C27" si="5">MAX(D21:Z21)</f>
         <v>0.92361099999999996</v>
       </c>
       <c r="D21" s="8">
@@ -3230,14 +2494,17 @@
       <c r="R21">
         <v>0.89583299999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>4</v>
       </c>
       <c r="B22" s="7">
         <f t="shared" si="4"/>
-        <v>0.70555555555555549</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="5"/>
@@ -3288,18 +2555,21 @@
       <c r="R22">
         <v>0.78125</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>5</v>
       </c>
       <c r="B23" s="7">
         <f t="shared" si="4"/>
-        <v>0.77685185925925937</v>
+        <v>0.78016493055555558</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="5"/>
-        <v>0.82291700000000001</v>
+        <v>0.82986099999999996</v>
       </c>
       <c r="D23" s="8">
         <v>0.68055600000000005</v>
@@ -3346,14 +2616,17 @@
       <c r="R23">
         <v>0.82291700000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23">
+        <v>0.82986099999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>6</v>
       </c>
       <c r="B24" s="7">
         <f t="shared" si="4"/>
-        <v>0.81458327407407405</v>
+        <v>0.8144530694444444</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="5"/>
@@ -3404,14 +2677,17 @@
       <c r="R24">
         <v>0.84027799999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>7</v>
       </c>
       <c r="B25" s="7">
         <f t="shared" si="4"/>
-        <v>0.83912045925925915</v>
+        <v>0.84071186805555542</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="5"/>
@@ -3462,14 +2738,17 @@
       <c r="R25">
         <v>0.87847200000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <v>0.86458299999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>8</v>
       </c>
       <c r="B26" s="7">
         <f t="shared" si="4"/>
-        <v>0.85277776296296293</v>
+        <v>0.85438365277777772</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="5"/>
@@ -3520,14 +2799,17 @@
       <c r="R26">
         <v>0.89236099999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S26">
+        <v>0.87847200000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>9</v>
       </c>
       <c r="B27" s="7">
         <f t="shared" si="4"/>
-        <v>0.89120362222222194</v>
+        <v>0.89149295833333309</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" si="5"/>
@@ -3578,18 +2860,21 @@
       <c r="R27">
         <v>0.90625</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27">
+        <v>0.89583299999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="13">
         <f t="shared" ref="B28" si="6">AVERAGE(B19:B27)</f>
-        <v>0.80936213251028799</v>
+        <v>0.81083621450617271</v>
       </c>
       <c r="C28" s="15">
         <f t="shared" ref="C28" si="7">AVERAGE(C19:C27)</f>
-        <v>0.8651620864197529</v>
+        <v>0.86593364197530842</v>
       </c>
       <c r="D28" s="8">
         <f>AVERAGE(D19:D27)</f>
@@ -3612,7 +2897,7 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" ref="I28:R28" si="8">AVERAGE(I19:I27)</f>
+        <f t="shared" ref="I28:S28" si="8">AVERAGE(I19:I27)</f>
         <v>0.79706777777777771</v>
       </c>
       <c r="J28" s="8">
@@ -3651,77 +2936,86 @@
         <f t="shared" si="8"/>
         <v>0.84259266666666677</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28" s="8">
+        <f t="shared" si="8"/>
+        <v>0.83294744444444435</v>
+      </c>
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
       <c r="P29" s="26"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="31" t="s">
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" t="s">
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32" t="s">
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32" t="s">
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" s="17">
         <f>B6 * 100</f>
-        <v>82.592573333333362</v>
+        <v>82.552062500000034</v>
       </c>
       <c r="C34" s="18">
-        <f t="shared" ref="C34:K34" si="9">C6 * 100</f>
+        <f t="shared" ref="C34:J34" si="9">C6 * 100</f>
         <v>85.416700000000006</v>
       </c>
       <c r="D34" s="20">
@@ -3761,7 +3055,7 @@
         <v>84.722200000000001</v>
       </c>
       <c r="M34" s="20">
-        <f t="shared" ref="M34:R34" si="10">M6 * 100</f>
+        <f t="shared" ref="M34:S34" si="10">M6 * 100</f>
         <v>85.069400000000002</v>
       </c>
       <c r="N34" s="20">
@@ -3784,14 +3078,19 @@
         <f t="shared" si="10"/>
         <v>82.291700000000006</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34" s="20">
+        <f t="shared" si="10"/>
+        <v>81.944400000000002</v>
+      </c>
+      <c r="T34" s="20"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>2</v>
       </c>
       <c r="B35" s="19">
         <f t="shared" ref="B35:L42" si="11">B7 * 100</f>
-        <v>70.046286666666674</v>
+        <v>70.225687500000006</v>
       </c>
       <c r="C35" s="21">
         <f t="shared" si="11"/>
@@ -3834,7 +3133,7 @@
         <v>70.833299999999994</v>
       </c>
       <c r="M35" s="20">
-        <f t="shared" ref="M35:R35" si="12">M7 * 100</f>
+        <f t="shared" ref="M35:S35" si="12">M7 * 100</f>
         <v>75</v>
       </c>
       <c r="N35" s="20">
@@ -3857,14 +3156,19 @@
         <f t="shared" si="12"/>
         <v>72.569400000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35" s="20">
+        <f t="shared" si="12"/>
+        <v>72.916700000000006</v>
+      </c>
+      <c r="T35" s="20"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>3</v>
       </c>
       <c r="B36" s="19">
         <f t="shared" si="11"/>
-        <v>87.847226666666657</v>
+        <v>87.782124999999994</v>
       </c>
       <c r="C36" s="21">
         <f t="shared" si="11"/>
@@ -3907,7 +3211,7 @@
         <v>90.277799999999999</v>
       </c>
       <c r="M36" s="20">
-        <f t="shared" ref="M36:R36" si="13">M8 * 100</f>
+        <f t="shared" ref="M36:S36" si="13">M8 * 100</f>
         <v>91.666700000000006</v>
       </c>
       <c r="N36" s="20">
@@ -3930,14 +3234,19 @@
         <f t="shared" si="13"/>
         <v>86.111099999999993</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S36" s="20">
+        <f t="shared" si="13"/>
+        <v>86.805599999999998</v>
+      </c>
+      <c r="T36" s="20"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>4</v>
       </c>
       <c r="B37" s="19">
         <f t="shared" si="11"/>
-        <v>71.145833333333329</v>
+        <v>71.321612500000001</v>
       </c>
       <c r="C37" s="21">
         <f t="shared" si="11"/>
@@ -3980,7 +3289,7 @@
         <v>77.083299999999994</v>
       </c>
       <c r="M37" s="20">
-        <f t="shared" ref="M37:R37" si="14">M9 * 100</f>
+        <f t="shared" ref="M37:S37" si="14">M9 * 100</f>
         <v>76.5625</v>
       </c>
       <c r="N37" s="20">
@@ -4003,14 +3312,19 @@
         <f t="shared" si="14"/>
         <v>78.645799999999994</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37" s="20">
+        <f t="shared" si="14"/>
+        <v>73.958299999999994</v>
+      </c>
+      <c r="T37" s="20"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>5</v>
       </c>
       <c r="B38" s="19">
         <f t="shared" si="11"/>
-        <v>76.82871333333334</v>
+        <v>77.322056250000017</v>
       </c>
       <c r="C38" s="21">
         <f t="shared" si="11"/>
@@ -4053,7 +3367,7 @@
         <v>77.777799999999999</v>
       </c>
       <c r="M38" s="20">
-        <f t="shared" ref="M38:R38" si="15">M10 * 100</f>
+        <f t="shared" ref="M38:S38" si="15">M10 * 100</f>
         <v>79.166700000000006</v>
       </c>
       <c r="N38" s="20">
@@ -4076,14 +3390,19 @@
         <f t="shared" si="15"/>
         <v>85.416700000000006</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38" s="20">
+        <f t="shared" si="15"/>
+        <v>84.722200000000001</v>
+      </c>
+      <c r="T38" s="20"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>6</v>
       </c>
       <c r="B39" s="19">
         <f t="shared" si="11"/>
-        <v>81.712959999999995</v>
+        <v>81.814231250000006</v>
       </c>
       <c r="C39" s="21">
         <f t="shared" si="11"/>
@@ -4126,7 +3445,7 @@
         <v>82.638900000000007</v>
       </c>
       <c r="M39" s="20">
-        <f t="shared" ref="M39:R39" si="16">M11 * 100</f>
+        <f t="shared" ref="M39:S39" si="16">M11 * 100</f>
         <v>80.555599999999998</v>
       </c>
       <c r="N39" s="20">
@@ -4149,14 +3468,19 @@
         <f t="shared" si="16"/>
         <v>85.069400000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39" s="20">
+        <f t="shared" si="16"/>
+        <v>83.333299999999994</v>
+      </c>
+      <c r="T39" s="20"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>7</v>
       </c>
       <c r="B40" s="19">
         <f t="shared" si="11"/>
-        <v>83.958340000000007</v>
+        <v>84.136293750000007</v>
       </c>
       <c r="C40" s="21">
         <f t="shared" si="11"/>
@@ -4199,7 +3523,7 @@
         <v>84.375</v>
       </c>
       <c r="M40" s="20">
-        <f t="shared" ref="M40:R40" si="17">M12 * 100</f>
+        <f t="shared" ref="M40:S40" si="17">M12 * 100</f>
         <v>86.111099999999993</v>
       </c>
       <c r="N40" s="20">
@@ -4222,14 +3546,19 @@
         <f t="shared" si="17"/>
         <v>87.847200000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40" s="20">
+        <f t="shared" si="17"/>
+        <v>86.805599999999998</v>
+      </c>
+      <c r="T40" s="20"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>8</v>
       </c>
       <c r="B41" s="19">
         <f t="shared" si="11"/>
-        <v>85.486106666666672</v>
+        <v>85.677081250000015</v>
       </c>
       <c r="C41" s="21">
         <f t="shared" si="11"/>
@@ -4272,7 +3601,7 @@
         <v>86.111099999999993</v>
       </c>
       <c r="M41" s="20">
-        <f t="shared" ref="M41:R41" si="18">M13 * 100</f>
+        <f t="shared" ref="M41:S41" si="18">M13 * 100</f>
         <v>85.069400000000002</v>
       </c>
       <c r="N41" s="20">
@@ -4295,14 +3624,19 @@
         <f t="shared" si="18"/>
         <v>87.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S41" s="20">
+        <f t="shared" si="18"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="T41" s="20"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>9</v>
       </c>
       <c r="B42" s="22">
         <f t="shared" si="11"/>
-        <v>89.189813333333333</v>
+        <v>89.301212500000005</v>
       </c>
       <c r="C42" s="23">
         <f t="shared" si="11"/>
@@ -4345,7 +3679,7 @@
         <v>89.236099999999993</v>
       </c>
       <c r="M42" s="20">
-        <f t="shared" ref="M42:R42" si="19">M14 * 100</f>
+        <f t="shared" ref="M42:S42" si="19">M14 * 100</f>
         <v>89.236099999999993</v>
       </c>
       <c r="N42" s="20">
@@ -4368,14 +3702,19 @@
         <f t="shared" si="19"/>
         <v>91.666700000000006</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S42" s="20">
+        <f t="shared" si="19"/>
+        <v>90.972200000000001</v>
+      </c>
+      <c r="T42" s="20"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="24">
-        <f t="shared" ref="B43:R43" si="20">AVERAGE(B34:B42)</f>
-        <v>80.978650370370374</v>
+        <f t="shared" ref="B43:S43" si="20">AVERAGE(B34:B42)</f>
+        <v>81.12581805555557</v>
       </c>
       <c r="C43" s="25">
         <f t="shared" si="20"/>
@@ -4441,23 +3780,28 @@
         <f t="shared" si="20"/>
         <v>84.12422222222223</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43" s="20">
+        <f t="shared" si="20"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="T43" s="20"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -4472,66 +3816,70 @@
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="31" t="s">
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" t="s">
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32" t="s">
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32" t="s">
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>1</v>
       </c>
       <c r="B48" s="17">
         <f>B19 * 100</f>
-        <v>82.222228148148147</v>
+        <v>82.248270138888884</v>
       </c>
       <c r="C48" s="18">
         <f t="shared" ref="C48:K48" si="21">C19 * 100</f>
@@ -4574,7 +3922,7 @@
         <v>85.416700000000006</v>
       </c>
       <c r="M48" s="20">
-        <f t="shared" ref="M48:R48" si="22">M19 * 100</f>
+        <f t="shared" ref="M48:S48" si="22">M19 * 100</f>
         <v>82.291700000000006</v>
       </c>
       <c r="N48" s="20">
@@ -4597,14 +3945,19 @@
         <f t="shared" si="22"/>
         <v>85.416700000000006</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S48" s="20">
+        <f t="shared" si="22"/>
+        <v>82.638900000000007</v>
+      </c>
+      <c r="T48" s="20"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>2</v>
       </c>
       <c r="B49" s="19">
         <f t="shared" ref="B49:L49" si="23">B20 * 100</f>
-        <v>70.671296296296291</v>
+        <v>71.028646527777781</v>
       </c>
       <c r="C49" s="21">
         <f t="shared" si="23"/>
@@ -4647,7 +4000,7 @@
         <v>69.791700000000006</v>
       </c>
       <c r="M49" s="20">
-        <f t="shared" ref="M49:R49" si="24">M20 * 100</f>
+        <f t="shared" ref="M49:S49" si="24">M20 * 100</f>
         <v>73.958299999999994</v>
       </c>
       <c r="N49" s="20">
@@ -4670,14 +4023,19 @@
         <f t="shared" si="24"/>
         <v>71.180599999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S49" s="20">
+        <f t="shared" si="24"/>
+        <v>76.388900000000007</v>
+      </c>
+      <c r="T49" s="20"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>3</v>
       </c>
       <c r="B50" s="19">
         <f t="shared" ref="B50:L50" si="25">B21 * 100</f>
-        <v>87.52314148148146</v>
+        <v>87.521695138888873</v>
       </c>
       <c r="C50" s="21">
         <f t="shared" si="25"/>
@@ -4720,7 +4078,7 @@
         <v>88.888900000000007</v>
       </c>
       <c r="M50" s="20">
-        <f t="shared" ref="M50:R50" si="26">M21 * 100</f>
+        <f t="shared" ref="M50:S50" si="26">M21 * 100</f>
         <v>87.5</v>
       </c>
       <c r="N50" s="20">
@@ -4743,14 +4101,19 @@
         <f t="shared" si="26"/>
         <v>89.583299999999994</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50" s="20">
+        <f t="shared" si="26"/>
+        <v>87.5</v>
+      </c>
+      <c r="T50" s="20"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>4</v>
       </c>
       <c r="B51" s="19">
         <f t="shared" ref="B51:L51" si="27">B22 * 100</f>
-        <v>70.555555555555543</v>
+        <v>70.833333333333329</v>
       </c>
       <c r="C51" s="21">
         <f t="shared" si="27"/>
@@ -4793,7 +4156,7 @@
         <v>75</v>
       </c>
       <c r="M51" s="20">
-        <f t="shared" ref="M51:R51" si="28">M22 * 100</f>
+        <f t="shared" ref="M51:S51" si="28">M22 * 100</f>
         <v>78.125</v>
       </c>
       <c r="N51" s="20">
@@ -4816,18 +4179,23 @@
         <f t="shared" si="28"/>
         <v>78.125</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S51" s="20">
+        <f t="shared" si="28"/>
+        <v>75</v>
+      </c>
+      <c r="T51" s="20"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>5</v>
       </c>
       <c r="B52" s="19">
         <f t="shared" ref="B52:L52" si="29">B23 * 100</f>
-        <v>77.685185925925936</v>
+        <v>78.016493055555557</v>
       </c>
       <c r="C52" s="21">
         <f t="shared" si="29"/>
-        <v>82.291700000000006</v>
+        <v>82.986099999999993</v>
       </c>
       <c r="D52" s="20">
         <f t="shared" si="29"/>
@@ -4866,7 +4234,7 @@
         <v>78.819400000000002</v>
       </c>
       <c r="M52" s="20">
-        <f t="shared" ref="M52:R52" si="30">M23 * 100</f>
+        <f t="shared" ref="M52:S52" si="30">M23 * 100</f>
         <v>82.291700000000006</v>
       </c>
       <c r="N52" s="20">
@@ -4889,14 +4257,19 @@
         <f t="shared" si="30"/>
         <v>82.291700000000006</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S52" s="20">
+        <f t="shared" si="30"/>
+        <v>82.986099999999993</v>
+      </c>
+      <c r="T52" s="20"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>6</v>
       </c>
       <c r="B53" s="19">
         <f t="shared" ref="B53:L53" si="31">B24 * 100</f>
-        <v>81.45832740740741</v>
+        <v>81.44530694444444</v>
       </c>
       <c r="C53" s="21">
         <f t="shared" si="31"/>
@@ -4939,7 +4312,7 @@
         <v>81.944400000000002</v>
       </c>
       <c r="M53" s="20">
-        <f t="shared" ref="M53:R53" si="32">M24 * 100</f>
+        <f t="shared" ref="M53:S53" si="32">M24 * 100</f>
         <v>81.597200000000001</v>
       </c>
       <c r="N53" s="20">
@@ -4962,14 +4335,19 @@
         <f t="shared" si="32"/>
         <v>84.027799999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S53" s="20">
+        <f t="shared" si="32"/>
+        <v>81.25</v>
+      </c>
+      <c r="T53" s="20"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>7</v>
       </c>
       <c r="B54" s="19">
         <f t="shared" ref="B54:L54" si="33">B25 * 100</f>
-        <v>83.912045925925909</v>
+        <v>84.071186805555541</v>
       </c>
       <c r="C54" s="21">
         <f t="shared" si="33"/>
@@ -5012,7 +4390,7 @@
         <v>83.680599999999998</v>
       </c>
       <c r="M54" s="20">
-        <f t="shared" ref="M54:R54" si="34">M25 * 100</f>
+        <f t="shared" ref="M54:S54" si="34">M25 * 100</f>
         <v>83.680599999999998</v>
       </c>
       <c r="N54" s="20">
@@ -5035,14 +4413,19 @@
         <f t="shared" si="34"/>
         <v>87.847200000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S54" s="20">
+        <f t="shared" si="34"/>
+        <v>86.458299999999994</v>
+      </c>
+      <c r="T54" s="20"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>8</v>
       </c>
       <c r="B55" s="19">
         <f t="shared" ref="B55:L55" si="35">B26 * 100</f>
-        <v>85.277776296296295</v>
+        <v>85.438365277777777</v>
       </c>
       <c r="C55" s="21">
         <f t="shared" si="35"/>
@@ -5085,7 +4468,7 @@
         <v>87.5</v>
       </c>
       <c r="M55" s="20">
-        <f t="shared" ref="M55:R55" si="36">M26 * 100</f>
+        <f t="shared" ref="M55:S55" si="36">M26 * 100</f>
         <v>83.333299999999994</v>
       </c>
       <c r="N55" s="20">
@@ -5108,14 +4491,19 @@
         <f t="shared" si="36"/>
         <v>89.236099999999993</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S55" s="20">
+        <f t="shared" si="36"/>
+        <v>87.847200000000001</v>
+      </c>
+      <c r="T55" s="20"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>9</v>
       </c>
       <c r="B56" s="22">
         <f t="shared" ref="B56:L56" si="37">B27 * 100</f>
-        <v>89.120362222222198</v>
+        <v>89.149295833333312</v>
       </c>
       <c r="C56" s="23">
         <f t="shared" si="37"/>
@@ -5158,7 +4546,7 @@
         <v>92.013900000000007</v>
       </c>
       <c r="M56" s="20">
-        <f t="shared" ref="M56:R56" si="38">M27 * 100</f>
+        <f t="shared" ref="M56:S56" si="38">M27 * 100</f>
         <v>89.583299999999994</v>
       </c>
       <c r="N56" s="20">
@@ -5181,18 +4569,23 @@
         <f t="shared" si="38"/>
         <v>90.625</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S56" s="20">
+        <f t="shared" si="38"/>
+        <v>89.583299999999994</v>
+      </c>
+      <c r="T56" s="20"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="24">
-        <f t="shared" ref="B57:R57" si="39">AVERAGE(B48:B56)</f>
-        <v>80.936213251028803</v>
+        <f>AVERAGE(B48:B56)</f>
+        <v>81.083621450617272</v>
       </c>
       <c r="C57" s="25">
-        <f t="shared" si="39"/>
-        <v>86.516208641975297</v>
+        <f t="shared" ref="B57:S57" si="39">AVERAGE(C48:C56)</f>
+        <v>86.59336419753086</v>
       </c>
       <c r="D57" s="20">
         <f t="shared" si="39"/>
@@ -5254,125 +4647,222 @@
         <f t="shared" si="39"/>
         <v>84.259266666666662</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
+      <c r="S57" s="20">
+        <f t="shared" si="39"/>
+        <v>83.294744444444461</v>
+      </c>
+      <c r="T57" s="20"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="D32:K32"/>
+  <mergeCells count="24">
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="N47:S47"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="Q46:S46"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D18:J18"/>
     <mergeCell ref="D33:J33"/>
-    <mergeCell ref="N5:Q5"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="L17:P17"/>
     <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="D32:K32"/>
     <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K33:M33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D49:R49">
+  <conditionalFormatting sqref="T49">
+    <cfRule type="top10" dxfId="83" priority="109" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="82" priority="110" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T48">
+    <cfRule type="top10" dxfId="81" priority="107" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="80" priority="108" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T51">
+    <cfRule type="top10" dxfId="79" priority="105" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="78" priority="106" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T50">
+    <cfRule type="top10" dxfId="77" priority="103" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="76" priority="104" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T53">
+    <cfRule type="top10" dxfId="75" priority="101" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="74" priority="102" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T52">
+    <cfRule type="top10" dxfId="73" priority="99" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="72" priority="100" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T55">
+    <cfRule type="top10" dxfId="71" priority="97" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="70" priority="98" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T54">
+    <cfRule type="top10" dxfId="69" priority="95" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="96" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T56">
+    <cfRule type="top10" dxfId="67" priority="91" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="92" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T57">
+    <cfRule type="top10" dxfId="65" priority="67" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="68" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T48:T56">
+    <cfRule type="top10" dxfId="63" priority="63" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="64" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T35">
+    <cfRule type="top10" dxfId="61" priority="61" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="62" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T34">
+    <cfRule type="top10" dxfId="59" priority="59" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="60" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37">
+    <cfRule type="top10" dxfId="57" priority="57" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="58" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T36">
+    <cfRule type="top10" dxfId="55" priority="55" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="56" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T39">
+    <cfRule type="top10" dxfId="53" priority="53" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="54" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T38">
+    <cfRule type="top10" dxfId="51" priority="51" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="52" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T41">
+    <cfRule type="top10" dxfId="49" priority="49" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="50" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T40">
+    <cfRule type="top10" dxfId="47" priority="47" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="48" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T42">
+    <cfRule type="top10" dxfId="45" priority="45" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="46" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T43">
     <cfRule type="top10" dxfId="43" priority="43" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="42" priority="44" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:R48">
+  <conditionalFormatting sqref="T34:T42">
     <cfRule type="top10" dxfId="41" priority="41" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="40" priority="42" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:R51">
-    <cfRule type="top10" dxfId="39" priority="39" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="38" priority="40" rank="1"/>
+  <conditionalFormatting sqref="D35:S35">
+    <cfRule type="top10" dxfId="39" priority="111" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="112" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50:R50">
-    <cfRule type="top10" dxfId="37" priority="37" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="36" priority="38" rank="1"/>
+  <conditionalFormatting sqref="D34:S34">
+    <cfRule type="top10" dxfId="37" priority="113" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="114" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:R53">
-    <cfRule type="top10" dxfId="35" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="34" priority="36" rank="1"/>
+  <conditionalFormatting sqref="D37:S37">
+    <cfRule type="top10" dxfId="35" priority="115" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="116" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:R52">
-    <cfRule type="top10" dxfId="33" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="32" priority="34" rank="1"/>
+  <conditionalFormatting sqref="D36:S36">
+    <cfRule type="top10" dxfId="33" priority="117" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="118" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:R55">
-    <cfRule type="top10" dxfId="31" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="30" priority="32" rank="1"/>
+  <conditionalFormatting sqref="D39:S39">
+    <cfRule type="top10" dxfId="31" priority="119" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="120" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:R54">
-    <cfRule type="top10" dxfId="29" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="28" priority="30" rank="1"/>
+  <conditionalFormatting sqref="D38:S38">
+    <cfRule type="top10" dxfId="29" priority="121" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="122" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:R56">
-    <cfRule type="top10" dxfId="25" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="24" priority="26" rank="1"/>
+  <conditionalFormatting sqref="D41:S41">
+    <cfRule type="top10" dxfId="27" priority="123" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="124" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:R35">
-    <cfRule type="top10" dxfId="23" priority="23" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="22" priority="24" rank="1"/>
+  <conditionalFormatting sqref="D40:S40">
+    <cfRule type="top10" dxfId="25" priority="125" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="126" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:R34">
-    <cfRule type="top10" dxfId="21" priority="21" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="20" priority="22" rank="1"/>
+  <conditionalFormatting sqref="D42:S42">
+    <cfRule type="top10" dxfId="23" priority="127" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="128" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:R37">
-    <cfRule type="top10" dxfId="19" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="18" priority="20" rank="1"/>
+  <conditionalFormatting sqref="D43:S43">
+    <cfRule type="top10" dxfId="21" priority="129" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="130" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:R36">
-    <cfRule type="top10" dxfId="17" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="16" priority="18" rank="1"/>
+  <conditionalFormatting sqref="D49:S49">
+    <cfRule type="top10" dxfId="19" priority="131" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="132" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:R39">
-    <cfRule type="top10" dxfId="15" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="14" priority="16" rank="1"/>
+  <conditionalFormatting sqref="D48:S48">
+    <cfRule type="top10" dxfId="17" priority="133" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="134" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:R38">
-    <cfRule type="top10" dxfId="13" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="12" priority="14" rank="1"/>
+  <conditionalFormatting sqref="D51:S51">
+    <cfRule type="top10" dxfId="15" priority="135" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="136" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:R41">
-    <cfRule type="top10" dxfId="11" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="10" priority="12" rank="1"/>
+  <conditionalFormatting sqref="D50:S50">
+    <cfRule type="top10" dxfId="13" priority="137" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="138" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:R40">
-    <cfRule type="top10" dxfId="9" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="8" priority="10" rank="1"/>
+  <conditionalFormatting sqref="D53:S53">
+    <cfRule type="top10" dxfId="11" priority="139" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="140" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:R42">
-    <cfRule type="top10" dxfId="5" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="4" priority="6" rank="1"/>
+  <conditionalFormatting sqref="D52:S52">
+    <cfRule type="top10" dxfId="9" priority="141" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="142" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:R43">
-    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="2" priority="4" rank="1"/>
+  <conditionalFormatting sqref="D55:S55">
+    <cfRule type="top10" dxfId="7" priority="143" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="144" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:R57">
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
+  <conditionalFormatting sqref="D54:S54">
+    <cfRule type="top10" dxfId="5" priority="145" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="146" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56:S56">
+    <cfRule type="top10" dxfId="3" priority="147" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="148" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:S57">
+    <cfRule type="top10" dxfId="1" priority="149" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="150" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Saved model/Saved Results.xlsx
+++ b/Saved model/Saved Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albi2\Documents\GitHub\Variational-Autoencoder-for-EEG-analysis\Saved model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5A229A-4D3E-402E-A131-D8112B5B484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F8864-48F0-4EE5-A1E1-FF1A58B9C2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,9 +318,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,475 +348,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1233,55 +789,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>423261</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>546424</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>110778</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Immagine 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D30DEB-E4B6-4C64-B9FB-CA060081F70F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17121947" y="3440045"/>
-          <a:ext cx="4999963" cy="3632626"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1545,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T58"/>
+  <dimension ref="A2:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,25 +1066,25 @@
     <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="34" t="s">
         <v>9</v>
       </c>
@@ -1585,14 +1092,20 @@
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="34"/>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="36"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
     </row>
-    <row r="5" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1613,25 +1126,32 @@
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
     </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <f>AVERAGE(D6:Z6)</f>
-        <v>0.82552062500000034</v>
+        <f>AVERAGE(D6:BB6)</f>
+        <v>0.82999984000000027</v>
       </c>
       <c r="C6" s="4">
-        <f>MAX(D6:Z6)</f>
+        <f t="shared" ref="C6:C7" si="0">MAX(D6:BB6)</f>
         <v>0.85416700000000001</v>
       </c>
       <c r="D6" s="3">
@@ -1652,49 +1172,75 @@
       <c r="I6" s="8">
         <v>0.84722200000000003</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="28">
         <v>0.81944399999999995</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="28">
         <v>0.84722200000000003</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="28">
         <v>0.84722200000000003</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="28">
         <v>0.85069399999999995</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="28">
         <v>0.85069399999999995</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="28">
         <v>0.85069399999999995</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="28">
         <v>0.81944399999999995</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="28">
         <v>0.85416700000000001</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="28">
         <v>0.82291700000000001</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="28">
         <v>0.81944399999999995</v>
       </c>
-      <c r="T6" s="31"/>
+      <c r="T6" s="28">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="U6" s="28">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="V6" s="28">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="W6" s="28">
+        <v>0.84375</v>
+      </c>
+      <c r="X6" s="28">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="Y6" s="28">
+        <v>0.8125</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="AA6" s="28">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="AB6" s="31">
+        <v>0.85416700000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="7">
-        <f>AVERAGE(D7:Z7)</f>
-        <v>0.70225687500000011</v>
+        <f t="shared" ref="B7:B10" si="1">AVERAGE(D7:BB7)</f>
+        <v>0.71819443999999999</v>
       </c>
       <c r="C7" s="9">
-        <f>MAX(D7:Z7)</f>
-        <v>0.75</v>
+        <f t="shared" si="0"/>
+        <v>0.79166700000000001</v>
       </c>
       <c r="D7" s="8">
         <v>0.64930600000000005</v>
@@ -1714,48 +1260,74 @@
       <c r="I7" s="8">
         <v>0.69444399999999995</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="28">
         <v>0.68055600000000005</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="28">
         <v>0.73958299999999999</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="28">
         <v>0.70833299999999999</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="28">
         <v>0.75</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="28">
         <v>0.72916700000000001</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="28">
         <v>0.73611099999999996</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="28">
         <v>0.69444399999999995</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="28">
         <v>0.71527799999999997</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="28">
         <v>0.72569399999999995</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="28">
         <v>0.72916700000000001</v>
       </c>
-      <c r="T7" s="31"/>
+      <c r="T7" s="28">
+        <v>0.72222200000000003</v>
+      </c>
+      <c r="U7" s="28">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="V7" s="28">
+        <v>0.74652799999999997</v>
+      </c>
+      <c r="W7" s="28">
+        <v>0.76736099999999996</v>
+      </c>
+      <c r="X7" s="28">
+        <v>0.74305600000000005</v>
+      </c>
+      <c r="Y7" s="28">
+        <v>0.70138900000000004</v>
+      </c>
+      <c r="Z7" s="28">
+        <v>0.75347200000000003</v>
+      </c>
+      <c r="AA7" s="28">
+        <v>0.73263900000000004</v>
+      </c>
+      <c r="AB7" s="31">
+        <v>0.79166700000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="7">
-        <f t="shared" ref="B8:B14" si="0">AVERAGE(D8:Z8)</f>
-        <v>0.87782124999999989</v>
+        <f t="shared" si="1"/>
+        <v>0.88444447999999976</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" ref="C8:C14" si="1">MAX(D8:Z8)</f>
+        <f>MAX(D8:BB8)</f>
         <v>0.91666700000000001</v>
       </c>
       <c r="D8" s="8">
@@ -1776,49 +1348,75 @@
       <c r="I8" s="8">
         <v>0.86458299999999999</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="28">
         <v>0.88888900000000004</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="28">
         <v>0.88888900000000004</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="28">
         <v>0.90277799999999997</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="28">
         <v>0.91666700000000001</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="28">
         <v>0.88541700000000001</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="28">
         <v>0.90277799999999997</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="28">
         <v>0.91319399999999995</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="28">
         <v>0.90972200000000003</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="28">
         <v>0.86111099999999996</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="28">
         <v>0.86805600000000005</v>
       </c>
-      <c r="T8" s="31"/>
+      <c r="T8" s="28">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="U8" s="28">
+        <v>0.89583299999999999</v>
+      </c>
+      <c r="V8" s="28">
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="W8" s="28">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="X8" s="28">
+        <v>0.875</v>
+      </c>
+      <c r="Y8" s="28">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="Z8" s="28">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="AA8" s="28">
+        <v>0.91319399999999995</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>0.90625</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>4</v>
       </c>
       <c r="B9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.71321612499999998</v>
+        <f t="shared" si="1"/>
+        <v>0.72791667999999998</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" si="1"/>
-        <v>0.78645799999999999</v>
+        <f t="shared" ref="C9:C14" si="2">MAX(D9:BB9)</f>
+        <v>0.80729200000000001</v>
       </c>
       <c r="D9" s="8">
         <v>0.65104200000000001</v>
@@ -1838,48 +1436,74 @@
       <c r="I9" s="8">
         <v>0.671875</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="28">
         <v>0.66145799999999999</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="28">
         <v>0.77083299999999999</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="28">
         <v>0.77083299999999999</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="28">
         <v>0.765625</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="28">
         <v>0.765625</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="28">
         <v>0.734375</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="28">
         <v>0.71354200000000001</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="28">
         <v>0.74479200000000001</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="28">
         <v>0.78645799999999999</v>
       </c>
-      <c r="S9" s="31">
+      <c r="S9" s="28">
         <v>0.73958299999999999</v>
       </c>
-      <c r="T9" s="31"/>
+      <c r="T9" s="28">
+        <v>0.703125</v>
+      </c>
+      <c r="U9" s="28">
+        <v>0.75520799999999999</v>
+      </c>
+      <c r="V9" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="W9" s="28">
+        <v>0.80729200000000001</v>
+      </c>
+      <c r="X9" s="28">
+        <v>0.77604200000000001</v>
+      </c>
+      <c r="Y9" s="28">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="Z9" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="AA9" s="28">
+        <v>0.74479200000000001</v>
+      </c>
+      <c r="AB9" s="31">
+        <v>0.73958299999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.77322056250000015</v>
+        <f t="shared" si="1"/>
+        <v>0.79013892000000008</v>
       </c>
       <c r="C10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85416700000000001</v>
       </c>
       <c r="D10" s="8">
@@ -1900,49 +1524,75 @@
       <c r="I10" s="8">
         <v>0.75347200000000003</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="28">
         <v>0.74305600000000005</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="28">
         <v>0.80555600000000005</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="28">
         <v>0.77777799999999997</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="28">
         <v>0.79166700000000001</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="28">
         <v>0.82291700000000001</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="28">
         <v>0.73263900000000004</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="28">
         <v>0.69097200000000003</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="28">
         <v>0.78472200000000003</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="28">
         <v>0.85416700000000001</v>
       </c>
-      <c r="S10" s="31">
+      <c r="S10" s="28">
         <v>0.84722200000000003</v>
       </c>
-      <c r="T10" s="31"/>
+      <c r="T10" s="28">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="U10" s="28">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="V10" s="28">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="W10" s="28">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="X10" s="28">
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="Y10" s="28">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="Z10" s="28">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="AA10" s="28">
+        <v>0.78819399999999995</v>
+      </c>
+      <c r="AB10" s="31">
+        <v>0.81597200000000003</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>6</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.81814231250000002</v>
+        <f t="shared" ref="B11:B13" si="3">AVERAGE(D11:BB11)</f>
+        <v>0.83138884000000024</v>
       </c>
       <c r="C11" s="9">
-        <f t="shared" si="1"/>
-        <v>0.86111099999999996</v>
+        <f t="shared" si="2"/>
+        <v>0.87847200000000003</v>
       </c>
       <c r="D11" s="8">
         <v>0.78472200000000003</v>
@@ -1962,49 +1612,75 @@
       <c r="I11" s="8">
         <v>0.83333299999999999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="28">
         <v>0.80555600000000005</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="28">
         <v>0.86111099999999996</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="28">
         <v>0.82638900000000004</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="28">
         <v>0.80555600000000005</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="28">
         <v>0.85069399999999995</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="28">
         <v>0.85069399999999995</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="28">
         <v>0.79861099999999996</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="28">
         <v>0.84722200000000003</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="28">
         <v>0.85069399999999995</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="28">
         <v>0.83333299999999999</v>
       </c>
-      <c r="T11" s="31"/>
+      <c r="T11" s="28">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="U11" s="28">
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="V11" s="28">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="W11" s="28">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="X11" s="28">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="Y11" s="28">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="Z11" s="28">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="AA11" s="28">
+        <v>0.84375</v>
+      </c>
+      <c r="AB11" s="31">
+        <v>0.87152799999999997</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>7</v>
       </c>
       <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.84136293750000002</v>
+        <f t="shared" si="3"/>
+        <v>0.84902783999999998</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" si="1"/>
-        <v>0.87847200000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.90277799999999997</v>
       </c>
       <c r="D12" s="8">
         <v>0.82291700000000001</v>
@@ -2024,48 +1700,74 @@
       <c r="I12" s="8">
         <v>0.85763900000000004</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="28">
         <v>0.82986099999999996</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="28">
         <v>0.86111099999999996</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="28">
         <v>0.84375</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="28">
         <v>0.86111099999999996</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="28">
         <v>0.87847200000000003</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="28">
         <v>0.84375</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="28">
         <v>0.82291700000000001</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="28">
         <v>0.86805600000000005</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="28">
         <v>0.87847200000000003</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="28">
         <v>0.86805600000000005</v>
       </c>
-      <c r="T12" s="31"/>
+      <c r="T12" s="28">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="U12" s="28">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="V12" s="28">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="W12" s="28">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="X12" s="28">
+        <v>0.875</v>
+      </c>
+      <c r="Y12" s="28">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="Z12" s="28">
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="AA12" s="28">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="AB12" s="31">
+        <v>0.85763900000000004</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>8</v>
       </c>
       <c r="B13" s="7">
-        <f t="shared" si="0"/>
-        <v>0.85677081250000009</v>
+        <f t="shared" si="3"/>
+        <v>0.86833327999999999</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92013900000000004</v>
       </c>
       <c r="D13" s="8">
@@ -2086,48 +1788,74 @@
       <c r="I13" s="8">
         <v>0.86111099999999996</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="28">
         <v>0.84375</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="28">
         <v>0.89236099999999996</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="28">
         <v>0.86111099999999996</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="28">
         <v>0.85069399999999995</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="28">
         <v>0.89583299999999999</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="28">
         <v>0.86458299999999999</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="28">
         <v>0.88541700000000001</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="28">
         <v>0.92013900000000004</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="28">
         <v>0.875</v>
       </c>
-      <c r="S13" s="31">
+      <c r="S13" s="28">
         <v>0.88541700000000001</v>
       </c>
-      <c r="T13" s="31"/>
+      <c r="T13" s="28">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="U13" s="28">
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="V13" s="28">
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="W13" s="28">
+        <v>0.89583299999999999</v>
+      </c>
+      <c r="X13" s="28">
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="Y13" s="28">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="Z13" s="28">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>0.89583299999999999</v>
+      </c>
+      <c r="AB13" s="31">
+        <v>0.90277799999999997</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>9</v>
       </c>
-      <c r="B14" s="7">
-        <f t="shared" si="0"/>
-        <v>0.89301212500000005</v>
-      </c>
-      <c r="C14" s="9">
-        <f t="shared" si="1"/>
+      <c r="B14" s="11">
+        <f>AVERAGE(D14:BB14)</f>
+        <v>0.90208332000000002</v>
+      </c>
+      <c r="C14" s="30">
+        <f t="shared" si="2"/>
         <v>0.94097200000000003</v>
       </c>
       <c r="D14" s="12">
@@ -2148,128 +1876,215 @@
       <c r="I14" s="8">
         <v>0.90972200000000003</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="28">
         <v>0.90972200000000003</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="28">
         <v>0.90972200000000003</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="28">
         <v>0.89236099999999996</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="28">
         <v>0.89236099999999996</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="28">
         <v>0.89930600000000005</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="28">
         <v>0.90277799999999997</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="28">
         <v>0.87847200000000003</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="28">
         <v>0.94097200000000003</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="28">
         <v>0.91666700000000001</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="28">
         <v>0.90972200000000003</v>
       </c>
-      <c r="T14" s="31"/>
+      <c r="T14" s="28">
+        <v>0.93055600000000005</v>
+      </c>
+      <c r="U14" s="28">
+        <v>0.92361099999999996</v>
+      </c>
+      <c r="V14" s="28">
+        <v>0.92708299999999999</v>
+      </c>
+      <c r="W14" s="28">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="X14" s="28">
+        <v>0.92708299999999999</v>
+      </c>
+      <c r="Y14" s="28">
+        <v>0.92361099999999996</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>0.92013900000000004</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>0.89583299999999999</v>
+      </c>
+      <c r="AB14" s="31">
+        <v>0.89930600000000005</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="13">
-        <f t="shared" ref="B15:C15" si="2">AVERAGE(B6:B14)</f>
-        <v>0.81125818055555543</v>
+        <f t="shared" ref="B15:C15" si="4">AVERAGE(B6:B14)</f>
+        <v>0.82239195999999992</v>
       </c>
       <c r="C15" s="15">
-        <f t="shared" si="2"/>
-        <v>0.8624614444444445</v>
+        <f t="shared" si="4"/>
+        <v>0.87403566666666666</v>
       </c>
       <c r="D15" s="14">
         <f>AVERAGE(D6:D14)</f>
         <v>0.77372688888888896</v>
       </c>
       <c r="E15" s="14">
-        <f t="shared" ref="E15:S15" si="3">AVERAGE(E6:E14)</f>
+        <f t="shared" ref="E15:AB15" si="5">AVERAGE(E6:E14)</f>
         <v>0.7754631111111111</v>
       </c>
       <c r="F15" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76581788888888891</v>
       </c>
       <c r="G15" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.78568666666666664</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.78645844444444435</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.81037788888888895</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.79803244444444443</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.84182088888888895</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.82561722222222222</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.83159722222222221</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.84201388888888884</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.82426688888888888</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.80189033333333337</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.84278555555555568</v>
       </c>
       <c r="R15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.84124222222222234</v>
       </c>
       <c r="S15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.83333333333333348</v>
       </c>
-      <c r="T15" s="8"/>
+      <c r="T15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.83044000000000007</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.84587177777777778</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.83989188888888888</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.85088733333333322</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.84664355555555559</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.8371913333333334</v>
+      </c>
+      <c r="Z15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.84760799999999992</v>
+      </c>
+      <c r="AA15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.83236866666666665</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.84876555555555544</v>
+      </c>
+      <c r="AC15" s="8"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="34" t="s">
         <v>9</v>
       </c>
@@ -2277,14 +2092,20 @@
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
-      <c r="Q17" s="35" t="s">
+      <c r="Q17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="36"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>2</v>
@@ -2314,18 +2135,25 @@
       <c r="Q18" s="33"/>
       <c r="R18" s="33"/>
       <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <f>AVERAGE(D19:Z19)</f>
-        <v>0.8224827013888889</v>
+        <f>AVERAGE(D19:BB19)</f>
+        <v>0.83180560888888888</v>
       </c>
       <c r="C19" s="4">
-        <f>MAX(D19:Z19)</f>
-        <v>0.85416700000000001</v>
+        <f t="shared" ref="C19:C20" si="6">MAX(D19:BB19)</f>
+        <v>0.86805600000000005</v>
       </c>
       <c r="D19" s="8">
         <v>0.80555600000000005</v>
@@ -2345,47 +2173,74 @@
       <c r="I19" s="8">
         <v>0.79861099999999996</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="8">
         <v>0.80902777777777701</v>
       </c>
       <c r="K19" s="8">
         <v>0.85069444444444398</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="28">
         <v>0.85416700000000001</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="28">
         <v>0.82291700000000001</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="28">
         <v>0.84027799999999997</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O19" s="28">
         <v>0.84722200000000003</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="28">
         <v>0.84027799999999997</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="28">
         <v>0.85069399999999995</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="28">
         <v>0.85416700000000001</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="28">
         <v>0.82638900000000004</v>
       </c>
+      <c r="T19" s="28">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="U19" s="28">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="V19" s="28">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="W19" s="28">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="X19" s="28">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="Y19" s="28">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="Z19" s="28">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="AA19">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="AB19">
+        <v>0.85069399999999995</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>2</v>
       </c>
       <c r="B20" s="7">
-        <f>AVERAGE(D20:Z20)</f>
-        <v>0.71028646527777783</v>
+        <f t="shared" ref="B20:B26" si="7">AVERAGE(D20:BB20)</f>
+        <v>0.72513885777777798</v>
       </c>
       <c r="C20" s="9">
-        <f>MAX(D20:Z20)</f>
+        <f t="shared" si="6"/>
         <v>0.79166666666666596</v>
       </c>
       <c r="D20" s="8">
@@ -2406,47 +2261,74 @@
       <c r="I20" s="8">
         <v>0.69444399999999995</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="8">
         <v>0.71527777777777701</v>
       </c>
       <c r="K20" s="8">
         <v>0.79166666666666596</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="28">
         <v>0.69791700000000001</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="28">
         <v>0.73958299999999999</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="28">
         <v>0.75347200000000003</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="28">
         <v>0.73263900000000004</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="28">
         <v>0.73263900000000004</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="28">
         <v>0.75694399999999995</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="28">
         <v>0.71180600000000005</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="28">
         <v>0.76388900000000004</v>
       </c>
+      <c r="T20" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="U20" s="28">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="V20" s="28">
+        <v>0.75694399999999995</v>
+      </c>
+      <c r="W20" s="28">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="X20" s="28">
+        <v>0.72569399999999995</v>
+      </c>
+      <c r="Y20" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="Z20" s="28">
+        <v>0.75347200000000003</v>
+      </c>
+      <c r="AA20">
+        <v>0.74652799999999997</v>
+      </c>
+      <c r="AB20">
+        <v>0.75694399999999995</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>3</v>
       </c>
       <c r="B21" s="7">
-        <f t="shared" ref="B21:B27" si="4">AVERAGE(D21:Z21)</f>
-        <v>0.87521695138888866</v>
+        <f t="shared" si="7"/>
+        <v>0.88361104888888886</v>
       </c>
       <c r="C21" s="9">
-        <f t="shared" ref="C21:C27" si="5">MAX(D21:Z21)</f>
+        <f>MAX(D21:BB21)</f>
         <v>0.92361099999999996</v>
       </c>
       <c r="D21" s="8">
@@ -2467,47 +2349,74 @@
       <c r="I21" s="8">
         <v>0.86458299999999999</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="8">
         <v>0.86458333333333304</v>
       </c>
       <c r="K21" s="8">
         <v>0.92013888888888795</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="28">
         <v>0.88888900000000004</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="28">
         <v>0.875</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="28">
         <v>0.92361099999999996</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O21" s="28">
         <v>0.88541700000000001</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="28">
         <v>0.89583299999999999</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="28">
         <v>0.90625</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="28">
         <v>0.89583299999999999</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="28">
         <v>0.875</v>
       </c>
+      <c r="T21" s="28">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="U21" s="28">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="V21" s="28">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="W21" s="28">
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="X21" s="28">
+        <v>0.875</v>
+      </c>
+      <c r="Y21" s="28">
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="Z21" s="28">
+        <v>0.90625</v>
+      </c>
+      <c r="AA21">
+        <v>0.91319399999999995</v>
+      </c>
+      <c r="AB21">
+        <v>0.89930600000000005</v>
+      </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>4</v>
       </c>
       <c r="B22" s="7">
-        <f t="shared" si="4"/>
-        <v>0.70833333333333326</v>
+        <f t="shared" si="7"/>
+        <v>0.72645833333333332</v>
       </c>
       <c r="C22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C22:C27" si="8">MAX(D22:BB22)</f>
         <v>0.78645833333333304</v>
       </c>
       <c r="D22" s="8">
@@ -2528,48 +2437,75 @@
       <c r="I22" s="8">
         <v>0.69791700000000001</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="8">
         <v>0.671875</v>
       </c>
       <c r="K22" s="8">
         <v>0.78645833333333304</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="28">
         <v>0.75</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="28">
         <v>0.78125</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="28">
         <v>0.75520799999999999</v>
       </c>
-      <c r="O22" s="26">
+      <c r="O22" s="28">
         <v>0.72395799999999999</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="28">
         <v>0.75</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="28">
         <v>0.75520799999999999</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="28">
         <v>0.78125</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="28">
         <v>0.75</v>
       </c>
+      <c r="T22" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="U22" s="28">
+        <v>0.78125</v>
+      </c>
+      <c r="V22" s="28">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="W22" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="X22" s="28">
+        <v>0.765625</v>
+      </c>
+      <c r="Y22" s="28">
+        <v>0.71354200000000001</v>
+      </c>
+      <c r="Z22" s="28">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="AA22">
+        <v>0.78125</v>
+      </c>
+      <c r="AB22">
+        <v>0.75520799999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>5</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" si="4"/>
-        <v>0.78016493055555558</v>
+        <f t="shared" si="7"/>
+        <v>0.79736111555555556</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" si="5"/>
-        <v>0.82986099999999996</v>
+        <f t="shared" si="8"/>
+        <v>0.86111099999999996</v>
       </c>
       <c r="D23" s="8">
         <v>0.68055600000000005</v>
@@ -2589,48 +2525,75 @@
       <c r="I23" s="8">
         <v>0.75347200000000003</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="8">
         <v>0.79166666666666596</v>
       </c>
       <c r="K23" s="8">
         <v>0.81597222222222199</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="28">
         <v>0.78819399999999995</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="28">
         <v>0.82291700000000001</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="28">
         <v>0.81944399999999995</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O23" s="28">
         <v>0.79166700000000001</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="28">
         <v>0.77083299999999999</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="28">
         <v>0.80208299999999999</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="28">
         <v>0.82291700000000001</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="28">
         <v>0.82986099999999996</v>
       </c>
+      <c r="T23" s="28">
+        <v>0.81597200000000003</v>
+      </c>
+      <c r="U23" s="28">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="V23" s="28">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="W23" s="28">
+        <v>0.79861099999999996</v>
+      </c>
+      <c r="X23" s="28">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="Y23" s="28">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="Z23" s="28">
+        <v>0.80902799999999997</v>
+      </c>
+      <c r="AA23">
+        <v>0.81597200000000003</v>
+      </c>
+      <c r="AB23">
+        <v>0.82638900000000004</v>
+      </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>6</v>
       </c>
       <c r="B24" s="7">
-        <f t="shared" si="4"/>
-        <v>0.8144530694444444</v>
+        <f t="shared" si="7"/>
+        <v>0.82791660444444448</v>
       </c>
       <c r="C24" s="9">
-        <f t="shared" si="5"/>
-        <v>0.87152777777777701</v>
+        <f t="shared" si="8"/>
+        <v>0.875</v>
       </c>
       <c r="D24" s="8">
         <v>0.78472200000000003</v>
@@ -2650,48 +2613,75 @@
       <c r="I24" s="8">
         <v>0.81944399999999995</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="8">
         <v>0.83333333333333304</v>
       </c>
       <c r="K24" s="8">
         <v>0.87152777777777701</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="28">
         <v>0.81944399999999995</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="28">
         <v>0.81597200000000003</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="28">
         <v>0.83680600000000005</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="28">
         <v>0.85069399999999995</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="28">
         <v>0.80208299999999999</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="28">
         <v>0.85069399999999995</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="28">
         <v>0.84027799999999997</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="28">
         <v>0.8125</v>
       </c>
+      <c r="T24" s="28">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="U24" s="28">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="V24" s="28">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="W24" s="28">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="X24" s="28">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="Y24" s="28">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="Z24" s="28">
+        <v>0.84375</v>
+      </c>
+      <c r="AA24">
+        <v>0.84375</v>
+      </c>
+      <c r="AB24">
+        <v>0.875</v>
+      </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>7</v>
       </c>
       <c r="B25" s="7">
-        <f t="shared" si="4"/>
-        <v>0.84071186805555542</v>
+        <f t="shared" si="7"/>
+        <v>0.8495833955555554</v>
       </c>
       <c r="C25" s="9">
-        <f t="shared" si="5"/>
-        <v>0.87847200000000003</v>
+        <f t="shared" si="8"/>
+        <v>0.89236099999999996</v>
       </c>
       <c r="D25" s="8">
         <v>0.8125</v>
@@ -2711,47 +2701,74 @@
       <c r="I25" s="8">
         <v>0.84027799999999997</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="8">
         <v>0.82986111111111105</v>
       </c>
       <c r="K25" s="8">
         <v>0.87152777777777701</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="28">
         <v>0.83680600000000005</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="28">
         <v>0.83680600000000005</v>
       </c>
-      <c r="N25" s="26">
+      <c r="N25" s="28">
         <v>0.86805600000000005</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O25" s="28">
         <v>0.85069399999999995</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P25" s="28">
         <v>0.84722200000000003</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="28">
         <v>0.86805600000000005</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="28">
         <v>0.87847200000000003</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="28">
         <v>0.86458299999999999</v>
       </c>
+      <c r="T25" s="28">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="U25" s="28">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="V25" s="28">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="W25" s="28">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="X25" s="28">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="Y25" s="28">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="Z25" s="28">
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="AA25">
+        <v>0.875</v>
+      </c>
+      <c r="AB25">
+        <v>0.82986099999999996</v>
+      </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>8</v>
       </c>
       <c r="B26" s="7">
-        <f t="shared" si="4"/>
-        <v>0.85438365277777772</v>
+        <f t="shared" si="7"/>
+        <v>0.86513881777777779</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.92013900000000004</v>
       </c>
       <c r="D26" s="8">
@@ -2772,47 +2789,74 @@
       <c r="I26" s="8">
         <v>0.84027799999999997</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="8">
         <v>0.85416666666666596</v>
       </c>
       <c r="K26" s="8">
         <v>0.90277777777777701</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="28">
         <v>0.875</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="28">
         <v>0.83333299999999999</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="28">
         <v>0.88888900000000004</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="28">
         <v>0.86805600000000005</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="28">
         <v>0.84722200000000003</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="28">
         <v>0.92013900000000004</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="28">
         <v>0.89236099999999996</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="28">
         <v>0.87847200000000003</v>
       </c>
+      <c r="T26" s="28">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="U26" s="28">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="V26" s="28">
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="W26" s="28">
+        <v>0.875</v>
+      </c>
+      <c r="X26" s="28">
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="Y26" s="28">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="Z26" s="28">
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="AA26">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="AB26">
+        <v>0.89236099999999996</v>
+      </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="7">
-        <f t="shared" si="4"/>
-        <v>0.89149295833333309</v>
-      </c>
-      <c r="C27" s="9">
-        <f t="shared" si="5"/>
+      <c r="B27" s="11">
+        <f>AVERAGE(D27:BB27)</f>
+        <v>0.90111109333333317</v>
+      </c>
+      <c r="C27" s="30">
+        <f t="shared" si="8"/>
         <v>0.9375</v>
       </c>
       <c r="D27" s="8">
@@ -2833,48 +2877,75 @@
       <c r="I27" s="8">
         <v>0.86458299999999999</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="8">
         <v>0.88194444444444398</v>
       </c>
       <c r="K27" s="8">
         <v>0.92013888888888795</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="28">
         <v>0.92013900000000004</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="28">
         <v>0.89583299999999999</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="28">
         <v>0.92708299999999999</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="28">
         <v>0.9375</v>
       </c>
-      <c r="P27" s="26">
+      <c r="P27" s="28">
         <v>0.89236099999999996</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="28">
         <v>0.9375</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="28">
         <v>0.90625</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="28">
         <v>0.89583299999999999</v>
       </c>
+      <c r="T27" s="28">
+        <v>0.92361099999999996</v>
+      </c>
+      <c r="U27" s="28">
+        <v>0.92361099999999996</v>
+      </c>
+      <c r="V27" s="28">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="W27" s="28">
+        <v>0.92361099999999996</v>
+      </c>
+      <c r="X27" s="28">
+        <v>0.92013900000000004</v>
+      </c>
+      <c r="Y27" s="28">
+        <v>0.93402799999999997</v>
+      </c>
+      <c r="Z27" s="28">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="AA27">
+        <v>0.92361099999999996</v>
+      </c>
+      <c r="AB27">
+        <v>0.89930600000000005</v>
+      </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="13">
-        <f t="shared" ref="B28" si="6">AVERAGE(B19:B27)</f>
-        <v>0.81083621450617271</v>
+        <f t="shared" ref="B28" si="9">AVERAGE(B19:B27)</f>
+        <v>0.82312498617283958</v>
       </c>
       <c r="C28" s="15">
-        <f t="shared" ref="C28" si="7">AVERAGE(C19:C27)</f>
-        <v>0.86593364197530842</v>
+        <f t="shared" ref="C28" si="10">AVERAGE(C19:C27)</f>
+        <v>0.87287811111111102</v>
       </c>
       <c r="D28" s="8">
         <f>AVERAGE(D19:D27)</f>
@@ -2897,72 +2968,107 @@
         <v>0.78703699999999999</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" ref="I28:S28" si="8">AVERAGE(I19:I27)</f>
+        <f t="shared" ref="I28:AB28" si="11">AVERAGE(I19:I27)</f>
         <v>0.79706777777777771</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.80574845679012297</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.85898919753086345</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.82561733333333331</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.8248456666666667</v>
       </c>
       <c r="N28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.84587188888888898</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.83198300000000003</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.81983011111111126</v>
       </c>
       <c r="Q28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.8497297777777777</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.84259266666666677</v>
       </c>
       <c r="S28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.83294744444444435</v>
       </c>
-      <c r="T28" s="8"/>
+      <c r="T28" s="8">
+        <f t="shared" si="11"/>
+        <v>0.83912033333333325</v>
+      </c>
+      <c r="U28" s="8">
+        <f t="shared" si="11"/>
+        <v>0.85648144444444441</v>
+      </c>
+      <c r="V28" s="8">
+        <f t="shared" si="11"/>
+        <v>0.8503086666666666</v>
+      </c>
+      <c r="W28" s="8">
+        <f t="shared" si="11"/>
+        <v>0.84143511111111113</v>
+      </c>
+      <c r="X28" s="8">
+        <f t="shared" si="11"/>
+        <v>0.84587199999999996</v>
+      </c>
+      <c r="Y28" s="8">
+        <f t="shared" si="11"/>
+        <v>0.83622677777777765</v>
+      </c>
+      <c r="Z28" s="8">
+        <f t="shared" si="11"/>
+        <v>0.84336422222222229</v>
+      </c>
+      <c r="AA28" s="8">
+        <f t="shared" si="11"/>
+        <v>0.84915122222222228</v>
+      </c>
+      <c r="AB28" s="8">
+        <f t="shared" si="11"/>
+        <v>0.84278544444444448</v>
+      </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
       <c r="L32" s="34" t="s">
         <v>9</v>
       </c>
@@ -2970,13 +3076,20 @@
       <c r="N32" s="34"/>
       <c r="O32" s="34"/>
       <c r="P32" s="34"/>
-      <c r="Q32" s="35" t="s">
+      <c r="Q32" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>2</v>
       </c>
@@ -3005,831 +3118,1149 @@
       <c r="Q33" s="33"/>
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <f>B6 * 100</f>
-        <v>82.552062500000034</v>
-      </c>
-      <c r="C34" s="18">
-        <f t="shared" ref="C34:J34" si="9">C6 * 100</f>
+        <v>82.999984000000026</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" ref="C34:J34" si="12">C6 * 100</f>
         <v>85.416700000000006</v>
       </c>
-      <c r="D34" s="20">
-        <f t="shared" si="9"/>
+      <c r="D34" s="19">
+        <f t="shared" si="12"/>
         <v>76.736099999999993</v>
       </c>
-      <c r="E34" s="20">
-        <f t="shared" si="9"/>
+      <c r="E34" s="19">
+        <f t="shared" si="12"/>
         <v>78.472200000000001</v>
       </c>
-      <c r="F34" s="20">
-        <f t="shared" si="9"/>
+      <c r="F34" s="19">
+        <f t="shared" si="12"/>
         <v>81.944400000000002</v>
       </c>
-      <c r="G34" s="20">
-        <f t="shared" si="9"/>
+      <c r="G34" s="19">
+        <f t="shared" si="12"/>
         <v>80.208299999999994</v>
       </c>
-      <c r="H34" s="20">
-        <f t="shared" si="9"/>
+      <c r="H34" s="19">
+        <f t="shared" si="12"/>
         <v>80.555599999999998</v>
       </c>
-      <c r="I34" s="20">
-        <f t="shared" si="9"/>
+      <c r="I34" s="19">
+        <f t="shared" si="12"/>
         <v>84.722200000000001</v>
       </c>
-      <c r="J34" s="20">
-        <f t="shared" si="9"/>
+      <c r="J34" s="19">
+        <f t="shared" si="12"/>
         <v>81.944400000000002</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="19">
         <f>K6 * 100</f>
         <v>84.722200000000001</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="19">
         <f>L6 * 100</f>
         <v>84.722200000000001</v>
       </c>
-      <c r="M34" s="20">
-        <f t="shared" ref="M34:S34" si="10">M6 * 100</f>
+      <c r="M34" s="19">
+        <f t="shared" ref="M34:AA34" si="13">M6 * 100</f>
         <v>85.069400000000002</v>
       </c>
-      <c r="N34" s="20">
-        <f t="shared" si="10"/>
+      <c r="N34" s="19">
+        <f t="shared" si="13"/>
         <v>85.069400000000002</v>
       </c>
-      <c r="O34" s="20">
-        <f t="shared" si="10"/>
+      <c r="O34" s="19">
+        <f t="shared" si="13"/>
         <v>85.069400000000002</v>
       </c>
-      <c r="P34" s="20">
-        <f t="shared" si="10"/>
+      <c r="P34" s="19">
+        <f t="shared" si="13"/>
         <v>81.944400000000002</v>
       </c>
-      <c r="Q34" s="20">
-        <f t="shared" si="10"/>
+      <c r="Q34" s="19">
+        <f t="shared" si="13"/>
         <v>85.416700000000006</v>
       </c>
-      <c r="R34" s="20">
-        <f t="shared" si="10"/>
+      <c r="R34" s="19">
+        <f t="shared" si="13"/>
         <v>82.291700000000006</v>
       </c>
-      <c r="S34" s="20">
-        <f t="shared" si="10"/>
+      <c r="S34" s="19">
+        <f t="shared" si="13"/>
         <v>81.944400000000002</v>
       </c>
-      <c r="T34" s="20"/>
+      <c r="T34" s="19">
+        <f t="shared" si="13"/>
+        <v>84.027799999999999</v>
+      </c>
+      <c r="U34" s="19">
+        <f t="shared" si="13"/>
+        <v>85.069400000000002</v>
+      </c>
+      <c r="V34" s="19">
+        <f t="shared" si="13"/>
+        <v>82.986099999999993</v>
+      </c>
+      <c r="W34" s="19">
+        <f t="shared" si="13"/>
+        <v>84.375</v>
+      </c>
+      <c r="X34" s="19">
+        <f t="shared" si="13"/>
+        <v>84.722200000000001</v>
+      </c>
+      <c r="Y34" s="19">
+        <f t="shared" si="13"/>
+        <v>81.25</v>
+      </c>
+      <c r="Z34" s="19">
+        <f t="shared" si="13"/>
+        <v>83.333299999999994</v>
+      </c>
+      <c r="AA34" s="19">
+        <f t="shared" si="13"/>
+        <v>82.986099999999993</v>
+      </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>2</v>
       </c>
-      <c r="B35" s="19">
-        <f t="shared" ref="B35:L42" si="11">B7 * 100</f>
-        <v>70.225687500000006</v>
-      </c>
-      <c r="C35" s="21">
-        <f t="shared" si="11"/>
+      <c r="B35" s="18">
+        <f t="shared" ref="B35:L42" si="14">B7 * 100</f>
+        <v>71.819444000000004</v>
+      </c>
+      <c r="C35" s="20">
+        <f t="shared" si="14"/>
+        <v>79.166700000000006</v>
+      </c>
+      <c r="D35" s="19">
+        <f t="shared" si="14"/>
+        <v>64.930599999999998</v>
+      </c>
+      <c r="E35" s="19">
+        <f t="shared" si="14"/>
+        <v>64.930599999999998</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="14"/>
+        <v>63.194399999999995</v>
+      </c>
+      <c r="G35" s="19">
+        <f t="shared" si="14"/>
+        <v>69.444400000000002</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" si="14"/>
+        <v>70.833299999999994</v>
+      </c>
+      <c r="I35" s="19">
+        <f t="shared" si="14"/>
+        <v>69.444400000000002</v>
+      </c>
+      <c r="J35" s="19">
+        <f t="shared" si="14"/>
+        <v>68.055599999999998</v>
+      </c>
+      <c r="K35" s="19">
+        <f t="shared" si="14"/>
+        <v>73.958299999999994</v>
+      </c>
+      <c r="L35" s="19">
+        <f t="shared" si="14"/>
+        <v>70.833299999999994</v>
+      </c>
+      <c r="M35" s="19">
+        <f t="shared" ref="M35:AA35" si="15">M7 * 100</f>
         <v>75</v>
       </c>
-      <c r="D35" s="20">
-        <f t="shared" si="11"/>
-        <v>64.930599999999998</v>
-      </c>
-      <c r="E35" s="20">
-        <f t="shared" si="11"/>
-        <v>64.930599999999998</v>
-      </c>
-      <c r="F35" s="20">
-        <f t="shared" si="11"/>
-        <v>63.194399999999995</v>
-      </c>
-      <c r="G35" s="20">
-        <f t="shared" si="11"/>
+      <c r="N35" s="19">
+        <f t="shared" si="15"/>
+        <v>72.916700000000006</v>
+      </c>
+      <c r="O35" s="19">
+        <f t="shared" si="15"/>
+        <v>73.611099999999993</v>
+      </c>
+      <c r="P35" s="19">
+        <f t="shared" si="15"/>
         <v>69.444400000000002</v>
       </c>
-      <c r="H35" s="20">
-        <f t="shared" si="11"/>
-        <v>70.833299999999994</v>
-      </c>
-      <c r="I35" s="20">
-        <f t="shared" si="11"/>
-        <v>69.444400000000002</v>
-      </c>
-      <c r="J35" s="20">
-        <f t="shared" si="11"/>
-        <v>68.055599999999998</v>
-      </c>
-      <c r="K35" s="20">
-        <f t="shared" si="11"/>
-        <v>73.958299999999994</v>
-      </c>
-      <c r="L35" s="20">
-        <f t="shared" si="11"/>
-        <v>70.833299999999994</v>
-      </c>
-      <c r="M35" s="20">
-        <f t="shared" ref="M35:S35" si="12">M7 * 100</f>
-        <v>75</v>
-      </c>
-      <c r="N35" s="20">
-        <f t="shared" si="12"/>
+      <c r="Q35" s="19">
+        <f t="shared" si="15"/>
+        <v>71.527799999999999</v>
+      </c>
+      <c r="R35" s="19">
+        <f t="shared" si="15"/>
+        <v>72.569400000000002</v>
+      </c>
+      <c r="S35" s="19">
+        <f t="shared" si="15"/>
         <v>72.916700000000006</v>
       </c>
-      <c r="O35" s="20">
-        <f t="shared" si="12"/>
-        <v>73.611099999999993</v>
-      </c>
-      <c r="P35" s="20">
-        <f t="shared" si="12"/>
-        <v>69.444400000000002</v>
-      </c>
-      <c r="Q35" s="20">
-        <f t="shared" si="12"/>
-        <v>71.527799999999999</v>
-      </c>
-      <c r="R35" s="20">
-        <f t="shared" si="12"/>
-        <v>72.569400000000002</v>
-      </c>
-      <c r="S35" s="20">
-        <f t="shared" si="12"/>
-        <v>72.916700000000006</v>
-      </c>
-      <c r="T35" s="20"/>
+      <c r="T35" s="19">
+        <f t="shared" si="15"/>
+        <v>72.222200000000001</v>
+      </c>
+      <c r="U35" s="19">
+        <f t="shared" si="15"/>
+        <v>76.041700000000006</v>
+      </c>
+      <c r="V35" s="19">
+        <f t="shared" si="15"/>
+        <v>74.652799999999999</v>
+      </c>
+      <c r="W35" s="19">
+        <f t="shared" si="15"/>
+        <v>76.736099999999993</v>
+      </c>
+      <c r="X35" s="19">
+        <f t="shared" si="15"/>
+        <v>74.305599999999998</v>
+      </c>
+      <c r="Y35" s="19">
+        <f t="shared" si="15"/>
+        <v>70.138900000000007</v>
+      </c>
+      <c r="Z35" s="19">
+        <f t="shared" si="15"/>
+        <v>75.347200000000001</v>
+      </c>
+      <c r="AA35" s="19">
+        <f t="shared" si="15"/>
+        <v>73.263900000000007</v>
+      </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>3</v>
       </c>
-      <c r="B36" s="19">
-        <f t="shared" si="11"/>
-        <v>87.782124999999994</v>
-      </c>
-      <c r="C36" s="21">
-        <f t="shared" si="11"/>
+      <c r="B36" s="18">
+        <f t="shared" si="14"/>
+        <v>88.44444799999998</v>
+      </c>
+      <c r="C36" s="20">
+        <f t="shared" si="14"/>
         <v>91.666700000000006</v>
       </c>
-      <c r="D36" s="20">
-        <f t="shared" si="11"/>
+      <c r="D36" s="19">
+        <f t="shared" si="14"/>
         <v>86.458299999999994</v>
       </c>
-      <c r="E36" s="20">
-        <f t="shared" si="11"/>
+      <c r="E36" s="19">
+        <f t="shared" si="14"/>
         <v>82.986099999999993</v>
       </c>
-      <c r="F36" s="20">
-        <f t="shared" si="11"/>
+      <c r="F36" s="19">
+        <f t="shared" si="14"/>
         <v>83.680599999999998</v>
       </c>
-      <c r="G36" s="20">
-        <f t="shared" si="11"/>
+      <c r="G36" s="19">
+        <f t="shared" si="14"/>
         <v>82.638900000000007</v>
       </c>
-      <c r="H36" s="20">
-        <f t="shared" si="11"/>
+      <c r="H36" s="19">
+        <f t="shared" si="14"/>
         <v>88.541700000000006</v>
       </c>
-      <c r="I36" s="20">
-        <f t="shared" si="11"/>
+      <c r="I36" s="19">
+        <f t="shared" si="14"/>
         <v>86.458299999999994</v>
       </c>
-      <c r="J36" s="20">
-        <f t="shared" si="11"/>
+      <c r="J36" s="19">
+        <f t="shared" si="14"/>
         <v>88.888900000000007</v>
       </c>
-      <c r="K36" s="20">
-        <f t="shared" si="11"/>
+      <c r="K36" s="19">
+        <f t="shared" si="14"/>
         <v>88.888900000000007</v>
       </c>
-      <c r="L36" s="20">
-        <f t="shared" si="11"/>
+      <c r="L36" s="19">
+        <f t="shared" si="14"/>
         <v>90.277799999999999</v>
       </c>
-      <c r="M36" s="20">
-        <f t="shared" ref="M36:S36" si="13">M8 * 100</f>
+      <c r="M36" s="19">
+        <f t="shared" ref="M36:AA36" si="16">M8 * 100</f>
         <v>91.666700000000006</v>
       </c>
-      <c r="N36" s="20">
-        <f t="shared" si="13"/>
+      <c r="N36" s="19">
+        <f t="shared" si="16"/>
         <v>88.541700000000006</v>
       </c>
-      <c r="O36" s="20">
-        <f t="shared" si="13"/>
+      <c r="O36" s="19">
+        <f t="shared" si="16"/>
         <v>90.277799999999999</v>
       </c>
-      <c r="P36" s="20">
-        <f t="shared" si="13"/>
+      <c r="P36" s="19">
+        <f t="shared" si="16"/>
         <v>91.319400000000002</v>
       </c>
-      <c r="Q36" s="20">
-        <f t="shared" si="13"/>
+      <c r="Q36" s="19">
+        <f t="shared" si="16"/>
         <v>90.972200000000001</v>
       </c>
-      <c r="R36" s="20">
-        <f t="shared" si="13"/>
+      <c r="R36" s="19">
+        <f t="shared" si="16"/>
         <v>86.111099999999993</v>
       </c>
-      <c r="S36" s="20">
-        <f t="shared" si="13"/>
+      <c r="S36" s="19">
+        <f t="shared" si="16"/>
         <v>86.805599999999998</v>
       </c>
-      <c r="T36" s="20"/>
+      <c r="T36" s="19">
+        <f t="shared" si="16"/>
+        <v>89.930599999999998</v>
+      </c>
+      <c r="U36" s="19">
+        <f t="shared" si="16"/>
+        <v>89.583299999999994</v>
+      </c>
+      <c r="V36" s="19">
+        <f t="shared" si="16"/>
+        <v>87.847200000000001</v>
+      </c>
+      <c r="W36" s="19">
+        <f t="shared" si="16"/>
+        <v>88.888900000000007</v>
+      </c>
+      <c r="X36" s="19">
+        <f t="shared" si="16"/>
+        <v>87.5</v>
+      </c>
+      <c r="Y36" s="19">
+        <f t="shared" si="16"/>
+        <v>90.972200000000001</v>
+      </c>
+      <c r="Z36" s="19">
+        <f t="shared" si="16"/>
+        <v>89.930599999999998</v>
+      </c>
+      <c r="AA36" s="19">
+        <f t="shared" si="16"/>
+        <v>91.319400000000002</v>
+      </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>4</v>
       </c>
-      <c r="B37" s="19">
-        <f t="shared" si="11"/>
-        <v>71.321612500000001</v>
-      </c>
-      <c r="C37" s="21">
-        <f t="shared" si="11"/>
+      <c r="B37" s="18">
+        <f t="shared" si="14"/>
+        <v>72.791668000000001</v>
+      </c>
+      <c r="C37" s="20">
+        <f t="shared" si="14"/>
+        <v>80.729200000000006</v>
+      </c>
+      <c r="D37" s="19">
+        <f t="shared" si="14"/>
+        <v>65.104200000000006</v>
+      </c>
+      <c r="E37" s="19">
+        <f t="shared" si="14"/>
+        <v>66.666700000000006</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="14"/>
+        <v>61.458300000000001</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="14"/>
+        <v>67.1875</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="14"/>
+        <v>68.229200000000006</v>
+      </c>
+      <c r="I37" s="19">
+        <f t="shared" si="14"/>
+        <v>67.1875</v>
+      </c>
+      <c r="J37" s="19">
+        <f t="shared" si="14"/>
+        <v>66.145799999999994</v>
+      </c>
+      <c r="K37" s="19">
+        <f t="shared" si="14"/>
+        <v>77.083299999999994</v>
+      </c>
+      <c r="L37" s="19">
+        <f t="shared" si="14"/>
+        <v>77.083299999999994</v>
+      </c>
+      <c r="M37" s="19">
+        <f t="shared" ref="M37:AA37" si="17">M9 * 100</f>
+        <v>76.5625</v>
+      </c>
+      <c r="N37" s="19">
+        <f t="shared" si="17"/>
+        <v>76.5625</v>
+      </c>
+      <c r="O37" s="19">
+        <f t="shared" si="17"/>
+        <v>73.4375</v>
+      </c>
+      <c r="P37" s="19">
+        <f t="shared" si="17"/>
+        <v>71.354200000000006</v>
+      </c>
+      <c r="Q37" s="19">
+        <f t="shared" si="17"/>
+        <v>74.479200000000006</v>
+      </c>
+      <c r="R37" s="19">
+        <f t="shared" si="17"/>
         <v>78.645799999999994</v>
       </c>
-      <c r="D37" s="20">
-        <f t="shared" si="11"/>
-        <v>65.104200000000006</v>
-      </c>
-      <c r="E37" s="20">
-        <f t="shared" si="11"/>
-        <v>66.666700000000006</v>
-      </c>
-      <c r="F37" s="20">
-        <f t="shared" si="11"/>
-        <v>61.458300000000001</v>
-      </c>
-      <c r="G37" s="20">
-        <f t="shared" si="11"/>
-        <v>67.1875</v>
-      </c>
-      <c r="H37" s="20">
-        <f t="shared" si="11"/>
-        <v>68.229200000000006</v>
-      </c>
-      <c r="I37" s="20">
-        <f t="shared" si="11"/>
-        <v>67.1875</v>
-      </c>
-      <c r="J37" s="20">
-        <f t="shared" si="11"/>
-        <v>66.145799999999994</v>
-      </c>
-      <c r="K37" s="20">
-        <f t="shared" si="11"/>
-        <v>77.083299999999994</v>
-      </c>
-      <c r="L37" s="20">
-        <f t="shared" si="11"/>
-        <v>77.083299999999994</v>
-      </c>
-      <c r="M37" s="20">
-        <f t="shared" ref="M37:S37" si="14">M9 * 100</f>
-        <v>76.5625</v>
-      </c>
-      <c r="N37" s="20">
-        <f t="shared" si="14"/>
-        <v>76.5625</v>
-      </c>
-      <c r="O37" s="20">
-        <f t="shared" si="14"/>
-        <v>73.4375</v>
-      </c>
-      <c r="P37" s="20">
-        <f t="shared" si="14"/>
-        <v>71.354200000000006</v>
-      </c>
-      <c r="Q37" s="20">
-        <f t="shared" si="14"/>
+      <c r="S37" s="19">
+        <f t="shared" si="17"/>
+        <v>73.958299999999994</v>
+      </c>
+      <c r="T37" s="19">
+        <f t="shared" si="17"/>
+        <v>70.3125</v>
+      </c>
+      <c r="U37" s="19">
+        <f t="shared" si="17"/>
+        <v>75.520799999999994</v>
+      </c>
+      <c r="V37" s="19">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="W37" s="19">
+        <f t="shared" si="17"/>
+        <v>80.729200000000006</v>
+      </c>
+      <c r="X37" s="19">
+        <f t="shared" si="17"/>
+        <v>77.604200000000006</v>
+      </c>
+      <c r="Y37" s="19">
+        <f t="shared" si="17"/>
+        <v>76.041700000000006</v>
+      </c>
+      <c r="Z37" s="19">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="AA37" s="19">
+        <f t="shared" si="17"/>
         <v>74.479200000000006</v>
       </c>
-      <c r="R37" s="20">
-        <f t="shared" si="14"/>
-        <v>78.645799999999994</v>
-      </c>
-      <c r="S37" s="20">
-        <f t="shared" si="14"/>
-        <v>73.958299999999994</v>
-      </c>
-      <c r="T37" s="20"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>5</v>
       </c>
-      <c r="B38" s="19">
-        <f t="shared" si="11"/>
-        <v>77.322056250000017</v>
-      </c>
-      <c r="C38" s="21">
-        <f t="shared" si="11"/>
+      <c r="B38" s="18">
+        <f t="shared" si="14"/>
+        <v>79.013892000000013</v>
+      </c>
+      <c r="C38" s="20">
+        <f t="shared" si="14"/>
         <v>85.416700000000006</v>
       </c>
-      <c r="D38" s="20">
-        <f t="shared" si="11"/>
+      <c r="D38" s="19">
+        <f t="shared" si="14"/>
         <v>75.347200000000001</v>
       </c>
-      <c r="E38" s="20">
-        <f t="shared" si="11"/>
+      <c r="E38" s="19">
+        <f t="shared" si="14"/>
         <v>77.777799999999999</v>
       </c>
-      <c r="F38" s="20">
-        <f t="shared" si="11"/>
+      <c r="F38" s="19">
+        <f t="shared" si="14"/>
         <v>72.222200000000001</v>
       </c>
-      <c r="G38" s="20">
-        <f t="shared" si="11"/>
+      <c r="G38" s="19">
+        <f t="shared" si="14"/>
         <v>78.472200000000001</v>
       </c>
-      <c r="H38" s="20">
-        <f t="shared" si="11"/>
+      <c r="H38" s="19">
+        <f t="shared" si="14"/>
         <v>72.916700000000006</v>
       </c>
-      <c r="I38" s="20">
-        <f t="shared" si="11"/>
+      <c r="I38" s="19">
+        <f t="shared" si="14"/>
         <v>75.347200000000001</v>
       </c>
-      <c r="J38" s="20">
-        <f t="shared" si="11"/>
+      <c r="J38" s="19">
+        <f t="shared" si="14"/>
         <v>74.305599999999998</v>
       </c>
-      <c r="K38" s="20">
-        <f t="shared" si="11"/>
+      <c r="K38" s="19">
+        <f t="shared" si="14"/>
         <v>80.555599999999998</v>
       </c>
-      <c r="L38" s="20">
-        <f t="shared" si="11"/>
+      <c r="L38" s="19">
+        <f t="shared" si="14"/>
         <v>77.777799999999999</v>
       </c>
-      <c r="M38" s="20">
-        <f t="shared" ref="M38:S38" si="15">M10 * 100</f>
+      <c r="M38" s="19">
+        <f t="shared" ref="M38:AA38" si="18">M10 * 100</f>
         <v>79.166700000000006</v>
       </c>
-      <c r="N38" s="20">
-        <f t="shared" si="15"/>
+      <c r="N38" s="19">
+        <f t="shared" si="18"/>
         <v>82.291700000000006</v>
       </c>
-      <c r="O38" s="20">
-        <f t="shared" si="15"/>
+      <c r="O38" s="19">
+        <f t="shared" si="18"/>
         <v>73.263900000000007</v>
       </c>
-      <c r="P38" s="20">
-        <f t="shared" si="15"/>
+      <c r="P38" s="19">
+        <f t="shared" si="18"/>
         <v>69.097200000000001</v>
       </c>
-      <c r="Q38" s="20">
-        <f t="shared" si="15"/>
+      <c r="Q38" s="19">
+        <f t="shared" si="18"/>
         <v>78.472200000000001</v>
       </c>
-      <c r="R38" s="20">
-        <f t="shared" si="15"/>
+      <c r="R38" s="19">
+        <f t="shared" si="18"/>
         <v>85.416700000000006</v>
       </c>
-      <c r="S38" s="20">
-        <f t="shared" si="15"/>
+      <c r="S38" s="19">
+        <f t="shared" si="18"/>
         <v>84.722200000000001</v>
       </c>
-      <c r="T38" s="20"/>
+      <c r="T38" s="19">
+        <f t="shared" si="18"/>
+        <v>82.638900000000007</v>
+      </c>
+      <c r="U38" s="19">
+        <f t="shared" si="18"/>
+        <v>80.555599999999998</v>
+      </c>
+      <c r="V38" s="19">
+        <f t="shared" si="18"/>
+        <v>83.333299999999994</v>
+      </c>
+      <c r="W38" s="19">
+        <f t="shared" si="18"/>
+        <v>82.291700000000006</v>
+      </c>
+      <c r="X38" s="19">
+        <f t="shared" si="18"/>
+        <v>83.680599999999998</v>
+      </c>
+      <c r="Y38" s="19">
+        <f t="shared" si="18"/>
+        <v>83.333299999999994</v>
+      </c>
+      <c r="Z38" s="19">
+        <f t="shared" si="18"/>
+        <v>81.944400000000002</v>
+      </c>
+      <c r="AA38" s="19">
+        <f t="shared" si="18"/>
+        <v>78.819400000000002</v>
+      </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>6</v>
       </c>
-      <c r="B39" s="19">
-        <f t="shared" si="11"/>
-        <v>81.814231250000006</v>
-      </c>
-      <c r="C39" s="21">
-        <f t="shared" si="11"/>
+      <c r="B39" s="18">
+        <f t="shared" si="14"/>
+        <v>83.138884000000019</v>
+      </c>
+      <c r="C39" s="20">
+        <f t="shared" si="14"/>
+        <v>87.847200000000001</v>
+      </c>
+      <c r="D39" s="19">
+        <f t="shared" si="14"/>
+        <v>78.472200000000001</v>
+      </c>
+      <c r="E39" s="19">
+        <f t="shared" si="14"/>
+        <v>76.041700000000006</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="14"/>
+        <v>79.513900000000007</v>
+      </c>
+      <c r="G39" s="19">
+        <f t="shared" si="14"/>
+        <v>79.166700000000006</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="14"/>
+        <v>79.513900000000007</v>
+      </c>
+      <c r="I39" s="19">
+        <f t="shared" si="14"/>
+        <v>83.333299999999994</v>
+      </c>
+      <c r="J39" s="19">
+        <f t="shared" si="14"/>
+        <v>80.555599999999998</v>
+      </c>
+      <c r="K39" s="19">
+        <f t="shared" si="14"/>
         <v>86.111099999999993</v>
       </c>
-      <c r="D39" s="20">
-        <f t="shared" si="11"/>
-        <v>78.472200000000001</v>
-      </c>
-      <c r="E39" s="20">
-        <f t="shared" si="11"/>
-        <v>76.041700000000006</v>
-      </c>
-      <c r="F39" s="20">
-        <f t="shared" si="11"/>
-        <v>79.513900000000007</v>
-      </c>
-      <c r="G39" s="20">
-        <f t="shared" si="11"/>
-        <v>79.166700000000006</v>
-      </c>
-      <c r="H39" s="20">
-        <f t="shared" si="11"/>
-        <v>79.513900000000007</v>
-      </c>
-      <c r="I39" s="20">
-        <f t="shared" si="11"/>
+      <c r="L39" s="19">
+        <f t="shared" si="14"/>
+        <v>82.638900000000007</v>
+      </c>
+      <c r="M39" s="19">
+        <f t="shared" ref="M39:AA39" si="19">M11 * 100</f>
+        <v>80.555599999999998</v>
+      </c>
+      <c r="N39" s="19">
+        <f t="shared" si="19"/>
+        <v>85.069400000000002</v>
+      </c>
+      <c r="O39" s="19">
+        <f t="shared" si="19"/>
+        <v>85.069400000000002</v>
+      </c>
+      <c r="P39" s="19">
+        <f t="shared" si="19"/>
+        <v>79.861099999999993</v>
+      </c>
+      <c r="Q39" s="19">
+        <f t="shared" si="19"/>
+        <v>84.722200000000001</v>
+      </c>
+      <c r="R39" s="19">
+        <f t="shared" si="19"/>
+        <v>85.069400000000002</v>
+      </c>
+      <c r="S39" s="19">
+        <f t="shared" si="19"/>
         <v>83.333299999999994</v>
       </c>
-      <c r="J39" s="20">
-        <f t="shared" si="11"/>
-        <v>80.555599999999998</v>
-      </c>
-      <c r="K39" s="20">
-        <f t="shared" si="11"/>
+      <c r="T39" s="19">
+        <f t="shared" si="19"/>
+        <v>82.291700000000006</v>
+      </c>
+      <c r="U39" s="19">
+        <f t="shared" si="19"/>
+        <v>87.847200000000001</v>
+      </c>
+      <c r="V39" s="19">
+        <f t="shared" si="19"/>
+        <v>84.722200000000001</v>
+      </c>
+      <c r="W39" s="19">
+        <f t="shared" si="19"/>
+        <v>86.458299999999994</v>
+      </c>
+      <c r="X39" s="19">
+        <f t="shared" si="19"/>
         <v>86.111099999999993</v>
       </c>
-      <c r="L39" s="20">
-        <f t="shared" si="11"/>
-        <v>82.638900000000007</v>
-      </c>
-      <c r="M39" s="20">
-        <f t="shared" ref="M39:S39" si="16">M11 * 100</f>
-        <v>80.555599999999998</v>
-      </c>
-      <c r="N39" s="20">
-        <f t="shared" si="16"/>
+      <c r="Y39" s="19">
+        <f t="shared" si="19"/>
+        <v>85.416700000000006</v>
+      </c>
+      <c r="Z39" s="19">
+        <f t="shared" si="19"/>
         <v>85.069400000000002</v>
       </c>
-      <c r="O39" s="20">
-        <f t="shared" si="16"/>
-        <v>85.069400000000002</v>
-      </c>
-      <c r="P39" s="20">
-        <f t="shared" si="16"/>
-        <v>79.861099999999993</v>
-      </c>
-      <c r="Q39" s="20">
-        <f t="shared" si="16"/>
-        <v>84.722200000000001</v>
-      </c>
-      <c r="R39" s="20">
-        <f t="shared" si="16"/>
-        <v>85.069400000000002</v>
-      </c>
-      <c r="S39" s="20">
-        <f t="shared" si="16"/>
-        <v>83.333299999999994</v>
-      </c>
-      <c r="T39" s="20"/>
+      <c r="AA39" s="19">
+        <f t="shared" si="19"/>
+        <v>84.375</v>
+      </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>7</v>
       </c>
-      <c r="B40" s="19">
-        <f t="shared" si="11"/>
-        <v>84.136293750000007</v>
-      </c>
-      <c r="C40" s="21">
-        <f t="shared" si="11"/>
+      <c r="B40" s="18">
+        <f t="shared" si="14"/>
+        <v>84.902783999999997</v>
+      </c>
+      <c r="C40" s="20">
+        <f t="shared" si="14"/>
+        <v>90.277799999999999</v>
+      </c>
+      <c r="D40" s="19">
+        <f t="shared" si="14"/>
+        <v>82.291700000000006</v>
+      </c>
+      <c r="E40" s="19">
+        <f t="shared" si="14"/>
+        <v>79.513900000000007</v>
+      </c>
+      <c r="F40" s="19">
+        <f t="shared" si="14"/>
+        <v>79.166700000000006</v>
+      </c>
+      <c r="G40" s="19">
+        <f t="shared" si="14"/>
+        <v>80.555599999999998</v>
+      </c>
+      <c r="H40" s="19">
+        <f t="shared" si="14"/>
+        <v>83.333299999999994</v>
+      </c>
+      <c r="I40" s="19">
+        <f t="shared" si="14"/>
+        <v>85.763900000000007</v>
+      </c>
+      <c r="J40" s="19">
+        <f t="shared" si="14"/>
+        <v>82.986099999999993</v>
+      </c>
+      <c r="K40" s="19">
+        <f t="shared" si="14"/>
+        <v>86.111099999999993</v>
+      </c>
+      <c r="L40" s="19">
+        <f t="shared" si="14"/>
+        <v>84.375</v>
+      </c>
+      <c r="M40" s="19">
+        <f t="shared" ref="M40:AA40" si="20">M12 * 100</f>
+        <v>86.111099999999993</v>
+      </c>
+      <c r="N40" s="19">
+        <f t="shared" si="20"/>
         <v>87.847200000000001</v>
       </c>
-      <c r="D40" s="20">
-        <f t="shared" si="11"/>
+      <c r="O40" s="19">
+        <f t="shared" si="20"/>
+        <v>84.375</v>
+      </c>
+      <c r="P40" s="19">
+        <f t="shared" si="20"/>
         <v>82.291700000000006</v>
       </c>
-      <c r="E40" s="20">
-        <f t="shared" si="11"/>
-        <v>79.513900000000007</v>
-      </c>
-      <c r="F40" s="20">
-        <f t="shared" si="11"/>
-        <v>79.166700000000006</v>
-      </c>
-      <c r="G40" s="20">
-        <f t="shared" si="11"/>
-        <v>80.555599999999998</v>
-      </c>
-      <c r="H40" s="20">
-        <f t="shared" si="11"/>
-        <v>83.333299999999994</v>
-      </c>
-      <c r="I40" s="20">
-        <f t="shared" si="11"/>
+      <c r="Q40" s="19">
+        <f t="shared" si="20"/>
+        <v>86.805599999999998</v>
+      </c>
+      <c r="R40" s="19">
+        <f t="shared" si="20"/>
+        <v>87.847200000000001</v>
+      </c>
+      <c r="S40" s="19">
+        <f t="shared" si="20"/>
+        <v>86.805599999999998</v>
+      </c>
+      <c r="T40" s="19">
+        <f t="shared" si="20"/>
+        <v>86.805599999999998</v>
+      </c>
+      <c r="U40" s="19">
+        <f t="shared" si="20"/>
+        <v>85.069400000000002</v>
+      </c>
+      <c r="V40" s="19">
+        <f t="shared" si="20"/>
+        <v>85.416700000000006</v>
+      </c>
+      <c r="W40" s="19">
+        <f t="shared" si="20"/>
+        <v>85.069400000000002</v>
+      </c>
+      <c r="X40" s="19">
+        <f t="shared" si="20"/>
+        <v>87.5</v>
+      </c>
+      <c r="Y40" s="19">
+        <f t="shared" si="20"/>
         <v>85.763900000000007</v>
       </c>
-      <c r="J40" s="20">
-        <f t="shared" si="11"/>
-        <v>82.986099999999993</v>
-      </c>
-      <c r="K40" s="20">
-        <f t="shared" si="11"/>
-        <v>86.111099999999993</v>
-      </c>
-      <c r="L40" s="20">
-        <f t="shared" si="11"/>
-        <v>84.375</v>
-      </c>
-      <c r="M40" s="20">
-        <f t="shared" ref="M40:S40" si="17">M12 * 100</f>
-        <v>86.111099999999993</v>
-      </c>
-      <c r="N40" s="20">
-        <f t="shared" si="17"/>
-        <v>87.847200000000001</v>
-      </c>
-      <c r="O40" s="20">
-        <f t="shared" si="17"/>
-        <v>84.375</v>
-      </c>
-      <c r="P40" s="20">
-        <f t="shared" si="17"/>
-        <v>82.291700000000006</v>
-      </c>
-      <c r="Q40" s="20">
-        <f t="shared" si="17"/>
-        <v>86.805599999999998</v>
-      </c>
-      <c r="R40" s="20">
-        <f t="shared" si="17"/>
-        <v>87.847200000000001</v>
-      </c>
-      <c r="S40" s="20">
-        <f t="shared" si="17"/>
-        <v>86.805599999999998</v>
-      </c>
-      <c r="T40" s="20"/>
+      <c r="Z40" s="19">
+        <f t="shared" si="20"/>
+        <v>90.277799999999999</v>
+      </c>
+      <c r="AA40" s="19">
+        <f t="shared" si="20"/>
+        <v>84.722200000000001</v>
+      </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>8</v>
       </c>
-      <c r="B41" s="19">
-        <f t="shared" si="11"/>
-        <v>85.677081250000015</v>
-      </c>
-      <c r="C41" s="21">
-        <f t="shared" si="11"/>
+      <c r="B41" s="18">
+        <f t="shared" si="14"/>
+        <v>86.833327999999995</v>
+      </c>
+      <c r="C41" s="20">
+        <f t="shared" si="14"/>
         <v>92.013900000000007</v>
       </c>
-      <c r="D41" s="20">
-        <f t="shared" si="11"/>
+      <c r="D41" s="19">
+        <f t="shared" si="14"/>
         <v>80.902799999999999</v>
       </c>
-      <c r="E41" s="20">
-        <f t="shared" si="11"/>
+      <c r="E41" s="19">
+        <f t="shared" si="14"/>
         <v>82.638900000000007</v>
       </c>
-      <c r="F41" s="20">
-        <f t="shared" si="11"/>
+      <c r="F41" s="19">
+        <f t="shared" si="14"/>
         <v>83.680599999999998</v>
       </c>
-      <c r="G41" s="20">
-        <f t="shared" si="11"/>
+      <c r="G41" s="19">
+        <f t="shared" si="14"/>
         <v>81.944400000000002</v>
       </c>
-      <c r="H41" s="20">
-        <f t="shared" si="11"/>
+      <c r="H41" s="19">
+        <f t="shared" si="14"/>
         <v>78.125</v>
       </c>
-      <c r="I41" s="20">
-        <f t="shared" si="11"/>
+      <c r="I41" s="19">
+        <f t="shared" si="14"/>
         <v>86.111099999999993</v>
       </c>
-      <c r="J41" s="20">
-        <f t="shared" si="11"/>
+      <c r="J41" s="19">
+        <f t="shared" si="14"/>
         <v>84.375</v>
       </c>
-      <c r="K41" s="20">
-        <f t="shared" si="11"/>
+      <c r="K41" s="19">
+        <f t="shared" si="14"/>
         <v>89.236099999999993</v>
       </c>
-      <c r="L41" s="20">
-        <f t="shared" si="11"/>
+      <c r="L41" s="19">
+        <f t="shared" si="14"/>
         <v>86.111099999999993</v>
       </c>
-      <c r="M41" s="20">
-        <f t="shared" ref="M41:S41" si="18">M13 * 100</f>
+      <c r="M41" s="19">
+        <f t="shared" ref="M41:AA41" si="21">M13 * 100</f>
         <v>85.069400000000002</v>
       </c>
-      <c r="N41" s="20">
-        <f t="shared" si="18"/>
+      <c r="N41" s="19">
+        <f t="shared" si="21"/>
         <v>89.583299999999994</v>
       </c>
-      <c r="O41" s="20">
-        <f t="shared" si="18"/>
+      <c r="O41" s="19">
+        <f t="shared" si="21"/>
         <v>86.458299999999994</v>
       </c>
-      <c r="P41" s="20">
-        <f t="shared" si="18"/>
+      <c r="P41" s="19">
+        <f t="shared" si="21"/>
         <v>88.541700000000006</v>
       </c>
-      <c r="Q41" s="20">
-        <f t="shared" si="18"/>
+      <c r="Q41" s="19">
+        <f t="shared" si="21"/>
         <v>92.013900000000007</v>
       </c>
-      <c r="R41" s="20">
-        <f t="shared" si="18"/>
+      <c r="R41" s="19">
+        <f t="shared" si="21"/>
         <v>87.5</v>
       </c>
-      <c r="S41" s="20">
-        <f t="shared" si="18"/>
+      <c r="S41" s="19">
+        <f t="shared" si="21"/>
         <v>88.541700000000006</v>
       </c>
-      <c r="T41" s="20"/>
+      <c r="T41" s="19">
+        <f t="shared" si="21"/>
+        <v>86.111099999999993</v>
+      </c>
+      <c r="U41" s="19">
+        <f t="shared" si="21"/>
+        <v>89.236099999999993</v>
+      </c>
+      <c r="V41" s="19">
+        <f t="shared" si="21"/>
+        <v>89.236099999999993</v>
+      </c>
+      <c r="W41" s="19">
+        <f t="shared" si="21"/>
+        <v>89.583299999999994</v>
+      </c>
+      <c r="X41" s="19">
+        <f t="shared" si="21"/>
+        <v>87.847200000000001</v>
+      </c>
+      <c r="Y41" s="19">
+        <f t="shared" si="21"/>
+        <v>88.194400000000002</v>
+      </c>
+      <c r="Z41" s="19">
+        <f t="shared" si="21"/>
+        <v>89.930599999999998</v>
+      </c>
+      <c r="AA41" s="19">
+        <f t="shared" si="21"/>
+        <v>89.583299999999994</v>
+      </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>9</v>
       </c>
-      <c r="B42" s="22">
-        <f t="shared" si="11"/>
-        <v>89.301212500000005</v>
-      </c>
-      <c r="C42" s="23">
-        <f t="shared" si="11"/>
+      <c r="B42" s="21">
+        <f t="shared" si="14"/>
+        <v>90.208331999999999</v>
+      </c>
+      <c r="C42" s="22">
+        <f t="shared" si="14"/>
         <v>94.097200000000001</v>
       </c>
-      <c r="D42" s="20">
-        <f t="shared" si="11"/>
+      <c r="D42" s="19">
+        <f t="shared" si="14"/>
         <v>86.111099999999993</v>
       </c>
-      <c r="E42" s="20">
-        <f t="shared" si="11"/>
+      <c r="E42" s="19">
+        <f t="shared" si="14"/>
         <v>88.888900000000007</v>
       </c>
-      <c r="F42" s="20">
-        <f t="shared" si="11"/>
+      <c r="F42" s="19">
+        <f t="shared" si="14"/>
         <v>84.375</v>
       </c>
-      <c r="G42" s="20">
-        <f t="shared" si="11"/>
+      <c r="G42" s="19">
+        <f t="shared" si="14"/>
         <v>87.5</v>
       </c>
-      <c r="H42" s="20">
-        <f t="shared" si="11"/>
+      <c r="H42" s="19">
+        <f t="shared" si="14"/>
         <v>85.763900000000007</v>
       </c>
-      <c r="I42" s="20">
-        <f t="shared" si="11"/>
+      <c r="I42" s="19">
+        <f t="shared" si="14"/>
         <v>90.972200000000001</v>
       </c>
-      <c r="J42" s="20">
-        <f t="shared" si="11"/>
+      <c r="J42" s="19">
+        <f t="shared" si="14"/>
         <v>90.972200000000001</v>
       </c>
-      <c r="K42" s="20">
-        <f t="shared" si="11"/>
+      <c r="K42" s="19">
+        <f t="shared" si="14"/>
         <v>90.972200000000001</v>
       </c>
-      <c r="L42" s="20">
-        <f t="shared" si="11"/>
+      <c r="L42" s="19">
+        <f t="shared" si="14"/>
         <v>89.236099999999993</v>
       </c>
-      <c r="M42" s="20">
-        <f t="shared" ref="M42:S42" si="19">M14 * 100</f>
+      <c r="M42" s="19">
+        <f t="shared" ref="M42:AA42" si="22">M14 * 100</f>
         <v>89.236099999999993</v>
       </c>
-      <c r="N42" s="20">
-        <f t="shared" si="19"/>
+      <c r="N42" s="19">
+        <f t="shared" si="22"/>
         <v>89.930599999999998</v>
       </c>
-      <c r="O42" s="20">
-        <f t="shared" si="19"/>
+      <c r="O42" s="19">
+        <f t="shared" si="22"/>
         <v>90.277799999999999</v>
       </c>
-      <c r="P42" s="20">
-        <f t="shared" si="19"/>
+      <c r="P42" s="19">
+        <f t="shared" si="22"/>
         <v>87.847200000000001</v>
       </c>
-      <c r="Q42" s="20">
-        <f t="shared" si="19"/>
+      <c r="Q42" s="19">
+        <f t="shared" si="22"/>
         <v>94.097200000000001</v>
       </c>
-      <c r="R42" s="20">
-        <f t="shared" si="19"/>
+      <c r="R42" s="19">
+        <f t="shared" si="22"/>
         <v>91.666700000000006</v>
       </c>
-      <c r="S42" s="20">
-        <f t="shared" si="19"/>
+      <c r="S42" s="19">
+        <f t="shared" si="22"/>
         <v>90.972200000000001</v>
       </c>
-      <c r="T42" s="20"/>
+      <c r="T42" s="19">
+        <f t="shared" si="22"/>
+        <v>93.055599999999998</v>
+      </c>
+      <c r="U42" s="19">
+        <f t="shared" si="22"/>
+        <v>92.361099999999993</v>
+      </c>
+      <c r="V42" s="19">
+        <f t="shared" si="22"/>
+        <v>92.708299999999994</v>
+      </c>
+      <c r="W42" s="19">
+        <f t="shared" si="22"/>
+        <v>91.666700000000006</v>
+      </c>
+      <c r="X42" s="19">
+        <f t="shared" si="22"/>
+        <v>92.708299999999994</v>
+      </c>
+      <c r="Y42" s="19">
+        <f t="shared" si="22"/>
+        <v>92.361099999999993</v>
+      </c>
+      <c r="Z42" s="19">
+        <f>Z14 * 100</f>
+        <v>92.013900000000007</v>
+      </c>
+      <c r="AA42" s="19">
+        <f t="shared" si="22"/>
+        <v>89.583299999999994</v>
+      </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="24">
-        <f t="shared" ref="B43:S43" si="20">AVERAGE(B34:B42)</f>
-        <v>81.12581805555557</v>
-      </c>
-      <c r="C43" s="25">
-        <f t="shared" si="20"/>
-        <v>86.246144444444454</v>
-      </c>
-      <c r="D43" s="20">
-        <f t="shared" si="20"/>
+      <c r="B43" s="23">
+        <f t="shared" ref="B43:Y43" si="23">AVERAGE(B34:B42)</f>
+        <v>82.239196000000007</v>
+      </c>
+      <c r="C43" s="24">
+        <f t="shared" si="23"/>
+        <v>87.403566666666677</v>
+      </c>
+      <c r="D43" s="19">
+        <f t="shared" si="23"/>
         <v>77.372688888888874</v>
       </c>
-      <c r="E43" s="20">
-        <f t="shared" si="20"/>
+      <c r="E43" s="19">
+        <f t="shared" si="23"/>
         <v>77.546311111111123</v>
       </c>
-      <c r="F43" s="20">
-        <f t="shared" si="20"/>
+      <c r="F43" s="19">
+        <f t="shared" si="23"/>
         <v>76.58178888888888</v>
       </c>
-      <c r="G43" s="20">
-        <f t="shared" si="20"/>
+      <c r="G43" s="19">
+        <f t="shared" si="23"/>
         <v>78.568666666666658</v>
       </c>
-      <c r="H43" s="20">
-        <f t="shared" si="20"/>
+      <c r="H43" s="19">
+        <f t="shared" si="23"/>
         <v>78.645844444444435</v>
       </c>
-      <c r="I43" s="20">
-        <f t="shared" si="20"/>
+      <c r="I43" s="19">
+        <f t="shared" si="23"/>
         <v>81.037788888888883</v>
       </c>
-      <c r="J43" s="20">
-        <f t="shared" si="20"/>
+      <c r="J43" s="19">
+        <f t="shared" si="23"/>
         <v>79.803244444444445</v>
       </c>
-      <c r="K43" s="20">
-        <f t="shared" si="20"/>
+      <c r="K43" s="19">
+        <f t="shared" si="23"/>
         <v>84.182088888888885</v>
       </c>
-      <c r="L43" s="20">
-        <f t="shared" si="20"/>
+      <c r="L43" s="19">
+        <f t="shared" si="23"/>
         <v>82.561722222222215</v>
       </c>
-      <c r="M43" s="20">
-        <f t="shared" si="20"/>
+      <c r="M43" s="19">
+        <f t="shared" si="23"/>
         <v>83.159722222222214</v>
       </c>
-      <c r="N43" s="20">
-        <f t="shared" si="20"/>
+      <c r="N43" s="19">
+        <f t="shared" si="23"/>
         <v>84.2013888888889</v>
       </c>
-      <c r="O43" s="20">
-        <f t="shared" si="20"/>
+      <c r="O43" s="19">
+        <f t="shared" si="23"/>
         <v>82.42668888888889</v>
       </c>
-      <c r="P43" s="20">
-        <f t="shared" si="20"/>
+      <c r="P43" s="19">
+        <f t="shared" si="23"/>
         <v>80.189033333333342</v>
       </c>
-      <c r="Q43" s="20">
-        <f t="shared" si="20"/>
+      <c r="Q43" s="19">
+        <f t="shared" si="23"/>
         <v>84.278555555555556</v>
       </c>
-      <c r="R43" s="20">
-        <f t="shared" si="20"/>
+      <c r="R43" s="19">
+        <f t="shared" si="23"/>
         <v>84.12422222222223</v>
       </c>
-      <c r="S43" s="20">
-        <f t="shared" si="20"/>
+      <c r="S43" s="19">
+        <f t="shared" si="23"/>
         <v>83.333333333333329</v>
       </c>
-      <c r="T43" s="20"/>
+      <c r="T43" s="19">
+        <f t="shared" si="23"/>
+        <v>83.044000000000011</v>
+      </c>
+      <c r="U43" s="19">
+        <f t="shared" si="23"/>
+        <v>84.587177777777768</v>
+      </c>
+      <c r="V43" s="19">
+        <f t="shared" si="23"/>
+        <v>83.98918888888889</v>
+      </c>
+      <c r="W43" s="19">
+        <f t="shared" si="23"/>
+        <v>85.088733333333323</v>
+      </c>
+      <c r="X43" s="19">
+        <f t="shared" si="23"/>
+        <v>84.664355555555559</v>
+      </c>
+      <c r="Y43" s="19">
+        <f t="shared" si="23"/>
+        <v>83.719133333333332</v>
+      </c>
+      <c r="Z43" s="19">
+        <f>AVERAGE(Z34:Z42)</f>
+        <v>84.760799999999989</v>
+      </c>
+      <c r="AA43" s="19">
+        <f>AVERAGE(AA34:AA42)</f>
+        <v>83.236866666666685</v>
+      </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="29"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
       <c r="L46" s="34" t="s">
         <v>9</v>
       </c>
@@ -3837,13 +4268,20 @@
       <c r="N46" s="34"/>
       <c r="O46" s="34"/>
       <c r="P46" s="34"/>
-      <c r="Q46" s="35" t="s">
+      <c r="Q46" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>2</v>
       </c>
@@ -3872,812 +4310,1139 @@
       <c r="Q47" s="33"/>
       <c r="R47" s="33"/>
       <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>1</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="16">
         <f>B19 * 100</f>
-        <v>82.248270138888884</v>
-      </c>
-      <c r="C48" s="18">
-        <f t="shared" ref="C48:K48" si="21">C19 * 100</f>
-        <v>85.416700000000006</v>
-      </c>
-      <c r="D48" s="20">
-        <f t="shared" si="21"/>
+        <v>83.180560888888891</v>
+      </c>
+      <c r="C48" s="17">
+        <f t="shared" ref="C48:K48" si="24">C19 * 100</f>
+        <v>86.805599999999998</v>
+      </c>
+      <c r="D48" s="19">
+        <f>D19 * 100</f>
         <v>80.555599999999998</v>
       </c>
-      <c r="E48" s="20">
-        <f t="shared" si="21"/>
+      <c r="E48" s="19">
+        <f t="shared" si="24"/>
         <v>75.347200000000001</v>
       </c>
-      <c r="F48" s="20">
-        <f t="shared" si="21"/>
+      <c r="F48" s="19">
+        <f t="shared" si="24"/>
         <v>79.861099999999993</v>
       </c>
-      <c r="G48" s="20">
-        <f t="shared" si="21"/>
+      <c r="G48" s="19">
+        <f t="shared" si="24"/>
         <v>80.555599999999998</v>
       </c>
-      <c r="H48" s="20">
-        <f t="shared" si="21"/>
+      <c r="H48" s="19">
+        <f t="shared" si="24"/>
         <v>80.208299999999994</v>
       </c>
-      <c r="I48" s="20">
-        <f t="shared" si="21"/>
+      <c r="I48" s="19">
+        <f t="shared" si="24"/>
         <v>79.861099999999993</v>
       </c>
-      <c r="J48" s="20">
-        <f t="shared" si="21"/>
+      <c r="J48" s="19">
+        <f t="shared" si="24"/>
         <v>80.9027777777777</v>
       </c>
-      <c r="K48" s="20">
-        <f t="shared" si="21"/>
+      <c r="K48" s="19">
+        <f t="shared" si="24"/>
         <v>85.0694444444444</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="19">
         <f>L19 * 100</f>
         <v>85.416700000000006</v>
       </c>
-      <c r="M48" s="20">
-        <f t="shared" ref="M48:S48" si="22">M19 * 100</f>
+      <c r="M48" s="19">
+        <f t="shared" ref="M48:AA48" si="25">M19 * 100</f>
         <v>82.291700000000006</v>
       </c>
-      <c r="N48" s="20">
-        <f t="shared" si="22"/>
+      <c r="N48" s="19">
+        <f t="shared" si="25"/>
         <v>84.027799999999999</v>
       </c>
-      <c r="O48" s="20">
-        <f t="shared" si="22"/>
+      <c r="O48" s="19">
+        <f t="shared" si="25"/>
         <v>84.722200000000001</v>
       </c>
-      <c r="P48" s="20">
-        <f t="shared" si="22"/>
+      <c r="P48" s="19">
+        <f t="shared" si="25"/>
         <v>84.027799999999999</v>
       </c>
-      <c r="Q48" s="20">
-        <f t="shared" si="22"/>
+      <c r="Q48" s="19">
+        <f t="shared" si="25"/>
         <v>85.069400000000002</v>
       </c>
-      <c r="R48" s="20">
-        <f t="shared" si="22"/>
+      <c r="R48" s="19">
+        <f t="shared" si="25"/>
         <v>85.416700000000006</v>
       </c>
-      <c r="S48" s="20">
-        <f t="shared" si="22"/>
+      <c r="S48" s="19">
+        <f t="shared" si="25"/>
         <v>82.638900000000007</v>
       </c>
-      <c r="T48" s="20"/>
+      <c r="T48" s="19">
+        <f t="shared" si="25"/>
+        <v>82.986099999999993</v>
+      </c>
+      <c r="U48" s="19">
+        <f t="shared" si="25"/>
+        <v>86.805599999999998</v>
+      </c>
+      <c r="V48" s="19">
+        <f t="shared" si="25"/>
+        <v>84.027799999999999</v>
+      </c>
+      <c r="W48" s="19">
+        <f t="shared" si="25"/>
+        <v>85.069400000000002</v>
+      </c>
+      <c r="X48" s="19">
+        <f t="shared" si="25"/>
+        <v>86.805599999999998</v>
+      </c>
+      <c r="Y48" s="19">
+        <f t="shared" si="25"/>
+        <v>85.069400000000002</v>
+      </c>
+      <c r="Z48" s="19">
+        <f t="shared" si="25"/>
+        <v>82.291700000000006</v>
+      </c>
+      <c r="AA48" s="19">
+        <f t="shared" si="25"/>
+        <v>85.416700000000006</v>
+      </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>2</v>
       </c>
-      <c r="B49" s="19">
-        <f t="shared" ref="B49:L49" si="23">B20 * 100</f>
-        <v>71.028646527777781</v>
-      </c>
-      <c r="C49" s="21">
-        <f t="shared" si="23"/>
+      <c r="B49" s="18">
+        <f t="shared" ref="B49:L49" si="26">B20 * 100</f>
+        <v>72.513885777777801</v>
+      </c>
+      <c r="C49" s="20">
+        <f t="shared" si="26"/>
         <v>79.1666666666666</v>
       </c>
-      <c r="D49" s="20">
-        <f t="shared" si="23"/>
+      <c r="D49" s="19">
+        <f t="shared" si="26"/>
         <v>63.194399999999995</v>
       </c>
-      <c r="E49" s="20">
-        <f t="shared" si="23"/>
+      <c r="E49" s="19">
+        <f t="shared" si="26"/>
         <v>63.888900000000007</v>
       </c>
-      <c r="F49" s="20">
-        <f t="shared" si="23"/>
+      <c r="F49" s="19">
+        <f t="shared" si="26"/>
         <v>64.930599999999998</v>
       </c>
-      <c r="G49" s="20">
-        <f t="shared" si="23"/>
+      <c r="G49" s="19">
+        <f t="shared" si="26"/>
         <v>64.236099999999993</v>
       </c>
-      <c r="H49" s="20">
-        <f t="shared" si="23"/>
+      <c r="H49" s="19">
+        <f t="shared" si="26"/>
         <v>71.180599999999998</v>
       </c>
-      <c r="I49" s="20">
-        <f t="shared" si="23"/>
+      <c r="I49" s="19">
+        <f t="shared" si="26"/>
         <v>69.444400000000002</v>
       </c>
-      <c r="J49" s="20">
-        <f t="shared" si="23"/>
+      <c r="J49" s="19">
+        <f t="shared" si="26"/>
         <v>71.5277777777777</v>
       </c>
-      <c r="K49" s="20">
-        <f t="shared" si="23"/>
+      <c r="K49" s="19">
+        <f t="shared" si="26"/>
         <v>79.1666666666666</v>
       </c>
-      <c r="L49" s="20">
-        <f t="shared" si="23"/>
+      <c r="L49" s="19">
+        <f t="shared" si="26"/>
         <v>69.791700000000006</v>
       </c>
-      <c r="M49" s="20">
-        <f t="shared" ref="M49:S49" si="24">M20 * 100</f>
+      <c r="M49" s="19">
+        <f t="shared" ref="M49:AA49" si="27">M20 * 100</f>
         <v>73.958299999999994</v>
       </c>
-      <c r="N49" s="20">
-        <f t="shared" si="24"/>
+      <c r="N49" s="19">
+        <f t="shared" si="27"/>
         <v>75.347200000000001</v>
       </c>
-      <c r="O49" s="20">
-        <f t="shared" si="24"/>
+      <c r="O49" s="19">
+        <f t="shared" si="27"/>
         <v>73.263900000000007</v>
       </c>
-      <c r="P49" s="20">
-        <f t="shared" si="24"/>
+      <c r="P49" s="19">
+        <f t="shared" si="27"/>
         <v>73.263900000000007</v>
       </c>
-      <c r="Q49" s="20">
-        <f t="shared" si="24"/>
+      <c r="Q49" s="19">
+        <f t="shared" si="27"/>
         <v>75.694400000000002</v>
       </c>
-      <c r="R49" s="20">
-        <f t="shared" si="24"/>
+      <c r="R49" s="19">
+        <f t="shared" si="27"/>
         <v>71.180599999999998</v>
       </c>
-      <c r="S49" s="20">
-        <f t="shared" si="24"/>
+      <c r="S49" s="19">
+        <f t="shared" si="27"/>
         <v>76.388900000000007</v>
       </c>
-      <c r="T49" s="20"/>
+      <c r="T49" s="19">
+        <f t="shared" si="27"/>
+        <v>75</v>
+      </c>
+      <c r="U49" s="19">
+        <f t="shared" si="27"/>
+        <v>76.041700000000006</v>
+      </c>
+      <c r="V49" s="19">
+        <f t="shared" si="27"/>
+        <v>75.694400000000002</v>
+      </c>
+      <c r="W49" s="19">
+        <f t="shared" si="27"/>
+        <v>76.388900000000007</v>
+      </c>
+      <c r="X49" s="19">
+        <f t="shared" si="27"/>
+        <v>72.569400000000002</v>
+      </c>
+      <c r="Y49" s="19">
+        <f t="shared" si="27"/>
+        <v>75</v>
+      </c>
+      <c r="Z49" s="19">
+        <f t="shared" si="27"/>
+        <v>75.347200000000001</v>
+      </c>
+      <c r="AA49" s="19">
+        <f t="shared" si="27"/>
+        <v>74.652799999999999</v>
+      </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>3</v>
       </c>
-      <c r="B50" s="19">
-        <f t="shared" ref="B50:L50" si="25">B21 * 100</f>
-        <v>87.521695138888873</v>
-      </c>
-      <c r="C50" s="21">
-        <f t="shared" si="25"/>
+      <c r="B50" s="18">
+        <f t="shared" ref="B50:L50" si="28">B21 * 100</f>
+        <v>88.361104888888889</v>
+      </c>
+      <c r="C50" s="20">
+        <f t="shared" si="28"/>
         <v>92.361099999999993</v>
       </c>
-      <c r="D50" s="20">
-        <f t="shared" si="25"/>
+      <c r="D50" s="19">
+        <f t="shared" si="28"/>
         <v>85.763900000000007</v>
       </c>
-      <c r="E50" s="20">
-        <f t="shared" si="25"/>
+      <c r="E50" s="19">
+        <f t="shared" si="28"/>
         <v>82.986099999999993</v>
       </c>
-      <c r="F50" s="20">
-        <f t="shared" si="25"/>
+      <c r="F50" s="19">
+        <f t="shared" si="28"/>
         <v>85.416700000000006</v>
       </c>
-      <c r="G50" s="20">
-        <f t="shared" si="25"/>
+      <c r="G50" s="19">
+        <f t="shared" si="28"/>
         <v>80.208299999999994</v>
       </c>
-      <c r="H50" s="20">
-        <f t="shared" si="25"/>
+      <c r="H50" s="19">
+        <f t="shared" si="28"/>
         <v>86.458299999999994</v>
       </c>
-      <c r="I50" s="20">
-        <f t="shared" si="25"/>
+      <c r="I50" s="19">
+        <f t="shared" si="28"/>
         <v>86.458299999999994</v>
       </c>
-      <c r="J50" s="20">
-        <f t="shared" si="25"/>
+      <c r="J50" s="19">
+        <f t="shared" si="28"/>
         <v>86.4583333333333</v>
       </c>
-      <c r="K50" s="20">
-        <f t="shared" si="25"/>
+      <c r="K50" s="19">
+        <f t="shared" si="28"/>
         <v>92.0138888888888</v>
       </c>
-      <c r="L50" s="20">
-        <f t="shared" si="25"/>
+      <c r="L50" s="19">
+        <f t="shared" si="28"/>
         <v>88.888900000000007</v>
       </c>
-      <c r="M50" s="20">
-        <f t="shared" ref="M50:S50" si="26">M21 * 100</f>
+      <c r="M50" s="19">
+        <f t="shared" ref="M50:AA50" si="29">M21 * 100</f>
         <v>87.5</v>
       </c>
-      <c r="N50" s="20">
-        <f t="shared" si="26"/>
+      <c r="N50" s="19">
+        <f t="shared" si="29"/>
         <v>92.361099999999993</v>
       </c>
-      <c r="O50" s="20">
-        <f t="shared" si="26"/>
+      <c r="O50" s="19">
+        <f t="shared" si="29"/>
         <v>88.541700000000006</v>
       </c>
-      <c r="P50" s="20">
-        <f t="shared" si="26"/>
+      <c r="P50" s="19">
+        <f t="shared" si="29"/>
         <v>89.583299999999994</v>
       </c>
-      <c r="Q50" s="20">
-        <f t="shared" si="26"/>
+      <c r="Q50" s="19">
+        <f t="shared" si="29"/>
         <v>90.625</v>
       </c>
-      <c r="R50" s="20">
-        <f t="shared" si="26"/>
+      <c r="R50" s="19">
+        <f t="shared" si="29"/>
         <v>89.583299999999994</v>
       </c>
-      <c r="S50" s="20">
-        <f t="shared" si="26"/>
+      <c r="S50" s="19">
+        <f t="shared" si="29"/>
         <v>87.5</v>
       </c>
-      <c r="T50" s="20"/>
+      <c r="T50" s="19">
+        <f t="shared" si="29"/>
+        <v>88.888900000000007</v>
+      </c>
+      <c r="U50" s="19">
+        <f t="shared" si="29"/>
+        <v>90.972200000000001</v>
+      </c>
+      <c r="V50" s="19">
+        <f t="shared" si="29"/>
+        <v>90.972200000000001</v>
+      </c>
+      <c r="W50" s="19">
+        <f t="shared" si="29"/>
+        <v>89.236099999999993</v>
+      </c>
+      <c r="X50" s="19">
+        <f t="shared" si="29"/>
+        <v>87.5</v>
+      </c>
+      <c r="Y50" s="19">
+        <f t="shared" si="29"/>
+        <v>89.236099999999993</v>
+      </c>
+      <c r="Z50" s="19">
+        <f t="shared" si="29"/>
+        <v>90.625</v>
+      </c>
+      <c r="AA50" s="19">
+        <f t="shared" si="29"/>
+        <v>91.319400000000002</v>
+      </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>4</v>
       </c>
-      <c r="B51" s="19">
-        <f t="shared" ref="B51:L51" si="27">B22 * 100</f>
-        <v>70.833333333333329</v>
-      </c>
-      <c r="C51" s="21">
-        <f t="shared" si="27"/>
+      <c r="B51" s="18">
+        <f t="shared" ref="B51:L51" si="30">B22 * 100</f>
+        <v>72.645833333333329</v>
+      </c>
+      <c r="C51" s="20">
+        <f t="shared" si="30"/>
         <v>78.6458333333333</v>
       </c>
-      <c r="D51" s="20">
-        <f t="shared" si="27"/>
+      <c r="D51" s="19">
+        <f t="shared" si="30"/>
         <v>61.979199999999999</v>
       </c>
-      <c r="E51" s="20">
-        <f t="shared" si="27"/>
+      <c r="E51" s="19">
+        <f t="shared" si="30"/>
         <v>64.583299999999994</v>
       </c>
-      <c r="F51" s="20">
-        <f t="shared" si="27"/>
+      <c r="F51" s="19">
+        <f t="shared" si="30"/>
         <v>64.0625</v>
       </c>
-      <c r="G51" s="20">
-        <f t="shared" si="27"/>
+      <c r="G51" s="19">
+        <f t="shared" si="30"/>
         <v>58.854199999999999</v>
       </c>
-      <c r="H51" s="20">
-        <f t="shared" si="27"/>
+      <c r="H51" s="19">
+        <f t="shared" si="30"/>
         <v>63.541699999999999</v>
       </c>
-      <c r="I51" s="20">
-        <f t="shared" si="27"/>
+      <c r="I51" s="19">
+        <f t="shared" si="30"/>
         <v>69.791700000000006</v>
       </c>
-      <c r="J51" s="20">
-        <f t="shared" si="27"/>
+      <c r="J51" s="19">
+        <f t="shared" si="30"/>
         <v>67.1875</v>
       </c>
-      <c r="K51" s="20">
-        <f t="shared" si="27"/>
+      <c r="K51" s="19">
+        <f t="shared" si="30"/>
         <v>78.6458333333333</v>
       </c>
-      <c r="L51" s="20">
-        <f t="shared" si="27"/>
+      <c r="L51" s="19">
+        <f t="shared" si="30"/>
         <v>75</v>
       </c>
-      <c r="M51" s="20">
-        <f t="shared" ref="M51:S51" si="28">M22 * 100</f>
+      <c r="M51" s="19">
+        <f t="shared" ref="M51:AA51" si="31">M22 * 100</f>
         <v>78.125</v>
       </c>
-      <c r="N51" s="20">
-        <f t="shared" si="28"/>
+      <c r="N51" s="19">
+        <f t="shared" si="31"/>
         <v>75.520799999999994</v>
       </c>
-      <c r="O51" s="20">
-        <f t="shared" si="28"/>
+      <c r="O51" s="19">
+        <f t="shared" si="31"/>
         <v>72.395799999999994</v>
       </c>
-      <c r="P51" s="20">
-        <f t="shared" si="28"/>
+      <c r="P51" s="19">
+        <f t="shared" si="31"/>
         <v>75</v>
       </c>
-      <c r="Q51" s="20">
-        <f t="shared" si="28"/>
+      <c r="Q51" s="19">
+        <f t="shared" si="31"/>
         <v>75.520799999999994</v>
       </c>
-      <c r="R51" s="20">
-        <f t="shared" si="28"/>
+      <c r="R51" s="19">
+        <f t="shared" si="31"/>
         <v>78.125</v>
       </c>
-      <c r="S51" s="20">
-        <f t="shared" si="28"/>
+      <c r="S51" s="19">
+        <f t="shared" si="31"/>
         <v>75</v>
       </c>
-      <c r="T51" s="20"/>
+      <c r="T51" s="19">
+        <f t="shared" si="31"/>
+        <v>75</v>
+      </c>
+      <c r="U51" s="19">
+        <f t="shared" si="31"/>
+        <v>78.125</v>
+      </c>
+      <c r="V51" s="19">
+        <f t="shared" si="31"/>
+        <v>76.041700000000006</v>
+      </c>
+      <c r="W51" s="19">
+        <f t="shared" si="31"/>
+        <v>75</v>
+      </c>
+      <c r="X51" s="19">
+        <f t="shared" si="31"/>
+        <v>76.5625</v>
+      </c>
+      <c r="Y51" s="19">
+        <f t="shared" si="31"/>
+        <v>71.354200000000006</v>
+      </c>
+      <c r="Z51" s="19">
+        <f t="shared" si="31"/>
+        <v>77.083299999999994</v>
+      </c>
+      <c r="AA51" s="19">
+        <f t="shared" si="31"/>
+        <v>78.125</v>
+      </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>5</v>
       </c>
-      <c r="B52" s="19">
-        <f t="shared" ref="B52:L52" si="29">B23 * 100</f>
-        <v>78.016493055555557</v>
-      </c>
-      <c r="C52" s="21">
-        <f t="shared" si="29"/>
+      <c r="B52" s="18">
+        <f t="shared" ref="B52:L52" si="32">B23 * 100</f>
+        <v>79.736111555555553</v>
+      </c>
+      <c r="C52" s="20">
+        <f t="shared" si="32"/>
+        <v>86.111099999999993</v>
+      </c>
+      <c r="D52" s="19">
+        <f t="shared" si="32"/>
+        <v>68.055599999999998</v>
+      </c>
+      <c r="E52" s="19">
+        <f t="shared" si="32"/>
+        <v>76.041700000000006</v>
+      </c>
+      <c r="F52" s="19">
+        <f t="shared" si="32"/>
+        <v>77.430599999999998</v>
+      </c>
+      <c r="G52" s="19">
+        <f t="shared" si="32"/>
+        <v>72.222200000000001</v>
+      </c>
+      <c r="H52" s="19">
+        <f t="shared" si="32"/>
+        <v>73.611099999999993</v>
+      </c>
+      <c r="I52" s="19">
+        <f t="shared" si="32"/>
+        <v>75.347200000000001</v>
+      </c>
+      <c r="J52" s="19">
+        <f t="shared" si="32"/>
+        <v>79.1666666666666</v>
+      </c>
+      <c r="K52" s="19">
+        <f t="shared" si="32"/>
+        <v>81.5972222222222</v>
+      </c>
+      <c r="L52" s="19">
+        <f t="shared" si="32"/>
+        <v>78.819400000000002</v>
+      </c>
+      <c r="M52" s="19">
+        <f t="shared" ref="M52:AA52" si="33">M23 * 100</f>
+        <v>82.291700000000006</v>
+      </c>
+      <c r="N52" s="19">
+        <f t="shared" si="33"/>
+        <v>81.944400000000002</v>
+      </c>
+      <c r="O52" s="19">
+        <f t="shared" si="33"/>
+        <v>79.166700000000006</v>
+      </c>
+      <c r="P52" s="19">
+        <f t="shared" si="33"/>
+        <v>77.083299999999994</v>
+      </c>
+      <c r="Q52" s="19">
+        <f t="shared" si="33"/>
+        <v>80.208299999999994</v>
+      </c>
+      <c r="R52" s="19">
+        <f t="shared" si="33"/>
+        <v>82.291700000000006</v>
+      </c>
+      <c r="S52" s="19">
+        <f t="shared" si="33"/>
         <v>82.986099999999993</v>
       </c>
-      <c r="D52" s="20">
-        <f t="shared" si="29"/>
-        <v>68.055599999999998</v>
-      </c>
-      <c r="E52" s="20">
-        <f t="shared" si="29"/>
-        <v>76.041700000000006</v>
-      </c>
-      <c r="F52" s="20">
-        <f t="shared" si="29"/>
-        <v>77.430599999999998</v>
-      </c>
-      <c r="G52" s="20">
-        <f t="shared" si="29"/>
-        <v>72.222200000000001</v>
-      </c>
-      <c r="H52" s="20">
-        <f t="shared" si="29"/>
-        <v>73.611099999999993</v>
-      </c>
-      <c r="I52" s="20">
-        <f t="shared" si="29"/>
-        <v>75.347200000000001</v>
-      </c>
-      <c r="J52" s="20">
-        <f t="shared" si="29"/>
-        <v>79.1666666666666</v>
-      </c>
-      <c r="K52" s="20">
-        <f t="shared" si="29"/>
-        <v>81.5972222222222</v>
-      </c>
-      <c r="L52" s="20">
-        <f t="shared" si="29"/>
-        <v>78.819400000000002</v>
-      </c>
-      <c r="M52" s="20">
-        <f t="shared" ref="M52:S52" si="30">M23 * 100</f>
+      <c r="T52" s="19">
+        <f t="shared" si="33"/>
+        <v>81.597200000000001</v>
+      </c>
+      <c r="U52" s="19">
+        <f t="shared" si="33"/>
+        <v>86.111099999999993</v>
+      </c>
+      <c r="V52" s="19">
+        <f t="shared" si="33"/>
+        <v>86.111099999999993</v>
+      </c>
+      <c r="W52" s="19">
+        <f t="shared" si="33"/>
+        <v>79.861099999999993</v>
+      </c>
+      <c r="X52" s="19">
+        <f t="shared" si="33"/>
+        <v>84.027799999999999</v>
+      </c>
+      <c r="Y52" s="19">
+        <f t="shared" si="33"/>
         <v>82.291700000000006</v>
       </c>
-      <c r="N52" s="20">
-        <f t="shared" si="30"/>
-        <v>81.944400000000002</v>
-      </c>
-      <c r="O52" s="20">
-        <f t="shared" si="30"/>
-        <v>79.166700000000006</v>
-      </c>
-      <c r="P52" s="20">
-        <f t="shared" si="30"/>
-        <v>77.083299999999994</v>
-      </c>
-      <c r="Q52" s="20">
-        <f t="shared" si="30"/>
-        <v>80.208299999999994</v>
-      </c>
-      <c r="R52" s="20">
-        <f t="shared" si="30"/>
-        <v>82.291700000000006</v>
-      </c>
-      <c r="S52" s="20">
-        <f t="shared" si="30"/>
-        <v>82.986099999999993</v>
-      </c>
-      <c r="T52" s="20"/>
+      <c r="Z52" s="19">
+        <f t="shared" si="33"/>
+        <v>80.902799999999999</v>
+      </c>
+      <c r="AA52" s="19">
+        <f t="shared" si="33"/>
+        <v>81.597200000000001</v>
+      </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>6</v>
       </c>
-      <c r="B53" s="19">
-        <f t="shared" ref="B53:L53" si="31">B24 * 100</f>
-        <v>81.44530694444444</v>
-      </c>
-      <c r="C53" s="21">
-        <f t="shared" si="31"/>
+      <c r="B53" s="18">
+        <f t="shared" ref="B53:L53" si="34">B24 * 100</f>
+        <v>82.791660444444446</v>
+      </c>
+      <c r="C53" s="20">
+        <f t="shared" si="34"/>
+        <v>87.5</v>
+      </c>
+      <c r="D53" s="19">
+        <f t="shared" si="34"/>
+        <v>78.472200000000001</v>
+      </c>
+      <c r="E53" s="19">
+        <f t="shared" si="34"/>
+        <v>71.527799999999999</v>
+      </c>
+      <c r="F53" s="19">
+        <f t="shared" si="34"/>
+        <v>80.555599999999998</v>
+      </c>
+      <c r="G53" s="19">
+        <f t="shared" si="34"/>
+        <v>77.430599999999998</v>
+      </c>
+      <c r="H53" s="19">
+        <f t="shared" si="34"/>
+        <v>79.861099999999993</v>
+      </c>
+      <c r="I53" s="19">
+        <f t="shared" si="34"/>
+        <v>81.944400000000002</v>
+      </c>
+      <c r="J53" s="19">
+        <f t="shared" si="34"/>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="K53" s="19">
+        <f t="shared" si="34"/>
         <v>87.1527777777777</v>
       </c>
-      <c r="D53" s="20">
-        <f t="shared" si="31"/>
-        <v>78.472200000000001</v>
-      </c>
-      <c r="E53" s="20">
-        <f t="shared" si="31"/>
-        <v>71.527799999999999</v>
-      </c>
-      <c r="F53" s="20">
-        <f t="shared" si="31"/>
-        <v>80.555599999999998</v>
-      </c>
-      <c r="G53" s="20">
-        <f t="shared" si="31"/>
-        <v>77.430599999999998</v>
-      </c>
-      <c r="H53" s="20">
-        <f t="shared" si="31"/>
-        <v>79.861099999999993</v>
-      </c>
-      <c r="I53" s="20">
-        <f t="shared" si="31"/>
+      <c r="L53" s="19">
+        <f t="shared" si="34"/>
         <v>81.944400000000002</v>
       </c>
-      <c r="J53" s="20">
-        <f t="shared" si="31"/>
-        <v>83.3333333333333</v>
-      </c>
-      <c r="K53" s="20">
-        <f t="shared" si="31"/>
-        <v>87.1527777777777</v>
-      </c>
-      <c r="L53" s="20">
-        <f t="shared" si="31"/>
-        <v>81.944400000000002</v>
-      </c>
-      <c r="M53" s="20">
-        <f t="shared" ref="M53:S53" si="32">M24 * 100</f>
+      <c r="M53" s="19">
+        <f t="shared" ref="M53:AA53" si="35">M24 * 100</f>
         <v>81.597200000000001</v>
       </c>
-      <c r="N53" s="20">
-        <f t="shared" si="32"/>
+      <c r="N53" s="19">
+        <f t="shared" si="35"/>
         <v>83.680599999999998</v>
       </c>
-      <c r="O53" s="20">
-        <f t="shared" si="32"/>
+      <c r="O53" s="19">
+        <f t="shared" si="35"/>
         <v>85.069400000000002</v>
       </c>
-      <c r="P53" s="20">
-        <f t="shared" si="32"/>
+      <c r="P53" s="19">
+        <f t="shared" si="35"/>
         <v>80.208299999999994</v>
       </c>
-      <c r="Q53" s="20">
-        <f t="shared" si="32"/>
+      <c r="Q53" s="19">
+        <f t="shared" si="35"/>
         <v>85.069400000000002</v>
       </c>
-      <c r="R53" s="20">
-        <f t="shared" si="32"/>
+      <c r="R53" s="19">
+        <f t="shared" si="35"/>
         <v>84.027799999999999</v>
       </c>
-      <c r="S53" s="20">
-        <f t="shared" si="32"/>
+      <c r="S53" s="19">
+        <f t="shared" si="35"/>
         <v>81.25</v>
       </c>
-      <c r="T53" s="20"/>
+      <c r="T53" s="19">
+        <f t="shared" si="35"/>
+        <v>84.027799999999999</v>
+      </c>
+      <c r="U53" s="19">
+        <f t="shared" si="35"/>
+        <v>85.069400000000002</v>
+      </c>
+      <c r="V53" s="19">
+        <f t="shared" si="35"/>
+        <v>85.763900000000007</v>
+      </c>
+      <c r="W53" s="19">
+        <f t="shared" si="35"/>
+        <v>85.069400000000002</v>
+      </c>
+      <c r="X53" s="19">
+        <f t="shared" si="35"/>
+        <v>87.152799999999999</v>
+      </c>
+      <c r="Y53" s="19">
+        <f t="shared" si="35"/>
+        <v>83.333299999999994</v>
+      </c>
+      <c r="Z53" s="19">
+        <f t="shared" si="35"/>
+        <v>84.375</v>
+      </c>
+      <c r="AA53" s="19">
+        <f t="shared" si="35"/>
+        <v>84.375</v>
+      </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>7</v>
       </c>
-      <c r="B54" s="19">
-        <f t="shared" ref="B54:L54" si="33">B25 * 100</f>
-        <v>84.071186805555541</v>
-      </c>
-      <c r="C54" s="21">
-        <f t="shared" si="33"/>
+      <c r="B54" s="18">
+        <f t="shared" ref="B54:L54" si="36">B25 * 100</f>
+        <v>84.95833955555554</v>
+      </c>
+      <c r="C54" s="20">
+        <f t="shared" si="36"/>
+        <v>89.236099999999993</v>
+      </c>
+      <c r="D54" s="19">
+        <f t="shared" si="36"/>
+        <v>81.25</v>
+      </c>
+      <c r="E54" s="19">
+        <f t="shared" si="36"/>
+        <v>82.986099999999993</v>
+      </c>
+      <c r="F54" s="19">
+        <f t="shared" si="36"/>
+        <v>79.166700000000006</v>
+      </c>
+      <c r="G54" s="19">
+        <f t="shared" si="36"/>
+        <v>80.555599999999998</v>
+      </c>
+      <c r="H54" s="19">
+        <f t="shared" si="36"/>
+        <v>81.944400000000002</v>
+      </c>
+      <c r="I54" s="19">
+        <f t="shared" si="36"/>
+        <v>84.027799999999999</v>
+      </c>
+      <c r="J54" s="19">
+        <f t="shared" si="36"/>
+        <v>82.9861111111111</v>
+      </c>
+      <c r="K54" s="19">
+        <f t="shared" si="36"/>
+        <v>87.1527777777777</v>
+      </c>
+      <c r="L54" s="19">
+        <f t="shared" si="36"/>
+        <v>83.680599999999998</v>
+      </c>
+      <c r="M54" s="19">
+        <f t="shared" ref="M54:AA54" si="37">M25 * 100</f>
+        <v>83.680599999999998</v>
+      </c>
+      <c r="N54" s="19">
+        <f t="shared" si="37"/>
+        <v>86.805599999999998</v>
+      </c>
+      <c r="O54" s="19">
+        <f t="shared" si="37"/>
+        <v>85.069400000000002</v>
+      </c>
+      <c r="P54" s="19">
+        <f t="shared" si="37"/>
+        <v>84.722200000000001</v>
+      </c>
+      <c r="Q54" s="19">
+        <f t="shared" si="37"/>
+        <v>86.805599999999998</v>
+      </c>
+      <c r="R54" s="19">
+        <f t="shared" si="37"/>
         <v>87.847200000000001</v>
       </c>
-      <c r="D54" s="20">
-        <f t="shared" si="33"/>
-        <v>81.25</v>
-      </c>
-      <c r="E54" s="20">
-        <f t="shared" si="33"/>
-        <v>82.986099999999993</v>
-      </c>
-      <c r="F54" s="20">
-        <f t="shared" si="33"/>
-        <v>79.166700000000006</v>
-      </c>
-      <c r="G54" s="20">
-        <f t="shared" si="33"/>
-        <v>80.555599999999998</v>
-      </c>
-      <c r="H54" s="20">
-        <f t="shared" si="33"/>
-        <v>81.944400000000002</v>
-      </c>
-      <c r="I54" s="20">
-        <f t="shared" si="33"/>
-        <v>84.027799999999999</v>
-      </c>
-      <c r="J54" s="20">
-        <f t="shared" si="33"/>
-        <v>82.9861111111111</v>
-      </c>
-      <c r="K54" s="20">
-        <f t="shared" si="33"/>
-        <v>87.1527777777777</v>
-      </c>
-      <c r="L54" s="20">
-        <f t="shared" si="33"/>
-        <v>83.680599999999998</v>
-      </c>
-      <c r="M54" s="20">
-        <f t="shared" ref="M54:S54" si="34">M25 * 100</f>
-        <v>83.680599999999998</v>
-      </c>
-      <c r="N54" s="20">
-        <f t="shared" si="34"/>
+      <c r="S54" s="19">
+        <f t="shared" si="37"/>
+        <v>86.458299999999994</v>
+      </c>
+      <c r="T54" s="19">
+        <f t="shared" si="37"/>
+        <v>87.152799999999999</v>
+      </c>
+      <c r="U54" s="19">
+        <f t="shared" si="37"/>
+        <v>86.458299999999994</v>
+      </c>
+      <c r="V54" s="19">
+        <f t="shared" si="37"/>
+        <v>87.152799999999999</v>
+      </c>
+      <c r="W54" s="19">
+        <f t="shared" si="37"/>
         <v>86.805599999999998</v>
       </c>
-      <c r="O54" s="20">
-        <f t="shared" si="34"/>
-        <v>85.069400000000002</v>
-      </c>
-      <c r="P54" s="20">
-        <f t="shared" si="34"/>
+      <c r="X54" s="19">
+        <f t="shared" si="37"/>
+        <v>86.805599999999998</v>
+      </c>
+      <c r="Y54" s="19">
+        <f t="shared" si="37"/>
         <v>84.722200000000001</v>
       </c>
-      <c r="Q54" s="20">
-        <f t="shared" si="34"/>
-        <v>86.805599999999998</v>
-      </c>
-      <c r="R54" s="20">
-        <f t="shared" si="34"/>
-        <v>87.847200000000001</v>
-      </c>
-      <c r="S54" s="20">
-        <f t="shared" si="34"/>
-        <v>86.458299999999994</v>
-      </c>
-      <c r="T54" s="20"/>
+      <c r="Z54" s="19">
+        <f t="shared" si="37"/>
+        <v>89.236099999999993</v>
+      </c>
+      <c r="AA54" s="19">
+        <f t="shared" si="37"/>
+        <v>87.5</v>
+      </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>8</v>
       </c>
-      <c r="B55" s="19">
-        <f t="shared" ref="B55:L55" si="35">B26 * 100</f>
-        <v>85.438365277777777</v>
-      </c>
-      <c r="C55" s="21">
-        <f t="shared" si="35"/>
+      <c r="B55" s="18">
+        <f t="shared" ref="B55:L55" si="38">B26 * 100</f>
+        <v>86.513881777777783</v>
+      </c>
+      <c r="C55" s="20">
+        <f t="shared" si="38"/>
         <v>92.013900000000007</v>
       </c>
-      <c r="D55" s="20">
-        <f t="shared" si="35"/>
+      <c r="D55" s="19">
+        <f t="shared" si="38"/>
         <v>79.861099999999993</v>
       </c>
-      <c r="E55" s="20">
-        <f t="shared" si="35"/>
+      <c r="E55" s="19">
+        <f t="shared" si="38"/>
         <v>84.375</v>
       </c>
-      <c r="F55" s="20">
-        <f t="shared" si="35"/>
+      <c r="F55" s="19">
+        <f t="shared" si="38"/>
         <v>81.944400000000002</v>
       </c>
-      <c r="G55" s="20">
-        <f t="shared" si="35"/>
+      <c r="G55" s="19">
+        <f t="shared" si="38"/>
         <v>78.125</v>
       </c>
-      <c r="H55" s="20">
-        <f t="shared" si="35"/>
+      <c r="H55" s="19">
+        <f t="shared" si="38"/>
         <v>82.638900000000007</v>
       </c>
-      <c r="I55" s="20">
-        <f t="shared" si="35"/>
+      <c r="I55" s="19">
+        <f t="shared" si="38"/>
         <v>84.027799999999999</v>
       </c>
-      <c r="J55" s="20">
-        <f t="shared" si="35"/>
+      <c r="J55" s="19">
+        <f t="shared" si="38"/>
         <v>85.4166666666666</v>
       </c>
-      <c r="K55" s="20">
-        <f t="shared" si="35"/>
+      <c r="K55" s="19">
+        <f t="shared" si="38"/>
         <v>90.2777777777777</v>
       </c>
-      <c r="L55" s="20">
-        <f t="shared" si="35"/>
+      <c r="L55" s="19">
+        <f t="shared" si="38"/>
         <v>87.5</v>
       </c>
-      <c r="M55" s="20">
-        <f t="shared" ref="M55:S55" si="36">M26 * 100</f>
+      <c r="M55" s="19">
+        <f t="shared" ref="M55:AA55" si="39">M26 * 100</f>
         <v>83.333299999999994</v>
       </c>
-      <c r="N55" s="20">
-        <f t="shared" si="36"/>
+      <c r="N55" s="19">
+        <f t="shared" si="39"/>
         <v>88.888900000000007</v>
       </c>
-      <c r="O55" s="20">
-        <f t="shared" si="36"/>
+      <c r="O55" s="19">
+        <f t="shared" si="39"/>
         <v>86.805599999999998</v>
       </c>
-      <c r="P55" s="20">
-        <f t="shared" si="36"/>
+      <c r="P55" s="19">
+        <f t="shared" si="39"/>
         <v>84.722200000000001</v>
       </c>
-      <c r="Q55" s="20">
-        <f t="shared" si="36"/>
+      <c r="Q55" s="19">
+        <f t="shared" si="39"/>
         <v>92.013900000000007</v>
       </c>
-      <c r="R55" s="20">
-        <f t="shared" si="36"/>
+      <c r="R55" s="19">
+        <f t="shared" si="39"/>
         <v>89.236099999999993</v>
       </c>
-      <c r="S55" s="20">
-        <f t="shared" si="36"/>
+      <c r="S55" s="19">
+        <f t="shared" si="39"/>
         <v>87.847200000000001</v>
       </c>
-      <c r="T55" s="20"/>
+      <c r="T55" s="19">
+        <f t="shared" si="39"/>
+        <v>88.194400000000002</v>
+      </c>
+      <c r="U55" s="19">
+        <f t="shared" si="39"/>
+        <v>88.888900000000007</v>
+      </c>
+      <c r="V55" s="19">
+        <f t="shared" si="39"/>
+        <v>87.847200000000001</v>
+      </c>
+      <c r="W55" s="19">
+        <f t="shared" si="39"/>
+        <v>87.5</v>
+      </c>
+      <c r="X55" s="19">
+        <f t="shared" si="39"/>
+        <v>87.847200000000001</v>
+      </c>
+      <c r="Y55" s="19">
+        <f t="shared" si="39"/>
+        <v>88.194400000000002</v>
+      </c>
+      <c r="Z55" s="19">
+        <f t="shared" si="39"/>
+        <v>89.236099999999993</v>
+      </c>
+      <c r="AA55" s="19">
+        <f t="shared" si="39"/>
+        <v>88.888900000000007</v>
+      </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>9</v>
       </c>
-      <c r="B56" s="22">
-        <f t="shared" ref="B56:L56" si="37">B27 * 100</f>
-        <v>89.149295833333312</v>
-      </c>
-      <c r="C56" s="23">
-        <f t="shared" si="37"/>
+      <c r="B56" s="21">
+        <f t="shared" ref="B56:L56" si="40">B27 * 100</f>
+        <v>90.111109333333317</v>
+      </c>
+      <c r="C56" s="22">
+        <f t="shared" si="40"/>
         <v>93.75</v>
       </c>
-      <c r="D56" s="20">
-        <f t="shared" si="37"/>
+      <c r="D56" s="19">
+        <f t="shared" si="40"/>
         <v>87.152799999999999</v>
       </c>
-      <c r="E56" s="20">
-        <f t="shared" si="37"/>
+      <c r="E56" s="19">
+        <f t="shared" si="40"/>
         <v>85.069400000000002</v>
       </c>
-      <c r="F56" s="20">
-        <f t="shared" si="37"/>
+      <c r="F56" s="19">
+        <f t="shared" si="40"/>
         <v>84.722200000000001</v>
       </c>
-      <c r="G56" s="20">
-        <f t="shared" si="37"/>
+      <c r="G56" s="19">
+        <f t="shared" si="40"/>
         <v>82.638900000000007</v>
       </c>
-      <c r="H56" s="20">
-        <f t="shared" si="37"/>
+      <c r="H56" s="19">
+        <f t="shared" si="40"/>
         <v>88.888900000000007</v>
       </c>
-      <c r="I56" s="20">
-        <f t="shared" si="37"/>
+      <c r="I56" s="19">
+        <f t="shared" si="40"/>
         <v>86.458299999999994</v>
       </c>
-      <c r="J56" s="20">
-        <f t="shared" si="37"/>
+      <c r="J56" s="19">
+        <f t="shared" si="40"/>
         <v>88.1944444444444</v>
       </c>
-      <c r="K56" s="20">
-        <f t="shared" si="37"/>
+      <c r="K56" s="19">
+        <f t="shared" si="40"/>
         <v>92.0138888888888</v>
       </c>
-      <c r="L56" s="20">
-        <f t="shared" si="37"/>
+      <c r="L56" s="19">
+        <f t="shared" si="40"/>
         <v>92.013900000000007</v>
       </c>
-      <c r="M56" s="20">
-        <f t="shared" ref="M56:S56" si="38">M27 * 100</f>
+      <c r="M56" s="19">
+        <f t="shared" ref="M56:AA56" si="41">M27 * 100</f>
         <v>89.583299999999994</v>
       </c>
-      <c r="N56" s="20">
-        <f t="shared" si="38"/>
+      <c r="N56" s="19">
+        <f t="shared" si="41"/>
         <v>92.708299999999994</v>
       </c>
-      <c r="O56" s="20">
-        <f t="shared" si="38"/>
+      <c r="O56" s="19">
+        <f t="shared" si="41"/>
         <v>93.75</v>
       </c>
-      <c r="P56" s="20">
-        <f t="shared" si="38"/>
+      <c r="P56" s="19">
+        <f t="shared" si="41"/>
         <v>89.236099999999993</v>
       </c>
-      <c r="Q56" s="20">
-        <f t="shared" si="38"/>
+      <c r="Q56" s="19">
+        <f t="shared" si="41"/>
         <v>93.75</v>
       </c>
-      <c r="R56" s="20">
-        <f t="shared" si="38"/>
+      <c r="R56" s="19">
+        <f t="shared" si="41"/>
         <v>90.625</v>
       </c>
-      <c r="S56" s="20">
-        <f t="shared" si="38"/>
+      <c r="S56" s="19">
+        <f t="shared" si="41"/>
         <v>89.583299999999994</v>
       </c>
-      <c r="T56" s="20"/>
+      <c r="T56" s="19">
+        <f t="shared" si="41"/>
+        <v>92.361099999999993</v>
+      </c>
+      <c r="U56" s="19">
+        <f t="shared" si="41"/>
+        <v>92.361099999999993</v>
+      </c>
+      <c r="V56" s="19">
+        <f t="shared" si="41"/>
+        <v>91.666700000000006</v>
+      </c>
+      <c r="W56" s="19">
+        <f t="shared" si="41"/>
+        <v>92.361099999999993</v>
+      </c>
+      <c r="X56" s="19">
+        <f t="shared" si="41"/>
+        <v>92.013900000000007</v>
+      </c>
+      <c r="Y56" s="19">
+        <f t="shared" si="41"/>
+        <v>93.402799999999999</v>
+      </c>
+      <c r="Z56" s="19">
+        <f t="shared" si="41"/>
+        <v>89.930599999999998</v>
+      </c>
+      <c r="AA56" s="19">
+        <f t="shared" si="41"/>
+        <v>92.361099999999993</v>
+      </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="23">
         <f>AVERAGE(B48:B56)</f>
-        <v>81.083621450617272</v>
-      </c>
-      <c r="C57" s="25">
-        <f t="shared" ref="B57:S57" si="39">AVERAGE(C48:C56)</f>
-        <v>86.59336419753086</v>
-      </c>
-      <c r="D57" s="20">
-        <f t="shared" si="39"/>
+        <v>82.31249861728395</v>
+      </c>
+      <c r="C57" s="24">
+        <f t="shared" ref="C57:AA57" si="42">AVERAGE(C48:C56)</f>
+        <v>87.287811111111111</v>
+      </c>
+      <c r="D57" s="19">
+        <f t="shared" si="42"/>
         <v>76.253866666666653</v>
       </c>
-      <c r="E57" s="20">
-        <f t="shared" si="39"/>
+      <c r="E57" s="19">
+        <f t="shared" si="42"/>
         <v>76.311722222222215</v>
       </c>
-      <c r="F57" s="20">
-        <f t="shared" si="39"/>
+      <c r="F57" s="19">
+        <f t="shared" si="42"/>
         <v>77.565600000000003</v>
       </c>
-      <c r="G57" s="20">
-        <f t="shared" si="39"/>
+      <c r="G57" s="19">
+        <f t="shared" si="42"/>
         <v>74.980722222222226</v>
       </c>
-      <c r="H57" s="20">
-        <f t="shared" si="39"/>
+      <c r="H57" s="19">
+        <f t="shared" si="42"/>
         <v>78.703699999999998</v>
       </c>
-      <c r="I57" s="20">
-        <f t="shared" si="39"/>
+      <c r="I57" s="19">
+        <f t="shared" si="42"/>
         <v>79.706777777777759</v>
       </c>
-      <c r="J57" s="20">
-        <f t="shared" si="39"/>
+      <c r="J57" s="19">
+        <f t="shared" si="42"/>
         <v>80.574845679012313</v>
       </c>
-      <c r="K57" s="20">
-        <f t="shared" si="39"/>
+      <c r="K57" s="19">
+        <f t="shared" si="42"/>
         <v>85.898919753086361</v>
       </c>
-      <c r="L57" s="20">
-        <f t="shared" si="39"/>
+      <c r="L57" s="19">
+        <f t="shared" si="42"/>
         <v>82.561733333333336</v>
       </c>
-      <c r="M57" s="20">
-        <f t="shared" si="39"/>
+      <c r="M57" s="19">
+        <f t="shared" si="42"/>
         <v>82.484566666666666</v>
       </c>
-      <c r="N57" s="20">
-        <f t="shared" si="39"/>
+      <c r="N57" s="19">
+        <f t="shared" si="42"/>
         <v>84.587188888888889</v>
       </c>
-      <c r="O57" s="20">
-        <f t="shared" si="39"/>
+      <c r="O57" s="19">
+        <f t="shared" si="42"/>
         <v>83.198300000000003</v>
       </c>
-      <c r="P57" s="20">
-        <f t="shared" si="39"/>
+      <c r="P57" s="19">
+        <f t="shared" si="42"/>
         <v>81.983011111111125</v>
       </c>
-      <c r="Q57" s="20">
-        <f t="shared" si="39"/>
+      <c r="Q57" s="19">
+        <f t="shared" si="42"/>
         <v>84.972977777777785</v>
       </c>
-      <c r="R57" s="20">
-        <f t="shared" si="39"/>
+      <c r="R57" s="19">
+        <f t="shared" si="42"/>
         <v>84.259266666666662</v>
       </c>
-      <c r="S57" s="20">
-        <f t="shared" si="39"/>
+      <c r="S57" s="19">
+        <f t="shared" si="42"/>
         <v>83.294744444444461</v>
       </c>
-      <c r="T57" s="20"/>
+      <c r="T57" s="19">
+        <f t="shared" si="42"/>
+        <v>83.912033333333326</v>
+      </c>
+      <c r="U57" s="19">
+        <f t="shared" si="42"/>
+        <v>85.648144444444441</v>
+      </c>
+      <c r="V57" s="19">
+        <f t="shared" si="42"/>
+        <v>85.030866666666668</v>
+      </c>
+      <c r="W57" s="19">
+        <f t="shared" si="42"/>
+        <v>84.143511111111096</v>
+      </c>
+      <c r="X57" s="19">
+        <f t="shared" si="42"/>
+        <v>84.58720000000001</v>
+      </c>
+      <c r="Y57" s="19">
+        <f t="shared" si="42"/>
+        <v>83.622677777777767</v>
+      </c>
+      <c r="Z57" s="19">
+        <f t="shared" si="42"/>
+        <v>84.336422222222211</v>
+      </c>
+      <c r="AA57" s="19">
+        <f t="shared" si="42"/>
+        <v>84.915122222222237</v>
+      </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="29"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="R60" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="N47:S47"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="Q46:S46"/>
+  <mergeCells count="23">
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="N47:Z47"/>
+    <mergeCell ref="Q46:Z46"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="N33:Z33"/>
+    <mergeCell ref="Q4:Z4"/>
+    <mergeCell ref="Q17:Z17"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D18:J18"/>
     <mergeCell ref="D33:J33"/>
@@ -4687,184 +5452,88 @@
     <mergeCell ref="L17:P17"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="K33:M33"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="K47:M47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="T49">
-    <cfRule type="top10" dxfId="83" priority="109" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="82" priority="110" rank="1"/>
+  <conditionalFormatting sqref="D43:AA43">
+    <cfRule type="top10" dxfId="39" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="40" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T48">
-    <cfRule type="top10" dxfId="81" priority="107" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="80" priority="108" rank="1"/>
+  <conditionalFormatting sqref="D35:AA35">
+    <cfRule type="top10" dxfId="37" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="22" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T51">
-    <cfRule type="top10" dxfId="79" priority="105" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="78" priority="106" rank="1"/>
+  <conditionalFormatting sqref="D34:AA34">
+    <cfRule type="top10" dxfId="35" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="24" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T50">
-    <cfRule type="top10" dxfId="77" priority="103" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="76" priority="104" rank="1"/>
+  <conditionalFormatting sqref="D37:AA37">
+    <cfRule type="top10" dxfId="33" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="26" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T53">
-    <cfRule type="top10" dxfId="75" priority="101" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="74" priority="102" rank="1"/>
+  <conditionalFormatting sqref="D36:AA36">
+    <cfRule type="top10" dxfId="31" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="28" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T52">
-    <cfRule type="top10" dxfId="73" priority="99" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="72" priority="100" rank="1"/>
+  <conditionalFormatting sqref="D39:AA39">
+    <cfRule type="top10" dxfId="29" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="30" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T55">
-    <cfRule type="top10" dxfId="71" priority="97" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="70" priority="98" rank="1"/>
+  <conditionalFormatting sqref="D38:AA38">
+    <cfRule type="top10" dxfId="27" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="32" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T54">
-    <cfRule type="top10" dxfId="69" priority="95" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="68" priority="96" rank="1"/>
+  <conditionalFormatting sqref="D41:AA41">
+    <cfRule type="top10" dxfId="25" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="34" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T56">
-    <cfRule type="top10" dxfId="67" priority="91" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="66" priority="92" rank="1"/>
+  <conditionalFormatting sqref="D40:AA40">
+    <cfRule type="top10" dxfId="23" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="36" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T57">
-    <cfRule type="top10" dxfId="65" priority="67" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="64" priority="68" rank="1"/>
+  <conditionalFormatting sqref="D42:AA42">
+    <cfRule type="top10" dxfId="21" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="38" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T48:T56">
-    <cfRule type="top10" dxfId="63" priority="63" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="62" priority="64" rank="1"/>
+  <conditionalFormatting sqref="D49:AA49">
+    <cfRule type="top10" dxfId="19" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T35">
-    <cfRule type="top10" dxfId="61" priority="61" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="60" priority="62" rank="1"/>
+  <conditionalFormatting sqref="D48:AA48">
+    <cfRule type="top10" dxfId="17" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T34">
-    <cfRule type="top10" dxfId="59" priority="59" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="58" priority="60" rank="1"/>
+  <conditionalFormatting sqref="D51:AA51">
+    <cfRule type="top10" dxfId="15" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T37">
-    <cfRule type="top10" dxfId="57" priority="57" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="56" priority="58" rank="1"/>
+  <conditionalFormatting sqref="D50:AA50">
+    <cfRule type="top10" dxfId="13" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="8" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T36">
-    <cfRule type="top10" dxfId="55" priority="55" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="54" priority="56" rank="1"/>
+  <conditionalFormatting sqref="D53:AA53">
+    <cfRule type="top10" dxfId="11" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="10" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T39">
-    <cfRule type="top10" dxfId="53" priority="53" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="52" priority="54" rank="1"/>
+  <conditionalFormatting sqref="D52:AA52">
+    <cfRule type="top10" dxfId="9" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="12" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T38">
-    <cfRule type="top10" dxfId="51" priority="51" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="50" priority="52" rank="1"/>
+  <conditionalFormatting sqref="D55:AA55">
+    <cfRule type="top10" dxfId="7" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="14" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T41">
-    <cfRule type="top10" dxfId="49" priority="49" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="48" priority="50" rank="1"/>
+  <conditionalFormatting sqref="D54:AA54">
+    <cfRule type="top10" dxfId="5" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="16" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T40">
-    <cfRule type="top10" dxfId="47" priority="47" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="46" priority="48" rank="1"/>
+  <conditionalFormatting sqref="D56:AA56">
+    <cfRule type="top10" dxfId="3" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="18" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T42">
-    <cfRule type="top10" dxfId="45" priority="45" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="44" priority="46" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T43">
-    <cfRule type="top10" dxfId="43" priority="43" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="42" priority="44" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T34:T42">
-    <cfRule type="top10" dxfId="41" priority="41" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="40" priority="42" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:S35">
-    <cfRule type="top10" dxfId="39" priority="111" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="38" priority="112" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:S34">
-    <cfRule type="top10" dxfId="37" priority="113" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="36" priority="114" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:S37">
-    <cfRule type="top10" dxfId="35" priority="115" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="34" priority="116" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:S36">
-    <cfRule type="top10" dxfId="33" priority="117" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="32" priority="118" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:S39">
-    <cfRule type="top10" dxfId="31" priority="119" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="30" priority="120" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:S38">
-    <cfRule type="top10" dxfId="29" priority="121" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="28" priority="122" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:S41">
-    <cfRule type="top10" dxfId="27" priority="123" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="26" priority="124" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:S40">
-    <cfRule type="top10" dxfId="25" priority="125" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="24" priority="126" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:S42">
-    <cfRule type="top10" dxfId="23" priority="127" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="22" priority="128" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:S43">
-    <cfRule type="top10" dxfId="21" priority="129" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="20" priority="130" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:S49">
-    <cfRule type="top10" dxfId="19" priority="131" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="18" priority="132" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:S48">
-    <cfRule type="top10" dxfId="17" priority="133" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="16" priority="134" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:S51">
-    <cfRule type="top10" dxfId="15" priority="135" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="14" priority="136" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50:S50">
-    <cfRule type="top10" dxfId="13" priority="137" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="12" priority="138" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53:S53">
-    <cfRule type="top10" dxfId="11" priority="139" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="10" priority="140" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:S52">
-    <cfRule type="top10" dxfId="9" priority="141" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="8" priority="142" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:S55">
-    <cfRule type="top10" dxfId="7" priority="143" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="6" priority="144" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54:S54">
-    <cfRule type="top10" dxfId="5" priority="145" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="4" priority="146" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56:S56">
-    <cfRule type="top10" dxfId="3" priority="147" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="2" priority="148" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:S57">
-    <cfRule type="top10" dxfId="1" priority="149" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="0" priority="150" rank="1"/>
+  <conditionalFormatting sqref="D57:AA57">
+    <cfRule type="top10" dxfId="1" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="20" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Saved model/Saved Results.xlsx
+++ b/Saved model/Saved Results.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albi2\Documents\GitHub\Variational-Autoencoder-for-EEG-analysis\Saved model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F8864-48F0-4EE5-A1E1-FF1A58B9C2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456556E9-1F8C-4ECB-A0C5-01B07BD7A8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="D2A" sheetId="1" r:id="rId1"/>
+    <sheet name="D2A (Mixed Up)(64)" sheetId="1" r:id="rId1"/>
+    <sheet name="D2A (Mixed Up)(128)" sheetId="3" r:id="rId2"/>
+    <sheet name="D2A (Cross Subject)(64)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
   <si>
     <t>Accuract END</t>
   </si>
@@ -64,6 +66,18 @@
   </si>
   <si>
     <t>300 Epochs</t>
+  </si>
+  <si>
+    <t>64 Hidden space</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>LOSS</t>
+  </si>
+  <si>
+    <t>128 Hidden Space,</t>
   </si>
 </sst>
 </file>
@@ -271,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,20 +376,431 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1054,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,35 +1500,35 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="34" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="32" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
     </row>
     <row r="5" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -1112,35 +1537,37 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="28" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
     </row>
     <row r="6" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -2075,35 +2502,35 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="34" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="32" t="s">
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -2113,35 +2540,35 @@
       <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33" t="s">
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33" t="s">
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -3059,35 +3486,35 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="34" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="32" t="s">
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
@@ -3096,35 +3523,35 @@
       <c r="C33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33" t="s">
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33" t="s">
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -4251,35 +4678,35 @@
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="34" t="s">
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="32" t="s">
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="32"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="32"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="39"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
@@ -4288,35 +4715,35 @@
       <c r="C47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33" t="s">
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33" t="s">
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -5428,7 +5855,19 @@
       <c r="R60" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="Q4:Z4"/>
+    <mergeCell ref="Q17:Z17"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N5:AB5"/>
     <mergeCell ref="D47:J47"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="L32:P32"/>
@@ -5441,19 +5880,3271 @@
     <mergeCell ref="Q46:Z46"/>
     <mergeCell ref="Q32:Z32"/>
     <mergeCell ref="N33:Z33"/>
-    <mergeCell ref="Q4:Z4"/>
-    <mergeCell ref="Q17:Z17"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K33:M33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D43:AA43">
+    <cfRule type="top10" dxfId="79" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="78" priority="40" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:AA35">
+    <cfRule type="top10" dxfId="77" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="76" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:AA34">
+    <cfRule type="top10" dxfId="75" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="74" priority="24" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:AA37">
+    <cfRule type="top10" dxfId="73" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="72" priority="26" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:AA36">
+    <cfRule type="top10" dxfId="71" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="70" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:AA39">
+    <cfRule type="top10" dxfId="69" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:AA38">
+    <cfRule type="top10" dxfId="67" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="32" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:AA41">
+    <cfRule type="top10" dxfId="65" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:AA40">
+    <cfRule type="top10" dxfId="63" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="36" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:AA42">
+    <cfRule type="top10" dxfId="61" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="38" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:AA49">
+    <cfRule type="top10" dxfId="59" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:AA48">
+    <cfRule type="top10" dxfId="57" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:AA51">
+    <cfRule type="top10" dxfId="55" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:AA50">
+    <cfRule type="top10" dxfId="53" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:AA53">
+    <cfRule type="top10" dxfId="51" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:AA52">
+    <cfRule type="top10" dxfId="49" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:AA55">
+    <cfRule type="top10" dxfId="47" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54:AA54">
+    <cfRule type="top10" dxfId="45" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56:AA56">
+    <cfRule type="top10" dxfId="43" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:AA57">
+    <cfRule type="top10" dxfId="41" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9569107-D6A2-48F5-A7AB-646FE6B45B23}">
+  <dimension ref="A2:AC60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+    </row>
+    <row r="5" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+    </row>
+    <row r="6" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <f>AVERAGE(D6:BB6)</f>
+        <v>0.83680550000000009</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:C7" si="0">MAX(D6:BB6)</f>
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.81597200000000003</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" ref="B7:B13" si="1">AVERAGE(D7:BB7)</f>
+        <v>0.72222200000000003</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72222200000000003</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.72222200000000003</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.72222200000000003</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.84722249999999999</v>
+      </c>
+      <c r="C8" s="9">
+        <f>MAX(D8:BB8)</f>
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.80902799999999997</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.74739599999999995</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" ref="C9:C14" si="2">MAX(D9:BB9)</f>
+        <v>0.78125</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.71354200000000001</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.78125</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.80729200000000001</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="2"/>
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.86979200000000001</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="2"/>
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="2"/>
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11">
+        <f>AVERAGE(D14:BB14)</f>
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="C14" s="30">
+        <f t="shared" si="2"/>
+        <v>0.92708299999999999</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.92708299999999999</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="13">
+        <f t="shared" ref="B15:C15" si="3">AVERAGE(B6:B14)</f>
+        <v>0.8233990000000001</v>
+      </c>
+      <c r="C15" s="15">
+        <f t="shared" si="3"/>
+        <v>0.84799388888888894</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <f>AVERAGE(D19:BB19)</f>
+        <v>0.85243050000000009</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:C20" si="4">MAX(D19:BB19)</f>
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <f t="shared" ref="B20:B26" si="5">AVERAGE(D20:BB20)</f>
+        <v>0.74131950000000002</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="4"/>
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.72222200000000003</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7">
+        <f t="shared" si="5"/>
+        <v>0.88368049999999998</v>
+      </c>
+      <c r="C21" s="9">
+        <f>MAX(D21:BB21)</f>
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7">
+        <f t="shared" si="5"/>
+        <v>0.77864599999999995</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" ref="C22:C27" si="6">MAX(D22:BB22)</f>
+        <v>0.78125</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.77604200000000001</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.78125</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7">
+        <f t="shared" si="5"/>
+        <v>0.83333349999999995</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="6"/>
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" si="5"/>
+        <v>0.84548650000000003</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="6"/>
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7">
+        <f t="shared" si="5"/>
+        <v>0.88715300000000008</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="6"/>
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>8</v>
+      </c>
+      <c r="B26" s="7">
+        <f t="shared" si="5"/>
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="6"/>
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>9</v>
+      </c>
+      <c r="B27" s="11">
+        <f>AVERAGE(D27:BB27)</f>
+        <v>0.93576349999999997</v>
+      </c>
+      <c r="C27" s="30">
+        <f t="shared" si="6"/>
+        <v>0.94444399999999995</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.94444399999999995</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.92708299999999999</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="13">
+        <f t="shared" ref="B28:C28" si="7">AVERAGE(B19:B27)</f>
+        <v>0.84924777777777782</v>
+      </c>
+      <c r="C28" s="15">
+        <f t="shared" si="7"/>
+        <v>0.85532422222222226</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B33" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="16">
+        <f>B6 * 100</f>
+        <v>83.680550000000011</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" ref="C34:J34" si="8">C6 * 100</f>
+        <v>85.763900000000007</v>
+      </c>
+      <c r="D34" s="19">
+        <f t="shared" si="8"/>
+        <v>81.597200000000001</v>
+      </c>
+      <c r="E34" s="19">
+        <f t="shared" si="8"/>
+        <v>85.763900000000007</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="19">
+        <f>K6 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="19">
+        <f>L6 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="19">
+        <f t="shared" ref="M34:AA42" si="9">M6 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>2</v>
+      </c>
+      <c r="B35" s="18">
+        <f t="shared" ref="B35:L42" si="10">B7 * 100</f>
+        <v>72.222200000000001</v>
+      </c>
+      <c r="C35" s="20">
+        <f t="shared" si="10"/>
+        <v>72.222200000000001</v>
+      </c>
+      <c r="D35" s="19">
+        <f t="shared" si="10"/>
+        <v>72.222200000000001</v>
+      </c>
+      <c r="E35" s="19">
+        <f t="shared" si="10"/>
+        <v>72.222200000000001</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="18">
+        <f t="shared" si="10"/>
+        <v>84.722250000000003</v>
+      </c>
+      <c r="C36" s="20">
+        <f t="shared" si="10"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="D36" s="19">
+        <f t="shared" si="10"/>
+        <v>80.902799999999999</v>
+      </c>
+      <c r="E36" s="19">
+        <f t="shared" si="10"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>4</v>
+      </c>
+      <c r="B37" s="18">
+        <f t="shared" si="10"/>
+        <v>74.739599999999996</v>
+      </c>
+      <c r="C37" s="20">
+        <f t="shared" si="10"/>
+        <v>78.125</v>
+      </c>
+      <c r="D37" s="19">
+        <f t="shared" si="10"/>
+        <v>71.354200000000006</v>
+      </c>
+      <c r="E37" s="19">
+        <f t="shared" si="10"/>
+        <v>78.125</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>5</v>
+      </c>
+      <c r="B38" s="18">
+        <f t="shared" si="10"/>
+        <v>82.986099999999993</v>
+      </c>
+      <c r="C38" s="20">
+        <f t="shared" si="10"/>
+        <v>83.333299999999994</v>
+      </c>
+      <c r="D38" s="19">
+        <f t="shared" si="10"/>
+        <v>83.333299999999994</v>
+      </c>
+      <c r="E38" s="19">
+        <f t="shared" si="10"/>
+        <v>82.638900000000007</v>
+      </c>
+      <c r="F38" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>6</v>
+      </c>
+      <c r="B39" s="18">
+        <f t="shared" si="10"/>
+        <v>80.729200000000006</v>
+      </c>
+      <c r="C39" s="20">
+        <f t="shared" si="10"/>
+        <v>85.416700000000006</v>
+      </c>
+      <c r="D39" s="19">
+        <f t="shared" si="10"/>
+        <v>76.041700000000006</v>
+      </c>
+      <c r="E39" s="19">
+        <f t="shared" si="10"/>
+        <v>85.416700000000006</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>7</v>
+      </c>
+      <c r="B40" s="18">
+        <f t="shared" si="10"/>
+        <v>86.979200000000006</v>
+      </c>
+      <c r="C40" s="20">
+        <f t="shared" si="10"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="D40" s="19">
+        <f t="shared" si="10"/>
+        <v>85.416700000000006</v>
+      </c>
+      <c r="E40" s="19">
+        <f t="shared" si="10"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="F40" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>8</v>
+      </c>
+      <c r="B41" s="18">
+        <f t="shared" si="10"/>
+        <v>85.763900000000007</v>
+      </c>
+      <c r="C41" s="20">
+        <f t="shared" si="10"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="D41" s="19">
+        <f t="shared" si="10"/>
+        <v>82.986099999999993</v>
+      </c>
+      <c r="E41" s="19">
+        <f t="shared" si="10"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>9</v>
+      </c>
+      <c r="B42" s="21">
+        <f t="shared" si="10"/>
+        <v>89.236099999999993</v>
+      </c>
+      <c r="C42" s="22">
+        <f t="shared" si="10"/>
+        <v>92.708299999999994</v>
+      </c>
+      <c r="D42" s="19">
+        <f t="shared" si="10"/>
+        <v>85.763900000000007</v>
+      </c>
+      <c r="E42" s="19">
+        <f t="shared" si="10"/>
+        <v>92.708299999999994</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="19">
+        <f>Z14 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="23">
+        <f t="shared" ref="B43:Y43" si="11">AVERAGE(B34:B42)</f>
+        <v>82.3399</v>
+      </c>
+      <c r="C43" s="24">
+        <f t="shared" si="11"/>
+        <v>84.799388888888899</v>
+      </c>
+      <c r="D43" s="19">
+        <f t="shared" si="11"/>
+        <v>79.957566666666665</v>
+      </c>
+      <c r="E43" s="19">
+        <f t="shared" si="11"/>
+        <v>84.722233333333335</v>
+      </c>
+      <c r="F43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="19">
+        <f>AVERAGE(Z34:Z42)</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="19">
+        <f>AVERAGE(AA34:AA42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="29"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B47" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="36"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="16">
+        <f>B19 * 100</f>
+        <v>85.243050000000011</v>
+      </c>
+      <c r="C48" s="17">
+        <f t="shared" ref="C48:K48" si="12">C19 * 100</f>
+        <v>85.763900000000007</v>
+      </c>
+      <c r="D48" s="19">
+        <f>D19 * 100</f>
+        <v>84.722200000000001</v>
+      </c>
+      <c r="E48" s="19">
+        <f t="shared" si="12"/>
+        <v>85.763900000000007</v>
+      </c>
+      <c r="F48" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="19">
+        <f>L19 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="19">
+        <f t="shared" ref="M48:AA56" si="13">M19 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>2</v>
+      </c>
+      <c r="B49" s="18">
+        <f t="shared" ref="B49:L56" si="14">B20 * 100</f>
+        <v>74.131950000000003</v>
+      </c>
+      <c r="C49" s="20">
+        <f t="shared" si="14"/>
+        <v>76.041700000000006</v>
+      </c>
+      <c r="D49" s="19">
+        <f t="shared" si="14"/>
+        <v>76.041700000000006</v>
+      </c>
+      <c r="E49" s="19">
+        <f t="shared" si="14"/>
+        <v>72.222200000000001</v>
+      </c>
+      <c r="F49" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>3</v>
+      </c>
+      <c r="B50" s="18">
+        <f t="shared" si="14"/>
+        <v>88.368049999999997</v>
+      </c>
+      <c r="C50" s="20">
+        <f t="shared" si="14"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="D50" s="19">
+        <f t="shared" si="14"/>
+        <v>88.194400000000002</v>
+      </c>
+      <c r="E50" s="19">
+        <f t="shared" si="14"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="F50" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>4</v>
+      </c>
+      <c r="B51" s="18">
+        <f t="shared" si="14"/>
+        <v>77.864599999999996</v>
+      </c>
+      <c r="C51" s="20">
+        <f t="shared" si="14"/>
+        <v>78.125</v>
+      </c>
+      <c r="D51" s="19">
+        <f t="shared" si="14"/>
+        <v>77.604200000000006</v>
+      </c>
+      <c r="E51" s="19">
+        <f t="shared" si="14"/>
+        <v>78.125</v>
+      </c>
+      <c r="F51" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>5</v>
+      </c>
+      <c r="B52" s="18">
+        <f t="shared" si="14"/>
+        <v>83.333349999999996</v>
+      </c>
+      <c r="C52" s="20">
+        <f t="shared" si="14"/>
+        <v>84.027799999999999</v>
+      </c>
+      <c r="D52" s="19">
+        <f t="shared" si="14"/>
+        <v>84.027799999999999</v>
+      </c>
+      <c r="E52" s="19">
+        <f t="shared" si="14"/>
+        <v>82.638900000000007</v>
+      </c>
+      <c r="F52" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>6</v>
+      </c>
+      <c r="B53" s="18">
+        <f t="shared" si="14"/>
+        <v>84.548650000000009</v>
+      </c>
+      <c r="C53" s="20">
+        <f t="shared" si="14"/>
+        <v>85.416700000000006</v>
+      </c>
+      <c r="D53" s="19">
+        <f t="shared" si="14"/>
+        <v>83.680599999999998</v>
+      </c>
+      <c r="E53" s="19">
+        <f t="shared" si="14"/>
+        <v>85.416700000000006</v>
+      </c>
+      <c r="F53" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>7</v>
+      </c>
+      <c r="B54" s="18">
+        <f t="shared" si="14"/>
+        <v>88.715300000000013</v>
+      </c>
+      <c r="C54" s="20">
+        <f t="shared" si="14"/>
+        <v>88.888900000000007</v>
+      </c>
+      <c r="D54" s="19">
+        <f t="shared" si="14"/>
+        <v>88.888900000000007</v>
+      </c>
+      <c r="E54" s="19">
+        <f t="shared" si="14"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="F54" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>8</v>
+      </c>
+      <c r="B55" s="18">
+        <f t="shared" si="14"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="C55" s="20">
+        <f t="shared" si="14"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="D55" s="19">
+        <f t="shared" si="14"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="E55" s="19">
+        <f t="shared" si="14"/>
+        <v>88.541700000000006</v>
+      </c>
+      <c r="F55" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>9</v>
+      </c>
+      <c r="B56" s="21">
+        <f t="shared" si="14"/>
+        <v>93.576349999999991</v>
+      </c>
+      <c r="C56" s="22">
+        <f t="shared" si="14"/>
+        <v>94.444400000000002</v>
+      </c>
+      <c r="D56" s="19">
+        <f t="shared" si="14"/>
+        <v>94.444400000000002</v>
+      </c>
+      <c r="E56" s="19">
+        <f t="shared" si="14"/>
+        <v>92.708299999999994</v>
+      </c>
+      <c r="F56" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="23">
+        <f>AVERAGE(B48:B56)</f>
+        <v>84.924777777777791</v>
+      </c>
+      <c r="C57" s="24">
+        <f t="shared" ref="C57:AA57" si="15">AVERAGE(C48:C56)</f>
+        <v>85.532422222222223</v>
+      </c>
+      <c r="D57" s="19">
+        <f t="shared" si="15"/>
+        <v>85.127322222222219</v>
+      </c>
+      <c r="E57" s="19">
+        <f t="shared" si="15"/>
+        <v>84.722233333333335</v>
+      </c>
+      <c r="F57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="29"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="R60" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="D47:P47"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:J18"/>
+  </mergeCells>
   <conditionalFormatting sqref="D43:AA43">
     <cfRule type="top10" dxfId="39" priority="39" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="38" priority="40" rank="1"/>
@@ -5536,4 +9227,505 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C524971D-6051-40C1-B0A1-11F9D7FDCF65}">
+  <dimension ref="A2:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <f>AVERAGE(D6:AK6)</f>
+        <v>0.60995366666666662</v>
+      </c>
+      <c r="C6" s="4">
+        <f>MAX(D6:AL6)</f>
+        <v>0.64930600000000005</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.60069399999999995</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0.64930600000000005</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0.57986099999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" ref="B7:B14" si="0">AVERAGE(D7:AK7)</f>
+        <v>0.49652800000000002</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" ref="C7:C14" si="1">MAX(D7:AL7)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.49652800000000002</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.49305599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.68287033333333325</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.71527799999999997</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.71527799999999997</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0.67013900000000004</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0.66319399999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.47743066666666661</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0.453125</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.47916700000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.53935166666666656</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.61111099999999996</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.61111099999999996</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.48958299999999999</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.51736099999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.55439799999999995</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.57291700000000001</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.57291700000000001</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0.55208299999999999</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0.53819399999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.7407406666666666</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.75347200000000003</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.75347200000000003</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0.72222200000000003</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0.74652799999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.69097200000000003</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.70486099999999996</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0.70486099999999996</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0.66319399999999995</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0.70486099999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67361099999999985</v>
+      </c>
+      <c r="C14" s="30">
+        <f t="shared" si="1"/>
+        <v>0.6875</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.6875</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0.66319399999999995</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0.67013900000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="34">
+        <f>AVERAGE(B6:B14)</f>
+        <v>0.60731733333333338</v>
+      </c>
+      <c r="C15" s="34">
+        <f t="shared" ref="C15:F15" si="2">AVERAGE(C6:C14)</f>
+        <v>0.63271611111111115</v>
+      </c>
+      <c r="D15" s="34">
+        <f t="shared" si="2"/>
+        <v>0.62692900000000007</v>
+      </c>
+      <c r="E15" s="34">
+        <f t="shared" si="2"/>
+        <v>0.59587177777777778</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" si="2"/>
+        <v>0.59915122222222217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <f>AVERAGE(D20:AK20)</f>
+        <v>0.63888899999999993</v>
+      </c>
+      <c r="C20" s="4">
+        <f>MAX(D20:AL20)</f>
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0.60069399999999995</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0.64930600000000005</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0.66666700000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <f t="shared" ref="B21:B28" si="3">AVERAGE(D21:AK21)</f>
+        <v>0.51157399999999997</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" ref="C21:C28" si="4">MAX(D21:AL21)</f>
+        <v>0.53819399999999995</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0.49652800000000002</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0.53819399999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.70717599999999992</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="4"/>
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0.71527799999999997</v>
+      </c>
+      <c r="E22" s="32">
+        <v>0.67013900000000004</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0.73611099999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="4"/>
+        <v>0.515625</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0.453125</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>5</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" si="3"/>
+        <v>0.55671266666666652</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="4"/>
+        <v>0.61111099999999996</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0.61111099999999996</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0.48958299999999999</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0.56944399999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7">
+        <f t="shared" si="3"/>
+        <v>0.5347223333333333</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="4"/>
+        <v>0.57291700000000001</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0.57291700000000001</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0.55208299999999999</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0.47916700000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7">
+        <f t="shared" si="3"/>
+        <v>0.74421266666666674</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="4"/>
+        <v>0.75694399999999995</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.75347200000000003</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0.72222200000000003</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.75694399999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7">
+        <f t="shared" si="3"/>
+        <v>0.6932870000000001</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="4"/>
+        <v>0.71180600000000005</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0.70486099999999996</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0.66319399999999995</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0.71180600000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>9</v>
+      </c>
+      <c r="B28" s="11">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C28" s="30">
+        <f t="shared" si="4"/>
+        <v>0.6875</v>
+      </c>
+      <c r="D28" s="32">
+        <v>0.6875</v>
+      </c>
+      <c r="E28" s="32">
+        <v>0.66319399999999995</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0.64930600000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="34">
+        <f>AVERAGE(B20:B28)</f>
+        <v>0.61586929629629628</v>
+      </c>
+      <c r="C29" s="34">
+        <f t="shared" ref="C29" si="5">AVERAGE(C20:C28)</f>
+        <v>0.64409722222222221</v>
+      </c>
+      <c r="D29" s="34">
+        <f t="shared" ref="D29" si="6">AVERAGE(D20:D28)</f>
+        <v>0.62692900000000007</v>
+      </c>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:F29" si="7">AVERAGE(E20:E28)</f>
+        <v>0.59587177777777778</v>
+      </c>
+      <c r="F29" s="34">
+        <f t="shared" si="7"/>
+        <v>0.62480711111111109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Saved model/Saved Results.xlsx
+++ b/Saved model/Saved Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albi2\Documents\GitHub\Variational-Autoencoder-for-EEG-analysis\Saved model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456556E9-1F8C-4ECB-A0C5-01B07BD7A8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9645DE-88EB-4DF7-8D1A-B165E00DF04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1479,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AC60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -5970,8 +5970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9569107-D6A2-48F5-A7AB-646FE6B45B23}">
   <dimension ref="A2:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="B6" s="2">
         <f>AVERAGE(D6:BB6)</f>
-        <v>0.83680550000000009</v>
+        <v>0.84461800000000009</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" ref="C6:C7" si="0">MAX(D6:BB6)</f>
@@ -6070,8 +6070,12 @@
       <c r="E6" s="3">
         <v>0.85763900000000004</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.85763900000000004</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
@@ -6081,11 +6085,11 @@
       </c>
       <c r="B7" s="7">
         <f t="shared" ref="B7:B13" si="1">AVERAGE(D7:BB7)</f>
-        <v>0.72222200000000003</v>
+        <v>0.73611099999999996</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.72222200000000003</v>
+        <v>0.77083299999999999</v>
       </c>
       <c r="D7" s="8">
         <v>0.72222200000000003</v>
@@ -6093,8 +6097,12 @@
       <c r="E7" s="8">
         <v>0.72222200000000003</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="8">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.72916700000000001</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
@@ -6104,11 +6112,11 @@
       </c>
       <c r="B8" s="7">
         <f t="shared" si="1"/>
-        <v>0.84722249999999999</v>
+        <v>0.87239600000000006</v>
       </c>
       <c r="C8" s="9">
         <f>MAX(D8:BB8)</f>
-        <v>0.88541700000000001</v>
+        <v>0.89930600000000005</v>
       </c>
       <c r="D8" s="8">
         <v>0.80902799999999997</v>
@@ -6116,8 +6124,12 @@
       <c r="E8" s="8">
         <v>0.88541700000000001</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="8">
+        <v>0.89583299999999999</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.89930600000000005</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
@@ -6127,7 +6139,7 @@
       </c>
       <c r="B9" s="7">
         <f t="shared" si="1"/>
-        <v>0.74739599999999995</v>
+        <v>0.73828125</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9:C14" si="2">MAX(D9:BB9)</f>
@@ -6139,8 +6151,12 @@
       <c r="E9" s="8">
         <v>0.78125</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="8">
+        <v>0.734375</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.72395799999999999</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
@@ -6150,11 +6166,11 @@
       </c>
       <c r="B10" s="7">
         <f t="shared" si="1"/>
-        <v>0.82986099999999996</v>
+        <v>0.82899299999999998</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="2"/>
-        <v>0.83333299999999999</v>
+        <v>0.84722200000000003</v>
       </c>
       <c r="D10" s="8">
         <v>0.83333299999999999</v>
@@ -6162,8 +6178,12 @@
       <c r="E10" s="8">
         <v>0.82638900000000004</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="8">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.80902799999999997</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
@@ -6173,11 +6193,11 @@
       </c>
       <c r="B11" s="7">
         <f t="shared" si="1"/>
-        <v>0.80729200000000001</v>
+        <v>0.82986150000000003</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="2"/>
-        <v>0.85416700000000001</v>
+        <v>0.86805600000000005</v>
       </c>
       <c r="D11" s="8">
         <v>0.76041700000000001</v>
@@ -6185,8 +6205,12 @@
       <c r="E11" s="8">
         <v>0.85416700000000001</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="8">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.83680600000000005</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
@@ -6196,7 +6220,7 @@
       </c>
       <c r="B12" s="7">
         <f t="shared" si="1"/>
-        <v>0.86979200000000001</v>
+        <v>0.86805575000000001</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="2"/>
@@ -6208,8 +6232,12 @@
       <c r="E12" s="8">
         <v>0.88541700000000001</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="8">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.86805600000000005</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
@@ -6219,7 +6247,7 @@
       </c>
       <c r="B13" s="7">
         <f t="shared" si="1"/>
-        <v>0.85763900000000004</v>
+        <v>0.86371550000000008</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="2"/>
@@ -6231,8 +6259,12 @@
       <c r="E13" s="8">
         <v>0.88541700000000001</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="8">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.87152799999999997</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
@@ -6242,7 +6274,7 @@
       </c>
       <c r="B14" s="11">
         <f>AVERAGE(D14:BB14)</f>
-        <v>0.89236099999999996</v>
+        <v>0.90364575000000003</v>
       </c>
       <c r="C14" s="30">
         <f t="shared" si="2"/>
@@ -6254,8 +6286,12 @@
       <c r="E14" s="12">
         <v>0.92708299999999999</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="12">
+        <v>0.92708299999999999</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.90277799999999997</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
@@ -6263,11 +6299,11 @@
       <c r="A15" s="8"/>
       <c r="B15" s="13">
         <f t="shared" ref="B15:C15" si="3">AVERAGE(B6:B14)</f>
-        <v>0.8233990000000001</v>
+        <v>0.83174197222222224</v>
       </c>
       <c r="C15" s="15">
         <f t="shared" si="3"/>
-        <v>0.84799388888888894</v>
+        <v>0.85802477777777786</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -6389,7 +6425,7 @@
       </c>
       <c r="B19" s="2">
         <f>AVERAGE(D19:BB19)</f>
-        <v>0.85243050000000009</v>
+        <v>0.84375</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" ref="C19:C20" si="4">MAX(D19:BB19)</f>
@@ -6401,8 +6437,12 @@
       <c r="E19" s="8">
         <v>0.85763900000000004</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="8">
+        <v>0.84375</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.82638900000000004</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -6432,7 +6472,7 @@
       </c>
       <c r="C20" s="9">
         <f t="shared" si="4"/>
-        <v>0.76041700000000001</v>
+        <v>0.77083299999999999</v>
       </c>
       <c r="D20" s="8">
         <v>0.76041700000000001</v>
@@ -6440,8 +6480,12 @@
       <c r="E20" s="8">
         <v>0.72222200000000003</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="F20" s="8">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.71180600000000005</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -6467,7 +6511,7 @@
       </c>
       <c r="B21" s="7">
         <f t="shared" si="5"/>
-        <v>0.88368049999999998</v>
+        <v>0.88194450000000002</v>
       </c>
       <c r="C21" s="9">
         <f>MAX(D21:BB21)</f>
@@ -6479,8 +6523,12 @@
       <c r="E21" s="8">
         <v>0.88541700000000001</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="8">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.875</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -6506,7 +6554,7 @@
       </c>
       <c r="B22" s="7">
         <f t="shared" si="5"/>
-        <v>0.77864599999999995</v>
+        <v>0.76432299999999997</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" ref="C22:C27" si="6">MAX(D22:BB22)</f>
@@ -6518,8 +6566,12 @@
       <c r="E22" s="8">
         <v>0.78125</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="8">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.72916700000000001</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -6545,7 +6597,7 @@
       </c>
       <c r="B23" s="7">
         <f t="shared" si="5"/>
-        <v>0.83333349999999995</v>
+        <v>0.82899299999999998</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="6"/>
@@ -6557,8 +6609,12 @@
       <c r="E23" s="8">
         <v>0.82638900000000004</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="F23" s="8">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.81597200000000003</v>
+      </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -6584,7 +6640,7 @@
       </c>
       <c r="B24" s="7">
         <f t="shared" si="5"/>
-        <v>0.84548650000000003</v>
+        <v>0.84461825000000001</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="6"/>
@@ -6596,8 +6652,12 @@
       <c r="E24" s="8">
         <v>0.85416700000000001</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="8">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.84027799999999997</v>
+      </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -6623,7 +6683,7 @@
       </c>
       <c r="B25" s="7">
         <f t="shared" si="5"/>
-        <v>0.88715300000000008</v>
+        <v>0.87934050000000008</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="6"/>
@@ -6635,8 +6695,12 @@
       <c r="E25" s="8">
         <v>0.88541700000000001</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="8">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.875</v>
+      </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -6662,11 +6726,11 @@
       </c>
       <c r="B26" s="7">
         <f t="shared" si="5"/>
-        <v>0.88541700000000001</v>
+        <v>0.8836807499999999</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="6"/>
-        <v>0.88541700000000001</v>
+        <v>0.89236099999999996</v>
       </c>
       <c r="D26" s="8">
         <v>0.88541700000000001</v>
@@ -6674,8 +6738,12 @@
       <c r="E26" s="8">
         <v>0.88541700000000001</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="F26" s="8">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.89236099999999996</v>
+      </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -6701,7 +6769,7 @@
       </c>
       <c r="B27" s="11">
         <f>AVERAGE(D27:BB27)</f>
-        <v>0.93576349999999997</v>
+        <v>0.92187474999999997</v>
       </c>
       <c r="C27" s="30">
         <f t="shared" si="6"/>
@@ -6713,8 +6781,12 @@
       <c r="E27" s="8">
         <v>0.92708299999999999</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="F27" s="8">
+        <v>0.91319399999999995</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.90277799999999997</v>
+      </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -6740,11 +6812,11 @@
       </c>
       <c r="B28" s="13">
         <f t="shared" ref="B28:C28" si="7">AVERAGE(B19:B27)</f>
-        <v>0.84924777777777782</v>
+        <v>0.8433160277777777</v>
       </c>
       <c r="C28" s="15">
         <f t="shared" si="7"/>
-        <v>0.85532422222222226</v>
+        <v>0.85725311111111102</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -6847,7 +6919,7 @@
       </c>
       <c r="B34" s="16">
         <f>B6 * 100</f>
-        <v>83.680550000000011</v>
+        <v>84.461800000000011</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" ref="C34:J34" si="8">C6 * 100</f>
@@ -6863,11 +6935,11 @@
       </c>
       <c r="F34" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>84.722200000000001</v>
       </c>
       <c r="G34" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>85.763900000000007</v>
       </c>
       <c r="H34" s="19">
         <f t="shared" si="8"/>
@@ -6956,11 +7028,11 @@
       </c>
       <c r="B35" s="18">
         <f t="shared" ref="B35:L42" si="10">B7 * 100</f>
-        <v>72.222200000000001</v>
+        <v>73.611099999999993</v>
       </c>
       <c r="C35" s="20">
         <f t="shared" si="10"/>
-        <v>72.222200000000001</v>
+        <v>77.083299999999994</v>
       </c>
       <c r="D35" s="19">
         <f t="shared" si="10"/>
@@ -6972,11 +7044,11 @@
       </c>
       <c r="F35" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77.083299999999994</v>
       </c>
       <c r="G35" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>72.916700000000006</v>
       </c>
       <c r="H35" s="19">
         <f t="shared" si="10"/>
@@ -7065,11 +7137,11 @@
       </c>
       <c r="B36" s="18">
         <f t="shared" si="10"/>
-        <v>84.722250000000003</v>
+        <v>87.23960000000001</v>
       </c>
       <c r="C36" s="20">
         <f t="shared" si="10"/>
-        <v>88.541700000000006</v>
+        <v>89.930599999999998</v>
       </c>
       <c r="D36" s="19">
         <f t="shared" si="10"/>
@@ -7081,11 +7153,11 @@
       </c>
       <c r="F36" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>89.583299999999994</v>
       </c>
       <c r="G36" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>89.930599999999998</v>
       </c>
       <c r="H36" s="19">
         <f t="shared" si="10"/>
@@ -7174,7 +7246,7 @@
       </c>
       <c r="B37" s="18">
         <f t="shared" si="10"/>
-        <v>74.739599999999996</v>
+        <v>73.828125</v>
       </c>
       <c r="C37" s="20">
         <f t="shared" si="10"/>
@@ -7190,11 +7262,11 @@
       </c>
       <c r="F37" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>73.4375</v>
       </c>
       <c r="G37" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>72.395799999999994</v>
       </c>
       <c r="H37" s="19">
         <f t="shared" si="10"/>
@@ -7283,11 +7355,11 @@
       </c>
       <c r="B38" s="18">
         <f t="shared" si="10"/>
-        <v>82.986099999999993</v>
+        <v>82.899299999999997</v>
       </c>
       <c r="C38" s="20">
         <f t="shared" si="10"/>
-        <v>83.333299999999994</v>
+        <v>84.722200000000001</v>
       </c>
       <c r="D38" s="19">
         <f t="shared" si="10"/>
@@ -7299,11 +7371,11 @@
       </c>
       <c r="F38" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>84.722200000000001</v>
       </c>
       <c r="G38" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>80.902799999999999</v>
       </c>
       <c r="H38" s="19">
         <f t="shared" si="10"/>
@@ -7392,11 +7464,11 @@
       </c>
       <c r="B39" s="18">
         <f t="shared" si="10"/>
-        <v>80.729200000000006</v>
+        <v>82.986150000000009</v>
       </c>
       <c r="C39" s="20">
         <f t="shared" si="10"/>
-        <v>85.416700000000006</v>
+        <v>86.805599999999998</v>
       </c>
       <c r="D39" s="19">
         <f t="shared" si="10"/>
@@ -7408,11 +7480,11 @@
       </c>
       <c r="F39" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>86.805599999999998</v>
       </c>
       <c r="G39" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>83.680599999999998</v>
       </c>
       <c r="H39" s="19">
         <f t="shared" si="10"/>
@@ -7501,7 +7573,7 @@
       </c>
       <c r="B40" s="18">
         <f t="shared" si="10"/>
-        <v>86.979200000000006</v>
+        <v>86.805575000000005</v>
       </c>
       <c r="C40" s="20">
         <f t="shared" si="10"/>
@@ -7517,11 +7589,11 @@
       </c>
       <c r="F40" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>86.458299999999994</v>
       </c>
       <c r="G40" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>86.805599999999998</v>
       </c>
       <c r="H40" s="19">
         <f t="shared" si="10"/>
@@ -7610,7 +7682,7 @@
       </c>
       <c r="B41" s="18">
         <f t="shared" si="10"/>
-        <v>85.763900000000007</v>
+        <v>86.371550000000013</v>
       </c>
       <c r="C41" s="20">
         <f t="shared" si="10"/>
@@ -7626,11 +7698,11 @@
       </c>
       <c r="F41" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>86.805599999999998</v>
       </c>
       <c r="G41" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>87.152799999999999</v>
       </c>
       <c r="H41" s="19">
         <f t="shared" si="10"/>
@@ -7719,7 +7791,7 @@
       </c>
       <c r="B42" s="21">
         <f t="shared" si="10"/>
-        <v>89.236099999999993</v>
+        <v>90.364575000000002</v>
       </c>
       <c r="C42" s="22">
         <f t="shared" si="10"/>
@@ -7735,11 +7807,11 @@
       </c>
       <c r="F42" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>92.708299999999994</v>
       </c>
       <c r="G42" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90.277799999999999</v>
       </c>
       <c r="H42" s="19">
         <f t="shared" si="10"/>
@@ -7828,11 +7900,11 @@
       </c>
       <c r="B43" s="23">
         <f t="shared" ref="B43:Y43" si="11">AVERAGE(B34:B42)</f>
-        <v>82.3399</v>
+        <v>83.174197222222219</v>
       </c>
       <c r="C43" s="24">
         <f t="shared" si="11"/>
-        <v>84.799388888888899</v>
+        <v>85.802477777777767</v>
       </c>
       <c r="D43" s="19">
         <f t="shared" si="11"/>
@@ -7844,11 +7916,11 @@
       </c>
       <c r="F43" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>84.702922222222227</v>
       </c>
       <c r="G43" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>83.314066666666662</v>
       </c>
       <c r="H43" s="19">
         <f t="shared" si="11"/>
@@ -8031,7 +8103,7 @@
       </c>
       <c r="B48" s="16">
         <f>B19 * 100</f>
-        <v>85.243050000000011</v>
+        <v>84.375</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" ref="C48:K48" si="12">C19 * 100</f>
@@ -8047,11 +8119,11 @@
       </c>
       <c r="F48" s="19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>84.375</v>
       </c>
       <c r="G48" s="19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>82.638900000000007</v>
       </c>
       <c r="H48" s="19">
         <f t="shared" si="12"/>
@@ -8144,23 +8216,23 @@
       </c>
       <c r="C49" s="20">
         <f t="shared" si="14"/>
+        <v>77.083299999999994</v>
+      </c>
+      <c r="D49" s="19">
+        <f t="shared" si="14"/>
         <v>76.041700000000006</v>
       </c>
-      <c r="D49" s="19">
-        <f t="shared" si="14"/>
-        <v>76.041700000000006</v>
-      </c>
       <c r="E49" s="19">
         <f t="shared" si="14"/>
         <v>72.222200000000001</v>
       </c>
       <c r="F49" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>77.083299999999994</v>
       </c>
       <c r="G49" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>71.180599999999998</v>
       </c>
       <c r="H49" s="19">
         <f t="shared" si="14"/>
@@ -8249,7 +8321,7 @@
       </c>
       <c r="B50" s="18">
         <f t="shared" si="14"/>
-        <v>88.368049999999997</v>
+        <v>88.194450000000003</v>
       </c>
       <c r="C50" s="20">
         <f t="shared" si="14"/>
@@ -8265,11 +8337,11 @@
       </c>
       <c r="F50" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.541700000000006</v>
       </c>
       <c r="G50" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="H50" s="19">
         <f t="shared" si="14"/>
@@ -8358,7 +8430,7 @@
       </c>
       <c r="B51" s="18">
         <f t="shared" si="14"/>
-        <v>77.864599999999996</v>
+        <v>76.432299999999998</v>
       </c>
       <c r="C51" s="20">
         <f t="shared" si="14"/>
@@ -8374,11 +8446,11 @@
       </c>
       <c r="F51" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>77.083299999999994</v>
       </c>
       <c r="G51" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>72.916700000000006</v>
       </c>
       <c r="H51" s="19">
         <f t="shared" si="14"/>
@@ -8467,7 +8539,7 @@
       </c>
       <c r="B52" s="18">
         <f t="shared" si="14"/>
-        <v>83.333349999999996</v>
+        <v>82.899299999999997</v>
       </c>
       <c r="C52" s="20">
         <f t="shared" si="14"/>
@@ -8483,11 +8555,11 @@
       </c>
       <c r="F52" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>83.333299999999994</v>
       </c>
       <c r="G52" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>81.597200000000001</v>
       </c>
       <c r="H52" s="19">
         <f t="shared" si="14"/>
@@ -8576,7 +8648,7 @@
       </c>
       <c r="B53" s="18">
         <f t="shared" si="14"/>
-        <v>84.548650000000009</v>
+        <v>84.461825000000005</v>
       </c>
       <c r="C53" s="20">
         <f t="shared" si="14"/>
@@ -8592,11 +8664,11 @@
       </c>
       <c r="F53" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>84.722200000000001</v>
       </c>
       <c r="G53" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>84.027799999999999</v>
       </c>
       <c r="H53" s="19">
         <f t="shared" si="14"/>
@@ -8685,7 +8757,7 @@
       </c>
       <c r="B54" s="18">
         <f t="shared" si="14"/>
-        <v>88.715300000000013</v>
+        <v>87.934050000000013</v>
       </c>
       <c r="C54" s="20">
         <f t="shared" si="14"/>
@@ -8701,11 +8773,11 @@
       </c>
       <c r="F54" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>86.805599999999998</v>
       </c>
       <c r="G54" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="H54" s="19">
         <f t="shared" si="14"/>
@@ -8794,27 +8866,27 @@
       </c>
       <c r="B55" s="18">
         <f t="shared" si="14"/>
+        <v>88.36807499999999</v>
+      </c>
+      <c r="C55" s="20">
+        <f t="shared" si="14"/>
+        <v>89.236099999999993</v>
+      </c>
+      <c r="D55" s="19">
+        <f t="shared" si="14"/>
         <v>88.541700000000006</v>
       </c>
-      <c r="C55" s="20">
+      <c r="E55" s="19">
         <f t="shared" si="14"/>
         <v>88.541700000000006</v>
       </c>
-      <c r="D55" s="19">
-        <f t="shared" si="14"/>
-        <v>88.541700000000006</v>
-      </c>
-      <c r="E55" s="19">
-        <f t="shared" si="14"/>
-        <v>88.541700000000006</v>
-      </c>
       <c r="F55" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>87.152799999999999</v>
       </c>
       <c r="G55" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>89.236099999999993</v>
       </c>
       <c r="H55" s="19">
         <f t="shared" si="14"/>
@@ -8903,7 +8975,7 @@
       </c>
       <c r="B56" s="21">
         <f t="shared" si="14"/>
-        <v>93.576349999999991</v>
+        <v>92.187474999999992</v>
       </c>
       <c r="C56" s="22">
         <f t="shared" si="14"/>
@@ -8919,11 +8991,11 @@
       </c>
       <c r="F56" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>91.319400000000002</v>
       </c>
       <c r="G56" s="19">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>90.277799999999999</v>
       </c>
       <c r="H56" s="19">
         <f t="shared" si="14"/>
@@ -9012,11 +9084,11 @@
       </c>
       <c r="B57" s="23">
         <f>AVERAGE(B48:B56)</f>
-        <v>84.924777777777791</v>
+        <v>84.331602777777775</v>
       </c>
       <c r="C57" s="24">
         <f t="shared" ref="C57:AA57" si="15">AVERAGE(C48:C56)</f>
-        <v>85.532422222222223</v>
+        <v>85.725311111111111</v>
       </c>
       <c r="D57" s="19">
         <f t="shared" si="15"/>
@@ -9028,11 +9100,11 @@
       </c>
       <c r="F57" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>84.490733333333324</v>
       </c>
       <c r="G57" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>82.986122222222221</v>
       </c>
       <c r="H57" s="19">
         <f t="shared" si="15"/>

--- a/Saved model/Saved Results.xlsx
+++ b/Saved model/Saved Results.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albi2\Documents\GitHub\Variational-Autoencoder-for-EEG-analysis\Saved model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA11E9D-3D20-42D0-AB97-8C353439A1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238F389D-326E-4645-992A-BD20653C38AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="644" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D2A (Mixed Up)(32)" sheetId="4" r:id="rId1"/>
     <sheet name="D2A (Mixed Up)(64)" sheetId="5" r:id="rId2"/>
     <sheet name="D2A (Mixed Up)(128)" sheetId="3" r:id="rId3"/>
     <sheet name="D2A (Cross Subject)(64)" sheetId="2" r:id="rId4"/>
-    <sheet name="D2A (Mixed Up)(64)(TEST)" sheetId="1" state="hidden" r:id="rId5"/>
+    <sheet name="Foglio1" sheetId="6" r:id="rId5"/>
+    <sheet name="D2A (Mixed Up)(64)(TEST)" sheetId="1" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="17">
   <si>
     <t>Accuract END</t>
   </si>
@@ -80,6 +81,15 @@
   </si>
   <si>
     <t>128 Hidden Space,</t>
+  </si>
+  <si>
+    <t>EEGNet (All)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBCSP </t>
+  </si>
+  <si>
+    <t>Framework</t>
   </si>
 </sst>
 </file>
@@ -287,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +414,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,11 +426,953 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="160">
+  <dxfs count="260">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2296,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E5DA2D-C566-499E-B516-1DD1AE2AFBC0}">
   <dimension ref="A2:AC60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:K27"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C57" sqref="B47:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2317,16 +3272,16 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
@@ -2350,21 +3305,21 @@
       <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
@@ -2775,16 +3730,16 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -2809,15 +3764,15 @@
       <c r="C18" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -3342,16 +4297,16 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
@@ -3375,21 +4330,21 @@
       <c r="C33" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
@@ -4526,16 +5481,16 @@
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
@@ -4559,21 +5514,21 @@
       <c r="C47" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
@@ -5706,84 +6661,84 @@
     <mergeCell ref="D33:P33"/>
   </mergeCells>
   <conditionalFormatting sqref="D43:AA43">
-    <cfRule type="top10" dxfId="159" priority="39" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="158" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="259" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="258" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:AA35">
-    <cfRule type="top10" dxfId="157" priority="21" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="156" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="257" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="256" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:AA34">
-    <cfRule type="top10" dxfId="155" priority="23" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="154" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="255" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="254" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:AA37">
-    <cfRule type="top10" dxfId="153" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="152" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="253" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="252" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:AA36">
-    <cfRule type="top10" dxfId="151" priority="27" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="150" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="251" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="250" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:AA39">
-    <cfRule type="top10" dxfId="149" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="148" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="249" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="248" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:AA38">
-    <cfRule type="top10" dxfId="147" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="146" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="247" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="246" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:AA41">
-    <cfRule type="top10" dxfId="145" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="144" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="245" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="244" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:AA40">
-    <cfRule type="top10" dxfId="143" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="142" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="243" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="242" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:AA42">
-    <cfRule type="top10" dxfId="141" priority="37" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="140" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="241" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="240" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:AA49">
-    <cfRule type="top10" dxfId="139" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="138" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="239" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="238" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:AA48">
-    <cfRule type="top10" dxfId="137" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="136" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="237" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="236" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:AA51">
-    <cfRule type="top10" dxfId="135" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="134" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="235" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="234" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:AA50">
-    <cfRule type="top10" dxfId="133" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="132" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="233" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="232" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:AA53">
-    <cfRule type="top10" dxfId="131" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="130" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="231" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="230" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:AA52">
-    <cfRule type="top10" dxfId="129" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="128" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="229" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="228" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:AA55">
-    <cfRule type="top10" dxfId="127" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="126" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="227" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="226" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:AA54">
-    <cfRule type="top10" dxfId="125" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="124" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="225" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="224" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:AA56">
-    <cfRule type="top10" dxfId="123" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="122" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="223" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="222" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:AA57">
-    <cfRule type="top10" dxfId="121" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="120" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="221" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="220" priority="20" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5793,8 +6748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7574636F-103D-45E0-9051-CAFBEA15D9A4}">
   <dimension ref="A2:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19:R27"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5814,16 +6769,16 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
@@ -5847,21 +6802,21 @@
       <c r="C5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
@@ -6461,16 +7416,16 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -6495,15 +7450,15 @@
       <c r="C18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -7163,16 +8118,16 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
@@ -7196,21 +8151,21 @@
       <c r="C33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
@@ -7294,42 +8249,15 @@
         <f t="shared" si="9"/>
         <v>85.763900000000007</v>
       </c>
-      <c r="S34" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
@@ -7403,42 +8331,15 @@
         <f t="shared" si="9"/>
         <v>71.875</v>
       </c>
-      <c r="S35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
@@ -7512,42 +8413,15 @@
         <f t="shared" si="9"/>
         <v>88.888900000000007</v>
       </c>
-      <c r="S36" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
@@ -7621,42 +8495,15 @@
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="S37" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
@@ -7730,42 +8577,15 @@
         <f t="shared" si="9"/>
         <v>78.125</v>
       </c>
-      <c r="S38" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
@@ -7839,42 +8659,15 @@
         <f t="shared" si="9"/>
         <v>85.763900000000007</v>
       </c>
-      <c r="S39" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X39" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z39" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
@@ -7948,42 +8741,15 @@
         <f t="shared" si="9"/>
         <v>88.541700000000006</v>
       </c>
-      <c r="S40" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
@@ -8057,42 +8823,15 @@
         <f t="shared" si="9"/>
         <v>89.930599999999998</v>
       </c>
-      <c r="S41" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
@@ -8166,42 +8905,15 @@
         <f t="shared" si="9"/>
         <v>92.361099999999993</v>
       </c>
-      <c r="S42" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X42" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="19">
-        <f>Z14 * 100</f>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
@@ -8275,42 +8987,15 @@
         <f t="shared" si="12"/>
         <v>84.027788888888892</v>
       </c>
-      <c r="S43" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="19">
-        <f>AVERAGE(Z34:Z42)</f>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="19">
-        <f>AVERAGE(AA34:AA42)</f>
-        <v>0</v>
-      </c>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D44" s="27"/>
@@ -8347,16 +9032,16 @@
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
@@ -8380,21 +9065,21 @@
       <c r="C47" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
@@ -8478,42 +9163,15 @@
         <f t="shared" si="15"/>
         <v>86.111099999999993</v>
       </c>
-      <c r="S48" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
@@ -8587,42 +9245,15 @@
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
-      <c r="S49" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W49" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
@@ -8696,42 +9327,15 @@
         <f t="shared" si="15"/>
         <v>88.888900000000007</v>
       </c>
-      <c r="S50" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V50" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W50" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X50" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z50" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
@@ -8805,42 +9409,15 @@
         <f t="shared" si="15"/>
         <v>72.916700000000006</v>
       </c>
-      <c r="S51" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V51" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W51" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X51" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z51" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA51" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
@@ -8914,42 +9491,15 @@
         <f t="shared" si="15"/>
         <v>82.986099999999993</v>
       </c>
-      <c r="S52" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V52" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W52" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X52" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z52" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA52" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
@@ -9023,42 +9573,15 @@
         <f t="shared" si="15"/>
         <v>87.152799999999999</v>
       </c>
-      <c r="S53" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X53" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z53" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA53" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
@@ -9132,42 +9655,15 @@
         <f t="shared" si="15"/>
         <v>88.888900000000007</v>
       </c>
-      <c r="S54" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V54" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X54" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z54" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
@@ -9241,42 +9737,15 @@
         <f t="shared" si="15"/>
         <v>93.055599999999998</v>
       </c>
-      <c r="S55" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U55" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V55" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W55" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X55" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z55" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA55" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="19"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
@@ -9350,42 +9819,15 @@
         <f t="shared" si="15"/>
         <v>91.319400000000002</v>
       </c>
-      <c r="S56" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V56" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W56" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X56" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z56" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA56" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
@@ -9459,42 +9901,15 @@
         <f t="shared" si="17"/>
         <v>85.146611111111099</v>
       </c>
-      <c r="S57" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V57" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="W57" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="X57" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z57" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA57" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="19"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D58" s="27"/>
@@ -9527,84 +9942,84 @@
     <mergeCell ref="D33:P33"/>
   </mergeCells>
   <conditionalFormatting sqref="D43:AA43">
-    <cfRule type="top10" dxfId="119" priority="39" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="118" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="219" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="218" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:AA35">
-    <cfRule type="top10" dxfId="117" priority="21" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="116" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="217" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="216" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:AA34">
-    <cfRule type="top10" dxfId="115" priority="23" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="114" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="215" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="214" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:AA37">
-    <cfRule type="top10" dxfId="113" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="112" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="213" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="212" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:AA36">
-    <cfRule type="top10" dxfId="111" priority="27" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="110" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="211" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="210" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:AA39">
-    <cfRule type="top10" dxfId="109" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="108" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="209" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="208" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:AA38">
-    <cfRule type="top10" dxfId="107" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="106" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="207" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="206" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:AA41">
-    <cfRule type="top10" dxfId="105" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="104" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="205" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="204" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:AA40">
-    <cfRule type="top10" dxfId="103" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="102" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="203" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="202" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:AA42">
-    <cfRule type="top10" dxfId="101" priority="37" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="100" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="201" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="200" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:AA49">
-    <cfRule type="top10" dxfId="99" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="98" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="199" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="198" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:AA48">
-    <cfRule type="top10" dxfId="97" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="96" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="197" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="196" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:AA51">
-    <cfRule type="top10" dxfId="95" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="94" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="195" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="194" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:AA50">
-    <cfRule type="top10" dxfId="93" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="92" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="193" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="192" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:AA53">
-    <cfRule type="top10" dxfId="91" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="90" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="191" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="190" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:AA52">
-    <cfRule type="top10" dxfId="89" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="88" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="189" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="188" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:AA55">
-    <cfRule type="top10" dxfId="87" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="86" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="187" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="186" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:AA54">
-    <cfRule type="top10" dxfId="85" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="84" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="185" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="184" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:AA56">
-    <cfRule type="top10" dxfId="83" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="82" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="183" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="182" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:AA57">
-    <cfRule type="top10" dxfId="81" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="80" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="181" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="180" priority="20" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9614,8 +10029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9569107-D6A2-48F5-A7AB-646FE6B45B23}">
   <dimension ref="A2:AC60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H27"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C57" sqref="B47:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9635,16 +10050,16 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
@@ -9668,21 +10083,21 @@
       <c r="C5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
@@ -10021,16 +10436,16 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -10055,15 +10470,15 @@
       <c r="C18" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
@@ -10534,16 +10949,16 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
@@ -10567,21 +10982,21 @@
       <c r="C33" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
@@ -11718,16 +12133,16 @@
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
@@ -11751,21 +12166,21 @@
       <c r="C47" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
@@ -12898,84 +13313,84 @@
     <mergeCell ref="D18:J18"/>
   </mergeCells>
   <conditionalFormatting sqref="D43:AA43">
-    <cfRule type="top10" dxfId="79" priority="39" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="78" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="179" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="178" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:AA35">
-    <cfRule type="top10" dxfId="77" priority="21" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="76" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="177" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="176" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:AA34">
-    <cfRule type="top10" dxfId="75" priority="23" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="74" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="175" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="174" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:AA37">
-    <cfRule type="top10" dxfId="73" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="72" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="173" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="172" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:AA36">
-    <cfRule type="top10" dxfId="71" priority="27" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="70" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="171" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="170" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:AA39">
-    <cfRule type="top10" dxfId="69" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="68" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="169" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="168" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:AA38">
-    <cfRule type="top10" dxfId="67" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="66" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="167" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="166" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:AA41">
-    <cfRule type="top10" dxfId="65" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="64" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="165" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="164" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:AA40">
-    <cfRule type="top10" dxfId="63" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="62" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="163" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="162" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:AA42">
-    <cfRule type="top10" dxfId="61" priority="37" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="60" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="161" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="160" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:AA49">
-    <cfRule type="top10" dxfId="59" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="58" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="159" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="158" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:AA48">
-    <cfRule type="top10" dxfId="57" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="56" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="157" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="156" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:AA51">
-    <cfRule type="top10" dxfId="55" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="54" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="155" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="154" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:AA50">
-    <cfRule type="top10" dxfId="53" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="52" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="153" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="152" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:AA53">
-    <cfRule type="top10" dxfId="51" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="50" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="151" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="150" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:AA52">
-    <cfRule type="top10" dxfId="49" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="48" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="149" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="148" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:AA55">
-    <cfRule type="top10" dxfId="47" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="46" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="147" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="146" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:AA54">
-    <cfRule type="top10" dxfId="45" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="44" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="145" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="144" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:AA56">
-    <cfRule type="top10" dxfId="43" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="42" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="143" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="142" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:AA57">
-    <cfRule type="top10" dxfId="41" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="40" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="141" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="140" priority="20" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13483,10 +13898,487 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7966B4A-BD72-4AB7-AA6D-CA8E4CEBADE5}">
+  <dimension ref="A2:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F2" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="47"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44">
+        <v>32</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44">
+        <v>64</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44">
+        <v>128</v>
+      </c>
+      <c r="K3" s="44"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16">
+        <v>57.754629629629598</v>
+      </c>
+      <c r="C5" s="17">
+        <v>58.3333333333333</v>
+      </c>
+      <c r="D5" s="16">
+        <v>81.874999999999957</v>
+      </c>
+      <c r="E5" s="17">
+        <v>83.6805555555555</v>
+      </c>
+      <c r="F5" s="16">
+        <v>84.722224999999995</v>
+      </c>
+      <c r="G5" s="17">
+        <v>86.458299999999994</v>
+      </c>
+      <c r="H5" s="16">
+        <v>84.629633333333317</v>
+      </c>
+      <c r="I5" s="17">
+        <v>86.805599999999998</v>
+      </c>
+      <c r="J5" s="16">
+        <v>84.375</v>
+      </c>
+      <c r="K5" s="17">
+        <v>85.763900000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18">
+        <v>42.7083333333333</v>
+      </c>
+      <c r="C6" s="20">
+        <v>43.75</v>
+      </c>
+      <c r="D6" s="18">
+        <v>60.972222222222186</v>
+      </c>
+      <c r="E6" s="20">
+        <v>64.5833333333333</v>
+      </c>
+      <c r="F6" s="18">
+        <v>76.866312499999992</v>
+      </c>
+      <c r="G6" s="20">
+        <v>78.472200000000001</v>
+      </c>
+      <c r="H6" s="18">
+        <v>74.884253333333334</v>
+      </c>
+      <c r="I6" s="20">
+        <v>76.388900000000007</v>
+      </c>
+      <c r="J6" s="18">
+        <v>74.513893333333343</v>
+      </c>
+      <c r="K6" s="20">
+        <v>77.083299999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18">
+        <v>53.935185185185098</v>
+      </c>
+      <c r="C7" s="20">
+        <v>54.5138888888888</v>
+      </c>
+      <c r="D7" s="18">
+        <v>88.541666666666629</v>
+      </c>
+      <c r="E7" s="20">
+        <v>92.0138888888888</v>
+      </c>
+      <c r="F7" s="18">
+        <v>89.019112500000006</v>
+      </c>
+      <c r="G7" s="20">
+        <v>90.277799999999999</v>
+      </c>
+      <c r="H7" s="18">
+        <v>89.861106666666686</v>
+      </c>
+      <c r="I7" s="20">
+        <v>93.055599999999998</v>
+      </c>
+      <c r="J7" s="18">
+        <v>88.541671111111114</v>
+      </c>
+      <c r="K7" s="20">
+        <v>89.9305555555556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18">
+        <v>39.004629629629598</v>
+      </c>
+      <c r="C8" s="20">
+        <v>39.2361111111111</v>
+      </c>
+      <c r="D8" s="18">
+        <v>70.624999999999957</v>
+      </c>
+      <c r="E8" s="20">
+        <v>74.3055555555555</v>
+      </c>
+      <c r="F8" s="18">
+        <v>77.083324999999988</v>
+      </c>
+      <c r="G8" s="20">
+        <v>81.25</v>
+      </c>
+      <c r="H8" s="18">
+        <v>75.625</v>
+      </c>
+      <c r="I8" s="20">
+        <v>78.125</v>
+      </c>
+      <c r="J8" s="18">
+        <v>76.041673333333335</v>
+      </c>
+      <c r="K8" s="20">
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="18">
+        <v>31.712962962962902</v>
+      </c>
+      <c r="C9" s="20">
+        <v>32.6388888888888</v>
+      </c>
+      <c r="D9" s="18">
+        <v>68.454635801333282</v>
+      </c>
+      <c r="E9" s="20">
+        <v>70.1388888888888</v>
+      </c>
+      <c r="F9" s="18">
+        <v>83.159724999999995</v>
+      </c>
+      <c r="G9" s="20">
+        <v>86.458299999999994</v>
+      </c>
+      <c r="H9" s="18">
+        <v>82.708333333333329</v>
+      </c>
+      <c r="I9" s="20">
+        <v>86.111099999999993</v>
+      </c>
+      <c r="J9" s="18">
+        <v>82.847217777777772</v>
+      </c>
+      <c r="K9" s="20">
+        <v>84.027799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18">
+        <v>34.722222222222165</v>
+      </c>
+      <c r="C10" s="20">
+        <v>35.7638888888888</v>
+      </c>
+      <c r="D10" s="18">
+        <v>61.458333333333329</v>
+      </c>
+      <c r="E10" s="20">
+        <v>63.1944444444444</v>
+      </c>
+      <c r="F10" s="18">
+        <v>85.026025000000004</v>
+      </c>
+      <c r="G10" s="20">
+        <v>86.111099999999993</v>
+      </c>
+      <c r="H10" s="18">
+        <v>84.814806666666655</v>
+      </c>
+      <c r="I10" s="20">
+        <v>87.5</v>
+      </c>
+      <c r="J10" s="18">
+        <v>84.791682222222221</v>
+      </c>
+      <c r="K10" s="20">
+        <v>86.1111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="18">
+        <v>37.152777777777729</v>
+      </c>
+      <c r="C11" s="20">
+        <v>38.1944444444444</v>
+      </c>
+      <c r="D11" s="18">
+        <v>82.0833333333333</v>
+      </c>
+      <c r="E11" s="20">
+        <v>85.4166666666666</v>
+      </c>
+      <c r="F11" s="18">
+        <v>87.586799999999997</v>
+      </c>
+      <c r="G11" s="20">
+        <v>89.583299999999994</v>
+      </c>
+      <c r="H11" s="18">
+        <v>86.944446666666664</v>
+      </c>
+      <c r="I11" s="20">
+        <v>89.236099999999993</v>
+      </c>
+      <c r="J11" s="18">
+        <v>87.222239999999999</v>
+      </c>
+      <c r="K11" s="20">
+        <v>88.888900000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="18">
+        <v>62.615740740740698</v>
+      </c>
+      <c r="C12" s="20">
+        <v>64.2361111111111</v>
+      </c>
+      <c r="D12" s="18">
+        <v>82.152777777777757</v>
+      </c>
+      <c r="E12" s="20">
+        <v>84.375</v>
+      </c>
+      <c r="F12" s="18">
+        <v>88.107637499999996</v>
+      </c>
+      <c r="G12" s="20">
+        <v>89.236099999999993</v>
+      </c>
+      <c r="H12" s="18">
+        <v>89.120360000000005</v>
+      </c>
+      <c r="I12" s="20">
+        <v>93.055599999999998</v>
+      </c>
+      <c r="J12" s="18">
+        <v>88.194459999999992</v>
+      </c>
+      <c r="K12" s="20">
+        <v>89.236099999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="18">
+        <v>54.166666666666593</v>
+      </c>
+      <c r="C13" s="20">
+        <v>55.2083333333333</v>
+      </c>
+      <c r="D13" s="18">
+        <v>66.249999999999957</v>
+      </c>
+      <c r="E13" s="20">
+        <v>69.0972222222222</v>
+      </c>
+      <c r="F13" s="18">
+        <v>91.666662499999987</v>
+      </c>
+      <c r="G13" s="20">
+        <v>93.402799999999999</v>
+      </c>
+      <c r="H13" s="18">
+        <v>91.78240666666666</v>
+      </c>
+      <c r="I13" s="20">
+        <v>94.444400000000002</v>
+      </c>
+      <c r="J13" s="18">
+        <v>92.222202222222222</v>
+      </c>
+      <c r="K13" s="20">
+        <v>94.444400000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="23">
+        <v>45.974794238683081</v>
+      </c>
+      <c r="C14" s="24">
+        <v>46.875</v>
+      </c>
+      <c r="D14" s="23">
+        <v>73.60144101496293</v>
+      </c>
+      <c r="E14" s="24">
+        <v>76.311728395061678</v>
+      </c>
+      <c r="F14" s="23">
+        <v>84.804202777777789</v>
+      </c>
+      <c r="G14" s="24">
+        <v>86.805544444444436</v>
+      </c>
+      <c r="H14" s="23">
+        <v>84.485594074074072</v>
+      </c>
+      <c r="I14" s="24">
+        <v>87.191366666666653</v>
+      </c>
+      <c r="J14" s="23">
+        <v>84.305559999999986</v>
+      </c>
+      <c r="K14" s="24">
+        <v>85.956785185185183</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D6:K6">
+    <cfRule type="top10" dxfId="19" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:K5">
+    <cfRule type="top10" dxfId="17" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:K8">
+    <cfRule type="top10" dxfId="15" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:K7">
+    <cfRule type="top10" dxfId="13" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:K10">
+    <cfRule type="top10" dxfId="11" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:K9">
+    <cfRule type="top10" dxfId="9" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:K12">
+    <cfRule type="top10" dxfId="7" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:K11">
+    <cfRule type="top10" dxfId="5" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:K13">
+    <cfRule type="top10" dxfId="3" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:K14">
+    <cfRule type="top10" dxfId="1" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AC60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -13507,35 +14399,35 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="44" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="42" t="s">
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
     </row>
     <row r="5" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -13544,37 +14436,37 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43" t="s">
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
     </row>
     <row r="6" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -14536,35 +15428,35 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="44" t="s">
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="42" t="s">
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -14574,35 +15466,35 @@
       <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43" t="s">
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43" t="s">
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -15547,35 +16439,35 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="44" t="s">
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="42" t="s">
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
@@ -15584,35 +16476,35 @@
       <c r="C33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43" t="s">
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43" t="s">
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -16739,35 +17631,35 @@
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="44" t="s">
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="42" t="s">
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
@@ -16776,35 +17668,35 @@
       <c r="C47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43" t="s">
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43" t="s">
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="43"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -17917,6 +18809,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q4:Z4"/>
+    <mergeCell ref="Q17:Z17"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N5:AB5"/>
     <mergeCell ref="D47:J47"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="L32:P32"/>
@@ -17929,99 +18833,87 @@
     <mergeCell ref="Q46:Z46"/>
     <mergeCell ref="Q32:Z32"/>
     <mergeCell ref="N33:Z33"/>
-    <mergeCell ref="Q4:Z4"/>
-    <mergeCell ref="Q17:Z17"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N5:AB5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D43:AA43">
-    <cfRule type="top10" dxfId="39" priority="39" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="38" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="139" priority="39" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="138" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:AA35">
-    <cfRule type="top10" dxfId="37" priority="21" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="36" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="137" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="136" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:AA34">
-    <cfRule type="top10" dxfId="35" priority="23" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="34" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="135" priority="23" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="134" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:AA37">
-    <cfRule type="top10" dxfId="33" priority="25" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="32" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="133" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="132" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:AA36">
-    <cfRule type="top10" dxfId="31" priority="27" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="30" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="131" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="130" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:AA39">
-    <cfRule type="top10" dxfId="29" priority="29" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="28" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="129" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="128" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:AA38">
-    <cfRule type="top10" dxfId="27" priority="31" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="26" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="127" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="126" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:AA41">
-    <cfRule type="top10" dxfId="25" priority="33" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="24" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="125" priority="33" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="124" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:AA40">
-    <cfRule type="top10" dxfId="23" priority="35" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="22" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="123" priority="35" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="122" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:AA42">
-    <cfRule type="top10" dxfId="21" priority="37" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="20" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="121" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="120" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:AA49">
-    <cfRule type="top10" dxfId="19" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="18" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="119" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="118" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:AA48">
-    <cfRule type="top10" dxfId="17" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="16" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="117" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="116" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:AA51">
-    <cfRule type="top10" dxfId="15" priority="5" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="14" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="115" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="114" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:AA50">
-    <cfRule type="top10" dxfId="13" priority="7" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="12" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="113" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="112" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:AA53">
-    <cfRule type="top10" dxfId="11" priority="9" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="10" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="111" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="110" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:AA52">
-    <cfRule type="top10" dxfId="9" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="8" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="109" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="108" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:AA55">
-    <cfRule type="top10" dxfId="7" priority="13" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="6" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="107" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="106" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:AA54">
-    <cfRule type="top10" dxfId="5" priority="15" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="4" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="105" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="104" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:AA56">
-    <cfRule type="top10" dxfId="3" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="2" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="103" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="102" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:AA57">
-    <cfRule type="top10" dxfId="1" priority="19" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="0" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="101" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="100" priority="20" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
